--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545ED87-0E51-4299-B028-DF1E062F9F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D347F60-A019-4877-A79C-7532E6443015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -54,13 +54,10 @@
     <t>addPlane|String!</t>
   </si>
   <si>
-    <t>Env_DayLight, Env_DayLight</t>
-  </si>
-  <si>
     <t>Plane_40_40_1</t>
   </si>
   <si>
-    <t>Env_DayLight</t>
+    <t>Env_Night, Env_Sunset</t>
   </si>
 </sst>
 </file>
@@ -483,10 +480,10 @@
         <v>45</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -503,7 +500,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -520,7 +517,7 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -537,7 +534,7 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -554,7 +551,7 @@
         <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -571,7 +568,7 @@
         <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,7 +585,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D347F60-A019-4877-A79C-7532E6443015}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E962CF-C97B-4BD8-A430-03F46881CF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
+    <sheet name="NodeWarSpawnTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -58,6 +59,42 @@
   </si>
   <si>
     <t>Env_Night, Env_Sunset</t>
+  </si>
+  <si>
+    <t>monsterId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minStep|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstWaiting|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnPeriod|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalMax|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationCrocodile_Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnChance|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -433,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -592,4 +629,73 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E962CF-C97B-4BD8-A430-03F46881CF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62F17C-F891-4DF2-A1B4-5773B4CA3B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -62,39 +62,30 @@
   </si>
   <si>
     <t>monsterId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>minLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>minStep|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>firstWaiting|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnChance|Float</t>
   </si>
   <si>
     <t>spawnPeriod|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>totalMax|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VariationCrocodile_Gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnChance|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -656,21 +647,21 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -686,9 +677,6 @@
       </c>
       <c r="F2">
         <v>1</v>
-      </c>
-      <c r="G2">
-        <v>50</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62F17C-F891-4DF2-A1B4-5773B4CA3B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103460E5-4DAB-406A-BF5F-1409BE494606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>VariationCrocodile_Gray</t>
+  </si>
+  <si>
+    <t>repeatRewardGold|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -459,19 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1">
+    <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -481,20 +485,23 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -502,19 +509,22 @@
         <v>1000</v>
       </c>
       <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
         <v>107</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,16 +532,19 @@
         <v>1100</v>
       </c>
       <c r="D3">
+        <v>600</v>
+      </c>
+      <c r="E3">
         <v>117</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -539,16 +552,19 @@
         <v>1200</v>
       </c>
       <c r="D4">
+        <v>700</v>
+      </c>
+      <c r="E4">
         <v>127</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>55</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -556,16 +572,19 @@
         <v>1300</v>
       </c>
       <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5">
         <v>137</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>60</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -573,16 +592,19 @@
         <v>30</v>
       </c>
       <c r="D6">
+        <v>900</v>
+      </c>
+      <c r="E6">
         <v>147</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>65</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -590,16 +612,19 @@
         <v>1400</v>
       </c>
       <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
         <v>157</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -607,12 +632,15 @@
         <v>1500</v>
       </c>
       <c r="D8">
+        <v>1100</v>
+      </c>
+      <c r="E8">
         <v>167</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -626,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103460E5-4DAB-406A-BF5F-1409BE494606}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F309F4-7CD9-4EF3-BF86-30BF6D05462F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -90,6 +90,9 @@
   <si>
     <t>repeatRewardGold|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationScarab_Yellow</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -652,9 +655,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -704,9 +707,32 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F309F4-7CD9-4EF3-BF86-30BF6D05462F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1CE68-10EB-4BA9-944D-7DF0B95E08EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -88,11 +88,10 @@
     <t>VariationCrocodile_Gray</t>
   </si>
   <si>
+    <t>VariationScarab_Yellow</t>
+  </si>
+  <si>
     <t>repeatRewardGold|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VariationScarab_Yellow</t>
   </si>
 </sst>
 </file>
@@ -468,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -489,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -515,10 +514,10 @@
         <v>500</v>
       </c>
       <c r="E2">
-        <v>107</v>
+        <v>405</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -538,10 +537,10 @@
         <v>600</v>
       </c>
       <c r="E3">
-        <v>117</v>
+        <v>486</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -558,10 +557,10 @@
         <v>700</v>
       </c>
       <c r="E4">
-        <v>127</v>
+        <v>583</v>
       </c>
       <c r="F4">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -578,10 +577,10 @@
         <v>800</v>
       </c>
       <c r="E5">
-        <v>137</v>
+        <v>700</v>
       </c>
       <c r="F5">
-        <v>60</v>
+        <v>292</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -598,10 +597,10 @@
         <v>900</v>
       </c>
       <c r="E6">
-        <v>147</v>
+        <v>840</v>
       </c>
       <c r="F6">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -618,10 +617,10 @@
         <v>1000</v>
       </c>
       <c r="E7">
-        <v>157</v>
+        <v>1008</v>
       </c>
       <c r="F7">
-        <v>70</v>
+        <v>420</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -638,10 +637,10 @@
         <v>1100</v>
       </c>
       <c r="E8">
-        <v>167</v>
+        <v>1209</v>
       </c>
       <c r="F8">
-        <v>75</v>
+        <v>504</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -657,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -715,7 +714,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1CE68-10EB-4BA9-944D-7DF0B95E08EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ED166D-FF30-4C2A-82E4-C5FB239D3D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>repeatRewardGold|Int</t>
+  </si>
+  <si>
+    <t>TreasureMonster</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -654,9 +657,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -735,6 +738,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ED166D-FF30-4C2A-82E4-C5FB239D3D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A201CCF-2CBC-4019-B197-C9C7CE98177F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>TreasureMonster</t>
+  </si>
+  <si>
+    <t>Env_NightNodeWar</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -523,7 +528,7 @@
         <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -709,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -732,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A201CCF-2CBC-4019-B197-C9C7CE98177F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4762DD6-6550-499A-AF3B-A2BC3161C3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>repeatRewardGold|Int</t>
-  </si>
-  <si>
-    <t>TreasureMonster</t>
   </si>
   <si>
     <t>Env_NightNodeWar</t>
@@ -528,7 +525,7 @@
         <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -662,7 +659,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -737,33 +734,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4762DD6-6550-499A-AF3B-A2BC3161C3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136C9FAB-1F02-49F2-86B0-BD4A792A3130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Env_NightNodeWar</t>
+  </si>
+  <si>
+    <t>CarnivorousPlant_Green</t>
+  </si>
+  <si>
+    <t>HellCreeper_Red</t>
   </si>
 </sst>
 </file>
@@ -659,9 +665,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -740,6 +748,58 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136C9FAB-1F02-49F2-86B0-BD4A792A3130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7538232-716B-4E77-890E-233CAFC3F2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -64,9 +64,6 @@
     <t>monsterId|String</t>
   </si>
   <si>
-    <t>minLevel|Int</t>
-  </si>
-  <si>
     <t>minStep|Int</t>
   </si>
   <si>
@@ -101,6 +98,18 @@
   </si>
   <si>
     <t>HellCreeper_Red</t>
+  </si>
+  <si>
+    <t>fixedLevel|Int</t>
+  </si>
+  <si>
+    <t>oneLevel|Int</t>
+  </si>
+  <si>
+    <t>lastSpawnPeriod|Float</t>
+  </si>
+  <si>
+    <t>lastMaxCount|Int</t>
   </si>
 </sst>
 </file>
@@ -499,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -531,7 +540,7 @@
         <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -665,138 +674,1439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.2</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0.8</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="H6">
+        <v>0.4</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>1.2</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <v>0.2</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.2</v>
+      </c>
+      <c r="H11">
+        <v>0.3</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="H5" t="b">
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8</v>
+      </c>
+      <c r="H14">
+        <v>0.4</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.2</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.2</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8</v>
+      </c>
+      <c r="H22">
+        <v>0.4</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.2</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8</v>
+      </c>
+      <c r="H26">
+        <v>0.2</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.2</v>
+      </c>
+      <c r="H27">
+        <v>0.3</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.8</v>
+      </c>
+      <c r="H30">
+        <v>0.4</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.2</v>
+      </c>
+      <c r="H31">
+        <v>0.3</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8</v>
+      </c>
+      <c r="H34">
+        <v>0.2</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.2</v>
+      </c>
+      <c r="H35">
+        <v>0.3</v>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0.5</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.5</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0.8</v>
+      </c>
+      <c r="H38">
+        <v>0.4</v>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1.2</v>
+      </c>
+      <c r="H39">
+        <v>0.3</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0.5</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0.8</v>
+      </c>
+      <c r="H42">
+        <v>0.2</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>10</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1.2</v>
+      </c>
+      <c r="H43">
+        <v>0.3</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0.8</v>
+      </c>
+      <c r="H46">
+        <v>0.4</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1.2</v>
+      </c>
+      <c r="H47">
+        <v>0.3</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>0.5</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7538232-716B-4E77-890E-233CAFC3F2EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDE719D-8DF7-4588-B4E6-99D1A4FA91A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>lastMaxCount|Int</t>
+  </si>
+  <si>
+    <t>PolygonalMagma_Blue</t>
   </si>
 </sst>
 </file>
@@ -674,9 +677,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1996,33 +2001,39 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
       </c>
       <c r="K46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -2031,16 +2042,16 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2048,7 +2059,7 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -2057,56 +2068,82 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H48">
-        <v>0.5</v>
-      </c>
-      <c r="I48">
-        <v>8</v>
-      </c>
-      <c r="J48">
-        <v>8</v>
+        <v>0.3</v>
       </c>
       <c r="K48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+      <c r="F49">
+        <v>0.5</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>0.5</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
         <v>21</v>
       </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>30</v>
       </c>
-      <c r="F49">
-        <v>0.5</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>0.5</v>
-      </c>
-      <c r="I49">
-        <v>8</v>
-      </c>
-      <c r="J49">
-        <v>8</v>
-      </c>
-      <c r="K49" t="b">
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>0.5</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDE719D-8DF7-4588-B4E6-99D1A4FA91A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BB7738-0D2A-4155-8032-2EB12BF1D47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>PolygonalMagma_Blue</t>
+  </si>
+  <si>
+    <t>trap|Bool</t>
+  </si>
+  <si>
+    <t>minPeriod|Float</t>
+  </si>
+  <si>
+    <t>maxPeriod|Float</t>
+  </si>
+  <si>
+    <t>Trap_NodeWar</t>
   </si>
 </sst>
 </file>
@@ -677,10 +689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -688,1462 +700,1641 @@
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" customHeight="1">
+    <row r="1" spans="1:14" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" t="b">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>0.8</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.2</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="b">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>1.2</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>0.3</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" t="b">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>8</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" t="b">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
       <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>2</v>
+      <c r="B6" t="b">
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0.8</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>0.4</v>
       </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="B7" t="b">
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>1.2</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>0.3</v>
       </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="B8" t="b">
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="B9" t="b">
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>0.5</v>
-      </c>
       <c r="I9">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
-        <v>8</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
       <c r="E10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0.8</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>0.2</v>
       </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>1.2</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>0.3</v>
       </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="C12">
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
       <c r="E12">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <v>8</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
       <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>4</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>0.8</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>0.4</v>
       </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>1.2</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>0.3</v>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>30</v>
       </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>0.5</v>
-      </c>
       <c r="I17">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0.5</v>
+      </c>
+      <c r="L17">
+        <v>8</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="C18">
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>0.2</v>
       </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
         <v>1.2</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>0.3</v>
       </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>30</v>
       </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
       <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>4</v>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="C22">
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>0.8</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>0.4</v>
       </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="C23">
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>10</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
         <v>1.2</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>0.3</v>
       </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="C24">
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J24">
-        <v>8</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="C25">
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>30</v>
       </c>
-      <c r="F25">
-        <v>0.5</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>0.5</v>
-      </c>
       <c r="I25">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
-        <v>8</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="C26">
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>7</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="E26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>0.8</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>0.2</v>
       </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="C27">
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>7</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
       <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>10</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
         <v>1.2</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>0.3</v>
       </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
       <c r="E28">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J28">
-        <v>8</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+      <c r="M28">
+        <v>8</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="C29">
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>30</v>
       </c>
-      <c r="F29">
-        <v>0.5</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
       <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
         <v>4</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>4</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="C30">
-        <v>8</v>
+      <c r="B30" t="b">
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>0.8</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>0.4</v>
       </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="C31">
-        <v>8</v>
+      <c r="B31" t="b">
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>10</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>1.2</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>0.3</v>
       </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="C32">
-        <v>8</v>
+      <c r="B32" t="b">
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
-        <v>8</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>8</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="C33">
-        <v>8</v>
+      <c r="B33" t="b">
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>30</v>
       </c>
-      <c r="F33">
-        <v>0.5</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>0.5</v>
-      </c>
       <c r="I33">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J33">
-        <v>8</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>8</v>
+      </c>
+      <c r="N33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="C34">
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
       <c r="E34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>0.8</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>0.2</v>
       </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="C35">
+      <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>9</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
       <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>10</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>1.2</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>0.3</v>
       </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="C36">
+      <c r="B36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>9</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
       <c r="E36">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J36">
-        <v>8</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>21</v>
       </c>
-      <c r="C37">
+      <c r="B37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>9</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>30</v>
       </c>
-      <c r="F37">
-        <v>0.5</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
       <c r="I37">
+        <v>0.5</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
         <v>4</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>4</v>
       </c>
-      <c r="K37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="N37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="C38">
+      <c r="B38" t="b">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>0.8</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>0.4</v>
       </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>17</v>
       </c>
-      <c r="C39">
+      <c r="B39" t="b">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>10</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
         <v>1.2</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>0.3</v>
       </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="C40">
+      <c r="B40" t="b">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J40">
-        <v>8</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="C41">
+      <c r="B41" t="b">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>30</v>
       </c>
-      <c r="F41">
-        <v>0.5</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>0.5</v>
-      </c>
       <c r="I41">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J41">
-        <v>8</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+      <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
+        <v>0.5</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>0.8</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>0.2</v>
       </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>17</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43">
         <v>1</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>10</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
         <v>1.2</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>0.3</v>
       </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0.5</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="J44">
-        <v>8</v>
-      </c>
-      <c r="K44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>0.5</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="D45">
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>1</v>
       </c>
       <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>30</v>
       </c>
-      <c r="F45">
-        <v>0.5</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
       <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
         <v>4</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>4</v>
       </c>
-      <c r="K45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
       <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>15</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>3.5</v>
+      </c>
+      <c r="H47">
+        <v>7.5</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0.5</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
         <v>0.8</v>
       </c>
-      <c r="H47">
+      <c r="K48">
         <v>0.4</v>
       </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
         <v>17</v>
       </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>10</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
         <v>1.2</v>
       </c>
-      <c r="H48">
+      <c r="K49">
         <v>0.3</v>
       </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>20</v>
-      </c>
-      <c r="F49">
-        <v>0.5</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>0.5</v>
-      </c>
-      <c r="I49">
-        <v>8</v>
-      </c>
-      <c r="J49">
-        <v>8</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>0.5</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
         <v>21</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>30</v>
       </c>
-      <c r="F50">
-        <v>0.5</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <v>0.5</v>
-      </c>
-      <c r="I50">
-        <v>8</v>
-      </c>
-      <c r="J50">
-        <v>8</v>
-      </c>
-      <c r="K50" t="b">
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51">
+        <v>8</v>
+      </c>
+      <c r="N51" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BB7738-0D2A-4155-8032-2EB12BF1D47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAF127-4D15-4E27-80B3-D142029D6399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -501,7 +501,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -689,11 +689,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -764,10 +762,10 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -793,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -804,69 +802,63 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>0.5</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -880,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -892,10 +884,10 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
@@ -909,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -921,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="N7" t="b">
         <v>1</v>
@@ -938,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -950,16 +942,16 @@
         <v>0.5</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -967,60 +959,54 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="K10">
         <v>0.2</v>
@@ -1031,284 +1017,260 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1.2</v>
-      </c>
-      <c r="K11">
-        <v>0.3</v>
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>6.5</v>
       </c>
       <c r="N11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J14">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1.2</v>
-      </c>
-      <c r="K15">
-        <v>0.3</v>
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>2.5</v>
+      </c>
+      <c r="H15">
+        <v>6.5</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
-      </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
-      </c>
-      <c r="L17">
-        <v>8</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="K18">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
       </c>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K19">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N19" t="b">
         <v>1</v>
@@ -1316,69 +1278,63 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
-      </c>
-      <c r="L20">
-        <v>8</v>
-      </c>
-      <c r="M20">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>0.5</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -1386,57 +1342,63 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J22">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="K22">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="K23">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N23" t="b">
         <v>1</v>
@@ -1444,48 +1406,42 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
-      </c>
-      <c r="L24">
-        <v>8</v>
-      </c>
-      <c r="M24">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1497,16 +1453,16 @@
         <v>0.5</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -1514,57 +1470,63 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
       </c>
       <c r="N26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="K27">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N27" t="b">
         <v>1</v>
@@ -1572,48 +1534,42 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
-      </c>
-      <c r="L28">
-        <v>8</v>
-      </c>
-      <c r="M28">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="N28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1628,13 +1584,13 @@
         <v>2</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -1642,199 +1598,199 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
       </c>
       <c r="N30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>10</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1.2</v>
-      </c>
-      <c r="K31">
-        <v>0.3</v>
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>2.5</v>
+      </c>
+      <c r="H31">
+        <v>6.5</v>
       </c>
       <c r="N31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
-      </c>
-      <c r="L32">
-        <v>8</v>
-      </c>
-      <c r="M32">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="N32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
-      </c>
-      <c r="L33">
-        <v>8</v>
-      </c>
-      <c r="M33">
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="N33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J34">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+      <c r="M34">
+        <v>8</v>
       </c>
       <c r="N34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J35">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
       </c>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1843,19 +1799,19 @@
         <v>20</v>
       </c>
       <c r="I36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
         <v>2</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
-      </c>
-      <c r="L36">
-        <v>8</v>
-      </c>
-      <c r="M36">
-        <v>8</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -1863,34 +1819,22 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>30</v>
-      </c>
-      <c r="I37">
-        <v>0.5</v>
-      </c>
-      <c r="J37">
-        <v>2</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>4</v>
-      </c>
-      <c r="M37">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>2.5</v>
+      </c>
+      <c r="H37">
+        <v>6.5</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -1903,8 +1847,8 @@
       <c r="B38" t="b">
         <v>0</v>
       </c>
-      <c r="D38">
-        <v>0</v>
+      <c r="C38">
+        <v>17</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1919,7 +1863,7 @@
         <v>0.8</v>
       </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N38" t="b">
         <v>1</v>
@@ -1932,8 +1876,8 @@
       <c r="B39" t="b">
         <v>0</v>
       </c>
-      <c r="D39">
-        <v>0</v>
+      <c r="C39">
+        <v>17</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1961,8 +1905,8 @@
       <c r="B40" t="b">
         <v>0</v>
       </c>
-      <c r="D40">
-        <v>0</v>
+      <c r="C40">
+        <v>17</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1996,8 +1940,8 @@
       <c r="B41" t="b">
         <v>0</v>
       </c>
-      <c r="D41">
-        <v>0</v>
+      <c r="C41">
+        <v>17</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2012,13 +1956,13 @@
         <v>2</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -2026,315 +1970,59 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0.2</v>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
       </c>
       <c r="N42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>17</v>
       </c>
-      <c r="B43" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
       <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1.2</v>
-      </c>
-      <c r="K43">
-        <v>0.3</v>
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>3.5</v>
+      </c>
+      <c r="H43">
+        <v>7.5</v>
       </c>
       <c r="N43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>20</v>
-      </c>
-      <c r="I44">
-        <v>0.5</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44">
-        <v>0.5</v>
-      </c>
-      <c r="L44">
-        <v>8</v>
-      </c>
-      <c r="M44">
-        <v>8</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>30</v>
-      </c>
-      <c r="I45">
-        <v>0.5</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>4</v>
-      </c>
-      <c r="M45">
-        <v>4</v>
-      </c>
-      <c r="N45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>15</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" t="b">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>20</v>
-      </c>
-      <c r="G47">
-        <v>3.5</v>
-      </c>
-      <c r="H47">
-        <v>7.5</v>
-      </c>
-      <c r="N47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0.5</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>0.8</v>
-      </c>
-      <c r="K48">
-        <v>0.4</v>
-      </c>
-      <c r="N48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>1.2</v>
-      </c>
-      <c r="K49">
-        <v>0.3</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>20</v>
-      </c>
-      <c r="I50">
-        <v>0.5</v>
-      </c>
-      <c r="J50">
-        <v>2</v>
-      </c>
-      <c r="K50">
-        <v>0.5</v>
-      </c>
-      <c r="L50">
-        <v>8</v>
-      </c>
-      <c r="M50">
-        <v>8</v>
-      </c>
-      <c r="N50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" t="b">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>30</v>
-      </c>
-      <c r="I51">
-        <v>0.5</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="K51">
-        <v>0.5</v>
-      </c>
-      <c r="L51">
-        <v>8</v>
-      </c>
-      <c r="M51">
-        <v>8</v>
-      </c>
-      <c r="N51" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FAF127-4D15-4E27-80B3-D142029D6399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA52477C-2287-40BB-AD18-FA7EFAEA8AD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Plane_40_40_1</t>
-  </si>
-  <si>
-    <t>Env_Night, Env_Sunset</t>
   </si>
   <si>
     <t>monsterId|String</t>
@@ -500,9 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -523,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -555,7 +550,7 @@
         <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -578,7 +573,7 @@
         <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -598,7 +593,7 @@
         <v>243</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -618,7 +613,7 @@
         <v>292</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -638,7 +633,7 @@
         <v>350</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -658,7 +653,7 @@
         <v>420</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +673,7 @@
         <v>504</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -700,57 +697,57 @@
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -773,13 +770,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -802,7 +799,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -831,7 +828,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -866,7 +863,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -895,7 +892,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -924,7 +921,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -959,13 +956,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -988,13 +985,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1017,13 +1014,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1040,7 +1037,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -1069,7 +1066,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -1098,7 +1095,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -1133,7 +1130,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -1156,7 +1153,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -1185,7 +1182,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
@@ -1214,7 +1211,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -1278,7 +1275,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -1307,7 +1304,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -1342,7 +1339,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -1377,7 +1374,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -1406,7 +1403,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -1435,7 +1432,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -1470,7 +1467,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -1505,7 +1502,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -1534,7 +1531,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -1563,7 +1560,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -1598,7 +1595,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
@@ -1656,7 +1653,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -1685,7 +1682,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -1749,7 +1746,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -1784,7 +1781,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -1819,7 +1816,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
@@ -1842,7 +1839,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" t="b">
         <v>0</v>
@@ -1871,7 +1868,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" t="b">
         <v>0</v>
@@ -1900,7 +1897,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" t="b">
         <v>0</v>
@@ -1935,7 +1932,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="b">
         <v>0</v>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" t="b">
         <v>0</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" t="b">
         <v>1</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586D8A4-E458-4A74-A0C2-20FB5A894FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B6739-88F6-49A3-BBDB-C34D15290149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>PolygonalMagma_Blue</t>
-  </si>
-  <si>
-    <t>trap|Bool</t>
   </si>
   <si>
     <t>trapId|String</t>
@@ -712,7 +709,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,739 +718,670 @@
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1">
+    <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="b">
-        <v>0</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
-      </c>
-      <c r="I2">
         <v>0.05</v>
       </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="b">
-        <v>0</v>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
-      </c>
-      <c r="I3">
         <v>0.1</v>
       </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="b">
-        <v>0</v>
+      <c r="C4">
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H4">
-        <v>0.6</v>
-      </c>
-      <c r="I4">
         <v>0.1</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="b">
-        <v>0</v>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="b">
-        <v>0</v>
+      <c r="C6">
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H6">
-        <v>0.6</v>
-      </c>
-      <c r="I6">
         <v>0.1</v>
       </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="b">
-        <v>0</v>
+      <c r="C7">
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H7">
-        <v>0.9</v>
-      </c>
-      <c r="I7">
         <v>0.2</v>
       </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="b">
-        <v>0</v>
+      <c r="C8">
+        <v>3</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>0.5</v>
-      </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="b">
-        <v>0</v>
+      <c r="C9">
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
-      </c>
-      <c r="I9">
         <v>0.1</v>
       </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="b">
-        <v>0</v>
+      <c r="C10">
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H10">
-        <v>0.7</v>
-      </c>
-      <c r="I10">
         <v>0.2</v>
       </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="b">
-        <v>0</v>
+      <c r="C11">
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
-      </c>
-      <c r="I11">
         <v>0.1</v>
       </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="b">
-        <v>0</v>
+      <c r="C12">
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H12">
-        <v>0.7</v>
-      </c>
-      <c r="I12">
         <v>0.2</v>
       </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="b">
-        <v>0</v>
+      <c r="C13">
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <v>8</v>
       </c>
-      <c r="K13">
-        <v>8</v>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="b">
-        <v>0</v>
+      <c r="C14">
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
-        <v>0.6</v>
-      </c>
-      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="b">
-        <v>0</v>
+      <c r="C15">
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H15">
-        <v>0.9</v>
-      </c>
-      <c r="I15">
         <v>0.2</v>
       </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="b">
-        <v>0</v>
+      <c r="C16">
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H16">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="b">
-        <v>0</v>
+      <c r="C17">
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H17">
-        <v>0.6</v>
-      </c>
-      <c r="I17">
         <v>0.1</v>
       </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="b">
-        <v>0</v>
+      <c r="C18">
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H18">
-        <v>0.9</v>
-      </c>
-      <c r="I18">
         <v>0.2</v>
       </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="b">
-        <v>0</v>
+      <c r="C19">
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="b">
-        <v>0</v>
+      <c r="C20">
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H20">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" t="b">
-        <v>0</v>
+      <c r="C21">
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
-      </c>
-      <c r="I21">
         <v>0.1</v>
       </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="b">
-        <v>0</v>
+      <c r="C22">
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H22">
-        <v>0.9</v>
-      </c>
-      <c r="I22">
         <v>0.2</v>
       </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="b">
-        <v>0</v>
+      <c r="C23">
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J23">
         <v>6</v>
       </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="b">
-        <v>0</v>
+      <c r="C24">
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1465,123 +1393,111 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" t="b">
-        <v>0</v>
+      <c r="C25">
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H25">
-        <v>0.4</v>
-      </c>
-      <c r="I25">
         <v>0.1</v>
       </c>
-      <c r="L25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" t="b">
-        <v>0</v>
+      <c r="C26">
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H26">
-        <v>0.7</v>
-      </c>
-      <c r="I26">
         <v>0.2</v>
       </c>
-      <c r="L26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="b">
-        <v>0</v>
+      <c r="C27">
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>8</v>
       </c>
-      <c r="K27">
-        <v>8</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="b">
-        <v>0</v>
+      <c r="C28">
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1593,158 +1509,143 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="b">
+      <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H29">
-        <v>0.4</v>
-      </c>
-      <c r="I29">
         <v>0.1</v>
       </c>
-      <c r="L29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="b">
+      <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H30">
-        <v>0.7</v>
-      </c>
-      <c r="I30">
         <v>0.2</v>
       </c>
-      <c r="L30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="b">
+      <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J31">
         <v>8</v>
       </c>
-      <c r="K31">
-        <v>8</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="b">
+      <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" t="b">
+      <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1756,158 +1657,143 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>2</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34">
+      <c r="B34">
         <v>17</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
-      </c>
-      <c r="I34">
         <v>0.2</v>
       </c>
-      <c r="L34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B35">
         <v>17</v>
       </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
       <c r="E35">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H35">
-        <v>1.2</v>
-      </c>
-      <c r="I35">
         <v>0.3</v>
       </c>
-      <c r="L35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36">
+      <c r="B36">
         <v>17</v>
       </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
       <c r="E36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I36">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="J36">
         <v>8</v>
       </c>
-      <c r="K36">
-        <v>8</v>
-      </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37">
         <v>17</v>
       </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
       <c r="E37">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>0.5</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>4</v>
       </c>
-      <c r="K37">
-        <v>4</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>25</v>
       </c>
-      <c r="B38" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="B38">
         <v>17</v>
       </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
       <c r="E38">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1919,12 +1805,9 @@
         <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38" t="b">
+        <v>2</v>
+      </c>
+      <c r="K38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1947,33 +1830,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1987,7 +1870,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2001,7 +1884,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2015,7 +1898,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2038,7 +1921,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2061,7 +1944,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -2075,7 +1958,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -2089,7 +1972,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -2103,7 +1986,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2126,7 +2009,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2149,7 +2032,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>17</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B6739-88F6-49A3-BBDB-C34D15290149}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDFBD5B-2AD5-433A-B774-233E3C521D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -114,39 +114,21 @@
   </si>
   <si>
     <t>trapId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixedLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oneLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstWaiting|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>minPeriodStepOne|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxPeriodStepOne|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>minPeriodStepTwo|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxPeriodStepTwo|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Trap_NodeWar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -711,7 +693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1821,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C250392E-ABFE-4763-9299-8FF4A7CB0BD2}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1833,30 +1817,30 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1870,7 +1854,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1884,7 +1868,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1898,7 +1882,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1921,7 +1905,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1944,7 +1928,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1958,7 +1942,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1972,7 +1956,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1986,7 +1970,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -2009,7 +1993,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2032,7 +2016,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>17</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDFBD5B-2AD5-433A-B774-233E3C521D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ACF05F-EC69-474C-AF0F-FE0A3A9B9EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -551,7 +551,7 @@
         <v>500</v>
       </c>
       <c r="E2">
-        <v>405</v>
+        <v>1114</v>
       </c>
       <c r="F2">
         <v>169</v>
@@ -574,7 +574,7 @@
         <v>600</v>
       </c>
       <c r="E3">
-        <v>486</v>
+        <v>1337</v>
       </c>
       <c r="F3">
         <v>203</v>
@@ -594,7 +594,7 @@
         <v>700</v>
       </c>
       <c r="E4">
-        <v>583</v>
+        <v>1604</v>
       </c>
       <c r="F4">
         <v>243</v>
@@ -614,7 +614,7 @@
         <v>800</v>
       </c>
       <c r="E5">
-        <v>700</v>
+        <v>1925</v>
       </c>
       <c r="F5">
         <v>292</v>
@@ -634,7 +634,7 @@
         <v>900</v>
       </c>
       <c r="E6">
-        <v>840</v>
+        <v>2309</v>
       </c>
       <c r="F6">
         <v>350</v>
@@ -654,7 +654,7 @@
         <v>1000</v>
       </c>
       <c r="E7">
-        <v>1008</v>
+        <v>2771</v>
       </c>
       <c r="F7">
         <v>420</v>
@@ -674,7 +674,7 @@
         <v>1100</v>
       </c>
       <c r="E8">
-        <v>1209</v>
+        <v>3326</v>
       </c>
       <c r="F8">
         <v>504</v>
@@ -693,9 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -754,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
         <v>0.05</v>
@@ -780,7 +778,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
         <v>0.1</v>
@@ -1805,7 +1803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C250392E-ABFE-4763-9299-8FF4A7CB0BD2}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1846,10 +1846,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1860,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1874,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H4">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1897,10 +1897,10 @@
         <v>6.5</v>
       </c>
       <c r="G5">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1920,10 +1920,10 @@
         <v>6.5</v>
       </c>
       <c r="G6">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H6">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1934,10 +1934,10 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H7">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1948,10 +1948,10 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H8">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1962,10 +1962,10 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1985,10 +1985,10 @@
         <v>6.5</v>
       </c>
       <c r="G10">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H10">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2008,10 +2008,10 @@
         <v>6.5</v>
       </c>
       <c r="G11">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H11">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2031,10 +2031,10 @@
         <v>7.5</v>
       </c>
       <c r="G12">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ACF05F-EC69-474C-AF0F-FE0A3A9B9EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B6DE4-A9A4-4DA5-B54C-E46AA4ABAAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -752,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
@@ -778,10 +778,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -824,13 +824,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1803,9 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C250392E-ABFE-4763-9299-8FF4A7CB0BD2}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1846,10 +1844,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1860,10 +1858,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1874,10 +1872,10 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1888,13 +1886,13 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F5">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G5">
         <v>0.2</v>
@@ -1911,13 +1909,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F6">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G6">
         <v>0.2</v>
@@ -1934,10 +1932,10 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1948,10 +1946,10 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H8">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1962,10 +1960,10 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H9">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1976,13 +1974,13 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G10">
         <v>0.2</v>
@@ -1999,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="G11">
         <v>0.2</v>
@@ -2021,20 +2019,11 @@
       <c r="B12">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>3.5</v>
-      </c>
-      <c r="F12">
-        <v>7.5</v>
-      </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4B6DE4-A9A4-4DA5-B54C-E46AA4ABAAAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DF6DD-9A3B-4A33-81BA-B35AD3ECE649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -545,10 +547,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="E2">
         <v>1114</v>
@@ -568,10 +570,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1100</v>
+        <v>5200</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <v>1250</v>
       </c>
       <c r="E3">
         <v>1337</v>
@@ -588,10 +590,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1200</v>
+        <v>5400</v>
       </c>
       <c r="D4">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E4">
         <v>1604</v>
@@ -608,10 +610,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>1300</v>
+        <v>6000</v>
       </c>
       <c r="D5">
-        <v>800</v>
+        <v>1350</v>
       </c>
       <c r="E5">
         <v>1925</v>
@@ -631,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="E6">
         <v>2309</v>
@@ -648,10 +650,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1400</v>
+        <v>6200</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>1550</v>
       </c>
       <c r="E7">
         <v>2771</v>
@@ -668,10 +670,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>1500</v>
+        <v>6400</v>
       </c>
       <c r="D8">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="E8">
         <v>3326</v>
@@ -693,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393DF6DD-9A3B-4A33-81BA-B35AD3ECE649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38202083-6BFA-443C-89E8-41BDE2448F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="32">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -502,11 +502,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -547,10 +545,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>5345</v>
       </c>
       <c r="D2">
-        <v>1200</v>
+        <v>1475</v>
       </c>
       <c r="E2">
         <v>1114</v>
@@ -570,16 +568,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5200</v>
+        <v>5356</v>
       </c>
       <c r="D3">
-        <v>1250</v>
+        <v>1478</v>
       </c>
       <c r="E3">
-        <v>1337</v>
+        <v>1169</v>
       </c>
       <c r="F3">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -590,16 +588,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5400</v>
+        <v>5367</v>
       </c>
       <c r="D4">
-        <v>1300</v>
+        <v>1481</v>
       </c>
       <c r="E4">
-        <v>1604</v>
+        <v>1240</v>
       </c>
       <c r="F4">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -610,16 +608,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6000</v>
+        <v>5378</v>
       </c>
       <c r="D5">
-        <v>1350</v>
+        <v>1484</v>
       </c>
       <c r="E5">
-        <v>1925</v>
+        <v>1326</v>
       </c>
       <c r="F5">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -630,16 +628,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="E6">
-        <v>2309</v>
+        <v>1432</v>
       </c>
       <c r="F6">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -650,16 +648,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>6200</v>
+        <v>5389</v>
       </c>
       <c r="D7">
-        <v>1550</v>
+        <v>1490</v>
       </c>
       <c r="E7">
-        <v>2771</v>
+        <v>1561</v>
       </c>
       <c r="F7">
-        <v>420</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -670,18 +668,2878 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6400</v>
+        <v>5400</v>
       </c>
       <c r="D8">
-        <v>1600</v>
+        <v>1493</v>
       </c>
       <c r="E8">
-        <v>3326</v>
+        <v>1718</v>
       </c>
       <c r="F8">
-        <v>504</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>5411</v>
+      </c>
+      <c r="D9">
+        <v>1496</v>
+      </c>
+      <c r="E9">
+        <v>1906</v>
+      </c>
+      <c r="F9">
+        <v>289</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5422</v>
+      </c>
+      <c r="D10">
+        <v>1499</v>
+      </c>
+      <c r="E10">
+        <v>2135</v>
+      </c>
+      <c r="F10">
+        <v>324</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1502</v>
+      </c>
+      <c r="E11">
+        <v>2413</v>
+      </c>
+      <c r="F11">
+        <v>366</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>5972</v>
+      </c>
+      <c r="D12">
+        <v>1505</v>
+      </c>
+      <c r="E12">
+        <v>1677</v>
+      </c>
+      <c r="F12">
+        <v>254</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>5983</v>
+      </c>
+      <c r="D13">
+        <v>1508</v>
+      </c>
+      <c r="E13">
+        <v>1761</v>
+      </c>
+      <c r="F13">
+        <v>267</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>5994</v>
+      </c>
+      <c r="D14">
+        <v>1511</v>
+      </c>
+      <c r="E14">
+        <v>1866</v>
+      </c>
+      <c r="F14">
+        <v>283</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>6005</v>
+      </c>
+      <c r="D15">
+        <v>1514</v>
+      </c>
+      <c r="E15">
+        <v>1997</v>
+      </c>
+      <c r="F15">
+        <v>303</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1517</v>
+      </c>
+      <c r="E16">
+        <v>2157</v>
+      </c>
+      <c r="F16">
+        <v>327</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>6016</v>
+      </c>
+      <c r="D17">
+        <v>1520</v>
+      </c>
+      <c r="E17">
+        <v>2351</v>
+      </c>
+      <c r="F17">
+        <v>356</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>6027</v>
+      </c>
+      <c r="D18">
+        <v>1523</v>
+      </c>
+      <c r="E18">
+        <v>2586</v>
+      </c>
+      <c r="F18">
+        <v>392</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>6038</v>
+      </c>
+      <c r="D19">
+        <v>1526</v>
+      </c>
+      <c r="E19">
+        <v>2871</v>
+      </c>
+      <c r="F19">
+        <v>435</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>6049</v>
+      </c>
+      <c r="D20">
+        <v>1529</v>
+      </c>
+      <c r="E20">
+        <v>3215</v>
+      </c>
+      <c r="F20">
+        <v>487</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>1532</v>
+      </c>
+      <c r="E21">
+        <v>3633</v>
+      </c>
+      <c r="F21">
+        <v>550</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>6599</v>
+      </c>
+      <c r="D22">
+        <v>1535</v>
+      </c>
+      <c r="E22">
+        <v>2525</v>
+      </c>
+      <c r="F22">
+        <v>383</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>6610</v>
+      </c>
+      <c r="D23">
+        <v>1538</v>
+      </c>
+      <c r="E23">
+        <v>2651</v>
+      </c>
+      <c r="F23">
+        <v>402</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>6621</v>
+      </c>
+      <c r="D24">
+        <v>1541</v>
+      </c>
+      <c r="E24">
+        <v>2810</v>
+      </c>
+      <c r="F24">
+        <v>426</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>6632</v>
+      </c>
+      <c r="D25">
+        <v>1544</v>
+      </c>
+      <c r="E25">
+        <v>3007</v>
+      </c>
+      <c r="F25">
+        <v>456</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>1547</v>
+      </c>
+      <c r="E26">
+        <v>3247</v>
+      </c>
+      <c r="F26">
+        <v>492</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>6643</v>
+      </c>
+      <c r="D27">
+        <v>1550</v>
+      </c>
+      <c r="E27">
+        <v>3540</v>
+      </c>
+      <c r="F27">
+        <v>536</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>6654</v>
+      </c>
+      <c r="D28">
+        <v>1553</v>
+      </c>
+      <c r="E28">
+        <v>3894</v>
+      </c>
+      <c r="F28">
+        <v>590</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>6665</v>
+      </c>
+      <c r="D29">
+        <v>1556</v>
+      </c>
+      <c r="E29">
+        <v>4322</v>
+      </c>
+      <c r="F29">
+        <v>655</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>6676</v>
+      </c>
+      <c r="D30">
+        <v>1559</v>
+      </c>
+      <c r="E30">
+        <v>4841</v>
+      </c>
+      <c r="F30">
+        <v>733</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>1562</v>
+      </c>
+      <c r="E31">
+        <v>5470</v>
+      </c>
+      <c r="F31">
+        <v>829</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>7226</v>
+      </c>
+      <c r="D32">
+        <v>1565</v>
+      </c>
+      <c r="E32">
+        <v>3802</v>
+      </c>
+      <c r="F32">
+        <v>576</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>7237</v>
+      </c>
+      <c r="D33">
+        <v>1568</v>
+      </c>
+      <c r="E33">
+        <v>3992</v>
+      </c>
+      <c r="F33">
+        <v>605</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>7248</v>
+      </c>
+      <c r="D34">
+        <v>1571</v>
+      </c>
+      <c r="E34">
+        <v>4231</v>
+      </c>
+      <c r="F34">
+        <v>641</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>7259</v>
+      </c>
+      <c r="D35">
+        <v>1574</v>
+      </c>
+      <c r="E35">
+        <v>4527</v>
+      </c>
+      <c r="F35">
+        <v>686</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>1577</v>
+      </c>
+      <c r="E36">
+        <v>4890</v>
+      </c>
+      <c r="F36">
+        <v>741</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>7270</v>
+      </c>
+      <c r="D37">
+        <v>1580</v>
+      </c>
+      <c r="E37">
+        <v>5330</v>
+      </c>
+      <c r="F37">
+        <v>808</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>7281</v>
+      </c>
+      <c r="D38">
+        <v>1583</v>
+      </c>
+      <c r="E38">
+        <v>5863</v>
+      </c>
+      <c r="F38">
+        <v>888</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>7292</v>
+      </c>
+      <c r="D39">
+        <v>1586</v>
+      </c>
+      <c r="E39">
+        <v>6507</v>
+      </c>
+      <c r="F39">
+        <v>986</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>7303</v>
+      </c>
+      <c r="D40">
+        <v>1589</v>
+      </c>
+      <c r="E40">
+        <v>7288</v>
+      </c>
+      <c r="F40">
+        <v>1104</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>1592</v>
+      </c>
+      <c r="E41">
+        <v>8236</v>
+      </c>
+      <c r="F41">
+        <v>1248</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>7853</v>
+      </c>
+      <c r="D42">
+        <v>1595</v>
+      </c>
+      <c r="E42">
+        <v>5724</v>
+      </c>
+      <c r="F42">
+        <v>867</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>7864</v>
+      </c>
+      <c r="D43">
+        <v>1598</v>
+      </c>
+      <c r="E43">
+        <v>6010</v>
+      </c>
+      <c r="F43">
+        <v>911</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>7875</v>
+      </c>
+      <c r="D44">
+        <v>1601</v>
+      </c>
+      <c r="E44">
+        <v>6371</v>
+      </c>
+      <c r="F44">
+        <v>965</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>7886</v>
+      </c>
+      <c r="D45">
+        <v>1604</v>
+      </c>
+      <c r="E45">
+        <v>6817</v>
+      </c>
+      <c r="F45">
+        <v>1033</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>1607</v>
+      </c>
+      <c r="E46">
+        <v>7362</v>
+      </c>
+      <c r="F46">
+        <v>1115</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>7897</v>
+      </c>
+      <c r="D47">
+        <v>1610</v>
+      </c>
+      <c r="E47">
+        <v>8025</v>
+      </c>
+      <c r="F47">
+        <v>1216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>7908</v>
+      </c>
+      <c r="D48">
+        <v>1613</v>
+      </c>
+      <c r="E48">
+        <v>8827</v>
+      </c>
+      <c r="F48">
+        <v>1337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>7919</v>
+      </c>
+      <c r="D49">
+        <v>1616</v>
+      </c>
+      <c r="E49">
+        <v>9798</v>
+      </c>
+      <c r="F49">
+        <v>1485</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>7930</v>
+      </c>
+      <c r="D50">
+        <v>1619</v>
+      </c>
+      <c r="E50">
+        <v>10974</v>
+      </c>
+      <c r="F50">
+        <v>1663</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>1622</v>
+      </c>
+      <c r="E51">
+        <v>12400</v>
+      </c>
+      <c r="F51">
+        <v>1879</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>8480</v>
+      </c>
+      <c r="D52">
+        <v>1625</v>
+      </c>
+      <c r="E52">
+        <v>8618</v>
+      </c>
+      <c r="F52">
+        <v>1306</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>8491</v>
+      </c>
+      <c r="D53">
+        <v>1628</v>
+      </c>
+      <c r="E53">
+        <v>9049</v>
+      </c>
+      <c r="F53">
+        <v>1371</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>8502</v>
+      </c>
+      <c r="D54">
+        <v>1631</v>
+      </c>
+      <c r="E54">
+        <v>9592</v>
+      </c>
+      <c r="F54">
+        <v>1453</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>8513</v>
+      </c>
+      <c r="D55">
+        <v>1634</v>
+      </c>
+      <c r="E55">
+        <v>10264</v>
+      </c>
+      <c r="F55">
+        <v>1555</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>1637</v>
+      </c>
+      <c r="E56">
+        <v>11085</v>
+      </c>
+      <c r="F56">
+        <v>1679</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>8524</v>
+      </c>
+      <c r="D57">
+        <v>1640</v>
+      </c>
+      <c r="E57">
+        <v>12082</v>
+      </c>
+      <c r="F57">
+        <v>1831</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>8535</v>
+      </c>
+      <c r="D58">
+        <v>1643</v>
+      </c>
+      <c r="E58">
+        <v>13290</v>
+      </c>
+      <c r="F58">
+        <v>2014</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>8546</v>
+      </c>
+      <c r="D59">
+        <v>1646</v>
+      </c>
+      <c r="E59">
+        <v>14752</v>
+      </c>
+      <c r="F59">
+        <v>2235</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>8557</v>
+      </c>
+      <c r="D60">
+        <v>1649</v>
+      </c>
+      <c r="E60">
+        <v>16523</v>
+      </c>
+      <c r="F60">
+        <v>2503</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>1652</v>
+      </c>
+      <c r="E61">
+        <v>18671</v>
+      </c>
+      <c r="F61">
+        <v>2829</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>9107</v>
+      </c>
+      <c r="D62">
+        <v>1655</v>
+      </c>
+      <c r="E62">
+        <v>12976</v>
+      </c>
+      <c r="F62">
+        <v>1966</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>9118</v>
+      </c>
+      <c r="D63">
+        <v>1658</v>
+      </c>
+      <c r="E63">
+        <v>13625</v>
+      </c>
+      <c r="F63">
+        <v>2064</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>9129</v>
+      </c>
+      <c r="D64">
+        <v>1661</v>
+      </c>
+      <c r="E64">
+        <v>14442</v>
+      </c>
+      <c r="F64">
+        <v>2188</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>9140</v>
+      </c>
+      <c r="D65">
+        <v>1664</v>
+      </c>
+      <c r="E65">
+        <v>15453</v>
+      </c>
+      <c r="F65">
+        <v>2341</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>1667</v>
+      </c>
+      <c r="E66">
+        <v>16690</v>
+      </c>
+      <c r="F66">
+        <v>2529</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>9151</v>
+      </c>
+      <c r="D67">
+        <v>1670</v>
+      </c>
+      <c r="E67">
+        <v>18192</v>
+      </c>
+      <c r="F67">
+        <v>2756</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>9162</v>
+      </c>
+      <c r="D68">
+        <v>1673</v>
+      </c>
+      <c r="E68">
+        <v>20011</v>
+      </c>
+      <c r="F68">
+        <v>3032</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>9173</v>
+      </c>
+      <c r="D69">
+        <v>1676</v>
+      </c>
+      <c r="E69">
+        <v>22212</v>
+      </c>
+      <c r="F69">
+        <v>3365</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>9184</v>
+      </c>
+      <c r="D70">
+        <v>1679</v>
+      </c>
+      <c r="E70">
+        <v>24878</v>
+      </c>
+      <c r="F70">
+        <v>3769</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>1682</v>
+      </c>
+      <c r="E71">
+        <v>28112</v>
+      </c>
+      <c r="F71">
+        <v>4259</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>9734</v>
+      </c>
+      <c r="D72">
+        <v>1685</v>
+      </c>
+      <c r="E72">
+        <v>19538</v>
+      </c>
+      <c r="F72">
+        <v>2960</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>9745</v>
+      </c>
+      <c r="D73">
+        <v>1688</v>
+      </c>
+      <c r="E73">
+        <v>20514</v>
+      </c>
+      <c r="F73">
+        <v>3108</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>9756</v>
+      </c>
+      <c r="D74">
+        <v>1691</v>
+      </c>
+      <c r="E74">
+        <v>21745</v>
+      </c>
+      <c r="F74">
+        <v>3295</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>9767</v>
+      </c>
+      <c r="D75">
+        <v>1694</v>
+      </c>
+      <c r="E75">
+        <v>23267</v>
+      </c>
+      <c r="F75">
+        <v>3525</v>
+      </c>
+      <c r="G75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>1697</v>
+      </c>
+      <c r="E76">
+        <v>25129</v>
+      </c>
+      <c r="F76">
+        <v>3807</v>
+      </c>
+      <c r="G76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>9778</v>
+      </c>
+      <c r="D77">
+        <v>1700</v>
+      </c>
+      <c r="E77">
+        <v>27390</v>
+      </c>
+      <c r="F77">
+        <v>4150</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>9789</v>
+      </c>
+      <c r="D78">
+        <v>1703</v>
+      </c>
+      <c r="E78">
+        <v>30130</v>
+      </c>
+      <c r="F78">
+        <v>4565</v>
+      </c>
+      <c r="G78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>9800</v>
+      </c>
+      <c r="D79">
+        <v>1706</v>
+      </c>
+      <c r="E79">
+        <v>33444</v>
+      </c>
+      <c r="F79">
+        <v>5067</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>9811</v>
+      </c>
+      <c r="D80">
+        <v>1709</v>
+      </c>
+      <c r="E80">
+        <v>37457</v>
+      </c>
+      <c r="F80">
+        <v>5675</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>1712</v>
+      </c>
+      <c r="E81">
+        <v>42326</v>
+      </c>
+      <c r="F81">
+        <v>6413</v>
+      </c>
+      <c r="G81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>10361</v>
+      </c>
+      <c r="D82">
+        <v>1715</v>
+      </c>
+      <c r="E82">
+        <v>29417</v>
+      </c>
+      <c r="F82">
+        <v>4457</v>
+      </c>
+      <c r="G82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>10372</v>
+      </c>
+      <c r="D83">
+        <v>1718</v>
+      </c>
+      <c r="E83">
+        <v>30888</v>
+      </c>
+      <c r="F83">
+        <v>4680</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>10383</v>
+      </c>
+      <c r="D84">
+        <v>1721</v>
+      </c>
+      <c r="E84">
+        <v>32741</v>
+      </c>
+      <c r="F84">
+        <v>4961</v>
+      </c>
+      <c r="G84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>10394</v>
+      </c>
+      <c r="D85">
+        <v>1724</v>
+      </c>
+      <c r="E85">
+        <v>35033</v>
+      </c>
+      <c r="F85">
+        <v>5308</v>
+      </c>
+      <c r="G85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>1727</v>
+      </c>
+      <c r="E86">
+        <v>37835</v>
+      </c>
+      <c r="F86">
+        <v>5733</v>
+      </c>
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>10405</v>
+      </c>
+      <c r="D87">
+        <v>1730</v>
+      </c>
+      <c r="E87">
+        <v>41241</v>
+      </c>
+      <c r="F87">
+        <v>6249</v>
+      </c>
+      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>10416</v>
+      </c>
+      <c r="D88">
+        <v>1733</v>
+      </c>
+      <c r="E88">
+        <v>45365</v>
+      </c>
+      <c r="F88">
+        <v>6873</v>
+      </c>
+      <c r="G88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>10427</v>
+      </c>
+      <c r="D89">
+        <v>1736</v>
+      </c>
+      <c r="E89">
+        <v>50355</v>
+      </c>
+      <c r="F89">
+        <v>7630</v>
+      </c>
+      <c r="G89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>10438</v>
+      </c>
+      <c r="D90">
+        <v>1739</v>
+      </c>
+      <c r="E90">
+        <v>56397</v>
+      </c>
+      <c r="F90">
+        <v>8545</v>
+      </c>
+      <c r="G90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>1742</v>
+      </c>
+      <c r="E91">
+        <v>63729</v>
+      </c>
+      <c r="F91">
+        <v>9656</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>10988</v>
+      </c>
+      <c r="D92">
+        <v>1745</v>
+      </c>
+      <c r="E92">
+        <v>44292</v>
+      </c>
+      <c r="F92">
+        <v>6711</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>10999</v>
+      </c>
+      <c r="D93">
+        <v>1748</v>
+      </c>
+      <c r="E93">
+        <v>46506</v>
+      </c>
+      <c r="F93">
+        <v>7046</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>11010</v>
+      </c>
+      <c r="D94">
+        <v>1751</v>
+      </c>
+      <c r="E94">
+        <v>49297</v>
+      </c>
+      <c r="F94">
+        <v>7469</v>
+      </c>
+      <c r="G94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>11021</v>
+      </c>
+      <c r="D95">
+        <v>1754</v>
+      </c>
+      <c r="E95">
+        <v>52747</v>
+      </c>
+      <c r="F95">
+        <v>7992</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>1757</v>
+      </c>
+      <c r="E96">
+        <v>56967</v>
+      </c>
+      <c r="F96">
+        <v>8631</v>
+      </c>
+      <c r="G96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>11032</v>
+      </c>
+      <c r="D97">
+        <v>1760</v>
+      </c>
+      <c r="E97">
+        <v>62094</v>
+      </c>
+      <c r="F97">
+        <v>9408</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>11043</v>
+      </c>
+      <c r="D98">
+        <v>1763</v>
+      </c>
+      <c r="E98">
+        <v>68304</v>
+      </c>
+      <c r="F98">
+        <v>10349</v>
+      </c>
+      <c r="G98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>11054</v>
+      </c>
+      <c r="D99">
+        <v>1766</v>
+      </c>
+      <c r="E99">
+        <v>75817</v>
+      </c>
+      <c r="F99">
+        <v>11487</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>11065</v>
+      </c>
+      <c r="D100">
+        <v>1769</v>
+      </c>
+      <c r="E100">
+        <v>84915</v>
+      </c>
+      <c r="F100">
+        <v>12866</v>
+      </c>
+      <c r="G100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>1772</v>
+      </c>
+      <c r="E101">
+        <v>95954</v>
+      </c>
+      <c r="F101">
+        <v>14539</v>
+      </c>
+      <c r="G101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <v>11615</v>
+      </c>
+      <c r="D102">
+        <v>1775</v>
+      </c>
+      <c r="E102">
+        <v>66688</v>
+      </c>
+      <c r="F102">
+        <v>10104</v>
+      </c>
+      <c r="G102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <v>11626</v>
+      </c>
+      <c r="D103">
+        <v>1778</v>
+      </c>
+      <c r="E103">
+        <v>70023</v>
+      </c>
+      <c r="F103">
+        <v>10609</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <v>11637</v>
+      </c>
+      <c r="D104">
+        <v>1781</v>
+      </c>
+      <c r="E104">
+        <v>74224</v>
+      </c>
+      <c r="F104">
+        <v>11246</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <v>11648</v>
+      </c>
+      <c r="D105">
+        <v>1784</v>
+      </c>
+      <c r="E105">
+        <v>79420</v>
+      </c>
+      <c r="F105">
+        <v>12033</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>1787</v>
+      </c>
+      <c r="E106">
+        <v>85773</v>
+      </c>
+      <c r="F106">
+        <v>12996</v>
+      </c>
+      <c r="G106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <v>11659</v>
+      </c>
+      <c r="D107">
+        <v>1790</v>
+      </c>
+      <c r="E107">
+        <v>93493</v>
+      </c>
+      <c r="F107">
+        <v>14166</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>11670</v>
+      </c>
+      <c r="D108">
+        <v>1793</v>
+      </c>
+      <c r="E108">
+        <v>102842</v>
+      </c>
+      <c r="F108">
+        <v>15582</v>
+      </c>
+      <c r="G108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <v>11681</v>
+      </c>
+      <c r="D109">
+        <v>1796</v>
+      </c>
+      <c r="E109">
+        <v>114155</v>
+      </c>
+      <c r="F109">
+        <v>17296</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <v>11692</v>
+      </c>
+      <c r="D110">
+        <v>1799</v>
+      </c>
+      <c r="E110">
+        <v>127853</v>
+      </c>
+      <c r="F110">
+        <v>19372</v>
+      </c>
+      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>1802</v>
+      </c>
+      <c r="E111">
+        <v>144474</v>
+      </c>
+      <c r="F111">
+        <v>21890</v>
+      </c>
+      <c r="G111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>12242</v>
+      </c>
+      <c r="D112">
+        <v>1805</v>
+      </c>
+      <c r="E112">
+        <v>100410</v>
+      </c>
+      <c r="F112">
+        <v>15214</v>
+      </c>
+      <c r="G112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>12253</v>
+      </c>
+      <c r="D113">
+        <v>1808</v>
+      </c>
+      <c r="E113">
+        <v>105430</v>
+      </c>
+      <c r="F113">
+        <v>15974</v>
+      </c>
+      <c r="G113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>12264</v>
+      </c>
+      <c r="D114">
+        <v>1811</v>
+      </c>
+      <c r="E114">
+        <v>111756</v>
+      </c>
+      <c r="F114">
+        <v>16933</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>12275</v>
+      </c>
+      <c r="D115">
+        <v>1814</v>
+      </c>
+      <c r="E115">
+        <v>119579</v>
+      </c>
+      <c r="F115">
+        <v>18118</v>
+      </c>
+      <c r="G115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>1817</v>
+      </c>
+      <c r="E116">
+        <v>129145</v>
+      </c>
+      <c r="F116">
+        <v>19567</v>
+      </c>
+      <c r="G116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>12286</v>
+      </c>
+      <c r="D117">
+        <v>1820</v>
+      </c>
+      <c r="E117">
+        <v>140768</v>
+      </c>
+      <c r="F117">
+        <v>21329</v>
+      </c>
+      <c r="G117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>12297</v>
+      </c>
+      <c r="D118">
+        <v>1823</v>
+      </c>
+      <c r="E118">
+        <v>154845</v>
+      </c>
+      <c r="F118">
+        <v>23461</v>
+      </c>
+      <c r="G118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>12308</v>
+      </c>
+      <c r="D119">
+        <v>1826</v>
+      </c>
+      <c r="E119">
+        <v>171878</v>
+      </c>
+      <c r="F119">
+        <v>26042</v>
+      </c>
+      <c r="G119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>12319</v>
+      </c>
+      <c r="D120">
+        <v>1829</v>
+      </c>
+      <c r="E120">
+        <v>192503</v>
+      </c>
+      <c r="F120">
+        <v>29167</v>
+      </c>
+      <c r="G120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>20</v>
+      </c>
+      <c r="D121">
+        <v>1832</v>
+      </c>
+      <c r="E121">
+        <v>217529</v>
+      </c>
+      <c r="F121">
+        <v>32959</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>12869</v>
+      </c>
+      <c r="D122">
+        <v>1835</v>
+      </c>
+      <c r="E122">
+        <v>151182</v>
+      </c>
+      <c r="F122">
+        <v>22906</v>
+      </c>
+      <c r="G122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>12880</v>
+      </c>
+      <c r="D123">
+        <v>1838</v>
+      </c>
+      <c r="E123">
+        <v>158742</v>
+      </c>
+      <c r="F123">
+        <v>24052</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>12891</v>
+      </c>
+      <c r="D124">
+        <v>1841</v>
+      </c>
+      <c r="E124">
+        <v>168266</v>
+      </c>
+      <c r="F124">
+        <v>25495</v>
+      </c>
+      <c r="G124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>12902</v>
+      </c>
+      <c r="D125">
+        <v>1844</v>
+      </c>
+      <c r="E125">
+        <v>180045</v>
+      </c>
+      <c r="F125">
+        <v>27279</v>
+      </c>
+      <c r="G125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>1847</v>
+      </c>
+      <c r="E126">
+        <v>194448</v>
+      </c>
+      <c r="F126">
+        <v>29462</v>
+      </c>
+      <c r="G126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>12913</v>
+      </c>
+      <c r="D127">
+        <v>1850</v>
+      </c>
+      <c r="E127">
+        <v>211949</v>
+      </c>
+      <c r="F127">
+        <v>32113</v>
+      </c>
+      <c r="G127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>12924</v>
+      </c>
+      <c r="D128">
+        <v>1853</v>
+      </c>
+      <c r="E128">
+        <v>233143</v>
+      </c>
+      <c r="F128">
+        <v>35325</v>
+      </c>
+      <c r="G128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <v>12935</v>
+      </c>
+      <c r="D129">
+        <v>1856</v>
+      </c>
+      <c r="E129">
+        <v>258789</v>
+      </c>
+      <c r="F129">
+        <v>39210</v>
+      </c>
+      <c r="G129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <v>12946</v>
+      </c>
+      <c r="D130">
+        <v>1859</v>
+      </c>
+      <c r="E130">
+        <v>289844</v>
+      </c>
+      <c r="F130">
+        <v>43916</v>
+      </c>
+      <c r="G130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>20</v>
+      </c>
+      <c r="D131">
+        <v>1862</v>
+      </c>
+      <c r="E131">
+        <v>327524</v>
+      </c>
+      <c r="F131">
+        <v>49625</v>
+      </c>
+      <c r="G131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <v>13496</v>
+      </c>
+      <c r="D132">
+        <v>1865</v>
+      </c>
+      <c r="E132">
+        <v>227629</v>
+      </c>
+      <c r="F132">
+        <v>34489</v>
+      </c>
+      <c r="G132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>13507</v>
+      </c>
+      <c r="D133">
+        <v>1868</v>
+      </c>
+      <c r="E133">
+        <v>239010</v>
+      </c>
+      <c r="F133">
+        <v>36214</v>
+      </c>
+      <c r="G133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <v>13518</v>
+      </c>
+      <c r="D134">
+        <v>1871</v>
+      </c>
+      <c r="E134">
+        <v>253351</v>
+      </c>
+      <c r="F134">
+        <v>38387</v>
+      </c>
+      <c r="G134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <v>13529</v>
+      </c>
+      <c r="D135">
+        <v>1874</v>
+      </c>
+      <c r="E135">
+        <v>271086</v>
+      </c>
+      <c r="F135">
+        <v>41074</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>1877</v>
+      </c>
+      <c r="E136">
+        <v>292772</v>
+      </c>
+      <c r="F136">
+        <v>44359</v>
+      </c>
+      <c r="G136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <v>13540</v>
+      </c>
+      <c r="D137">
+        <v>1880</v>
+      </c>
+      <c r="E137">
+        <v>319122</v>
+      </c>
+      <c r="F137">
+        <v>48352</v>
+      </c>
+      <c r="G137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <v>13551</v>
+      </c>
+      <c r="D138">
+        <v>1883</v>
+      </c>
+      <c r="E138">
+        <v>351034</v>
+      </c>
+      <c r="F138">
+        <v>53187</v>
+      </c>
+      <c r="G138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>13562</v>
+      </c>
+      <c r="D139">
+        <v>1886</v>
+      </c>
+      <c r="E139">
+        <v>389648</v>
+      </c>
+      <c r="F139">
+        <v>59038</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <v>13573</v>
+      </c>
+      <c r="D140">
+        <v>1889</v>
+      </c>
+      <c r="E140">
+        <v>436406</v>
+      </c>
+      <c r="F140">
+        <v>66122</v>
+      </c>
+      <c r="G140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>20</v>
+      </c>
+      <c r="D141">
+        <v>1892</v>
+      </c>
+      <c r="E141">
+        <v>493138</v>
+      </c>
+      <c r="F141">
+        <v>74718</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <v>14123</v>
+      </c>
+      <c r="D142">
+        <v>1895</v>
+      </c>
+      <c r="E142">
+        <v>342731</v>
+      </c>
+      <c r="F142">
+        <v>51929</v>
+      </c>
+      <c r="G142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <v>14134</v>
+      </c>
+      <c r="D143">
+        <v>1898</v>
+      </c>
+      <c r="E143">
+        <v>359868</v>
+      </c>
+      <c r="F143">
+        <v>54525</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <v>14145</v>
+      </c>
+      <c r="D144">
+        <v>1901</v>
+      </c>
+      <c r="E144">
+        <v>381460</v>
+      </c>
+      <c r="F144">
+        <v>57797</v>
+      </c>
+      <c r="G144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <v>14156</v>
+      </c>
+      <c r="D145">
+        <v>1904</v>
+      </c>
+      <c r="E145">
+        <v>408162</v>
+      </c>
+      <c r="F145">
+        <v>61843</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>1907</v>
+      </c>
+      <c r="E146">
+        <v>440815</v>
+      </c>
+      <c r="F146">
+        <v>66790</v>
+      </c>
+      <c r="G146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <v>14167</v>
+      </c>
+      <c r="D147">
+        <v>1910</v>
+      </c>
+      <c r="E147">
+        <v>480488</v>
+      </c>
+      <c r="F147">
+        <v>72801</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <v>14178</v>
+      </c>
+      <c r="D148">
+        <v>1913</v>
+      </c>
+      <c r="E148">
+        <v>528537</v>
+      </c>
+      <c r="F148">
+        <v>80081</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <v>14189</v>
+      </c>
+      <c r="D149">
+        <v>1916</v>
+      </c>
+      <c r="E149">
+        <v>586676</v>
+      </c>
+      <c r="F149">
+        <v>88890</v>
+      </c>
+      <c r="G149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <v>14200</v>
+      </c>
+      <c r="D150">
+        <v>1919</v>
+      </c>
+      <c r="E150">
+        <v>657077</v>
+      </c>
+      <c r="F150">
+        <v>99557</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>25</v>
+      </c>
+      <c r="D151">
+        <v>1922</v>
+      </c>
+      <c r="E151">
+        <v>742497</v>
+      </c>
+      <c r="F151">
+        <v>112500</v>
+      </c>
+      <c r="G151" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38202083-6BFA-443C-89E8-41BDE2448F30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF0B3F-F993-4519-A451-D2DE5CA6397F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="33">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Trap_NodeWar</t>
+  </si>
+  <si>
+    <t>trapNoSpawnRange|Float</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -4661,16 +4664,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C250392E-ABFE-4763-9299-8FF4A7CB0BD2}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1">
+    <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -4695,8 +4698,11 @@
       <c r="H1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -4709,8 +4715,11 @@
       <c r="H2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4723,8 +4732,11 @@
       <c r="H3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -4737,8 +4749,11 @@
       <c r="H4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4760,8 +4775,11 @@
       <c r="H5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4783,8 +4801,11 @@
       <c r="H6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4797,8 +4818,11 @@
       <c r="H7">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -4811,8 +4835,11 @@
       <c r="H8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4825,8 +4852,11 @@
       <c r="H9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -4848,8 +4878,11 @@
       <c r="H10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -4871,8 +4904,11 @@
       <c r="H11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4884,6 +4920,9 @@
       </c>
       <c r="H12">
         <v>1.5</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF0B3F-F993-4519-A451-D2DE5CA6397F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24403ED-8F5E-4051-948F-C7B8D3D38F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,623 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FA890FA0-31D8-428B-953F-D589966BE65A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>내부</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단계</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+FindSoul = 1, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">마나찾기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">FindPortal = 2, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포탈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">찾기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Percent = 3, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>포탈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>활성화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">대기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Success = 4, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>성공</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F00DB06D-7E73-4B8C-BA97-AD1768F35DA7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스텝</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>앞에서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이만큼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기다렸다가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>나온다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DA498EEC-D4B7-4FED-A78C-EA75340E06C7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>막판</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스퍼트
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단계의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 50% </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>달성</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1B2D6C60-5A3D-4C9D-BB3B-CA27BF27117A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>토탈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>카운트는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사용하지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>않는다</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{B156A3EF-9961-495F-AB23-9F42064B184C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>토탈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>맥스는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하드코딩으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -138,7 +755,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +777,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3553,10 +4183,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -3913,16 +4545,16 @@
         <v>0.5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -3965,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3991,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>0.5</v>
@@ -4003,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -4075,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F19">
         <v>0.5</v>
@@ -4087,10 +4719,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -4107,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F20">
         <v>0.5</v>
@@ -4119,10 +4751,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -4659,6 +5291,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4666,7 +5299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C250392E-ABFE-4763-9299-8FF4A7CB0BD2}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24403ED-8F5E-4051-948F-C7B8D3D38F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94728A20-1FDE-4F91-8577-4A8D7CF78B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FA890FA0-31D8-428B-953F-D589966BE65A}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AE583672-CF20-4AF7-B06B-56F7C9DFD0E1}">
       <text>
         <r>
           <rPr>
@@ -227,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F00DB06D-7E73-4B8C-BA97-AD1768F35DA7}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1380CE18-238B-465D-BDA2-879C0EFB2688}">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DA498EEC-D4B7-4FED-A78C-EA75340E06C7}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{EBE4E7B9-0FA8-4230-940F-A7BDE4BDF5B6}">
       <text>
         <r>
           <rPr>
@@ -427,7 +427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{1B2D6C60-5A3D-4C9D-BB3B-CA27BF27117A}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F415C540-9977-4D49-AFB8-1CD729E8FABB}">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{B156A3EF-9961-495F-AB23-9F42064B184C}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E13A4850-4EC0-45CB-8417-2D4BAD6D52A6}">
       <text>
         <r>
           <rPr>
@@ -650,7 +650,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="36">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -676,31 +676,7 @@
     <t>Plane_40_40_1</t>
   </si>
   <si>
-    <t>monsterId|String</t>
-  </si>
-  <si>
-    <t>minStep|Int</t>
-  </si>
-  <si>
     <t>firstWaiting|Float</t>
-  </si>
-  <si>
-    <t>spawnChance|Float</t>
-  </si>
-  <si>
-    <t>spawnPeriod|Float</t>
-  </si>
-  <si>
-    <t>maxCount|Int</t>
-  </si>
-  <si>
-    <t>totalMax|Bool</t>
-  </si>
-  <si>
-    <t>VariationCrocodile_Gray</t>
-  </si>
-  <si>
-    <t>VariationScarab_Yellow</t>
   </si>
   <si>
     <t>repeatRewardGold|Int</t>
@@ -719,15 +695,6 @@
   </si>
   <si>
     <t>oneLevel|Int</t>
-  </si>
-  <si>
-    <t>lastSpawnPeriod|Float</t>
-  </si>
-  <si>
-    <t>lastMaxCount|Int</t>
-  </si>
-  <si>
-    <t>PolygonalMagma_Blue</t>
   </si>
   <si>
     <t>trapId|String</t>
@@ -749,6 +716,62 @@
   </si>
   <si>
     <t>trapNoSpawnRange|Float</t>
+  </si>
+  <si>
+    <t>monsterId|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixedLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneLevel|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minStep|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstWaiting|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnChance|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnPeriod|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastSpawnPeriod|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastMaxCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalMax|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationCrocodile_Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VariationScarab_Yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolygonalMagma_Blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1158,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1190,7 +1213,7 @@
         <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -1213,7 +1236,7 @@
         <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1233,7 +1256,7 @@
         <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1253,7 +1276,7 @@
         <v>201</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1273,7 +1296,7 @@
         <v>217</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1293,7 +1316,7 @@
         <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1313,7 +1336,7 @@
         <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1333,7 +1356,7 @@
         <v>289</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1353,7 +1376,7 @@
         <v>324</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1373,7 +1396,7 @@
         <v>366</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1393,7 +1416,7 @@
         <v>254</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1413,7 +1436,7 @@
         <v>267</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1433,7 +1456,7 @@
         <v>283</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1453,7 +1476,7 @@
         <v>303</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1473,7 +1496,7 @@
         <v>327</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1493,7 +1516,7 @@
         <v>356</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1513,7 +1536,7 @@
         <v>392</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1533,7 +1556,7 @@
         <v>435</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1553,7 +1576,7 @@
         <v>487</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1573,7 +1596,7 @@
         <v>550</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1593,7 +1616,7 @@
         <v>383</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1613,7 +1636,7 @@
         <v>402</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1633,7 +1656,7 @@
         <v>426</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1653,7 +1676,7 @@
         <v>456</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1673,7 +1696,7 @@
         <v>492</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1693,7 +1716,7 @@
         <v>536</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1713,7 +1736,7 @@
         <v>590</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1733,7 +1756,7 @@
         <v>655</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1753,7 +1776,7 @@
         <v>733</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1773,7 +1796,7 @@
         <v>829</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1793,7 +1816,7 @@
         <v>576</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1813,7 +1836,7 @@
         <v>605</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1833,7 +1856,7 @@
         <v>641</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1853,7 +1876,7 @@
         <v>686</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1873,7 +1896,7 @@
         <v>741</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1893,7 +1916,7 @@
         <v>808</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1913,7 +1936,7 @@
         <v>888</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1933,7 +1956,7 @@
         <v>986</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1953,7 +1976,7 @@
         <v>1104</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1973,7 +1996,7 @@
         <v>1248</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1993,7 +2016,7 @@
         <v>867</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2013,7 +2036,7 @@
         <v>911</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2033,7 +2056,7 @@
         <v>965</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2053,7 +2076,7 @@
         <v>1033</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2073,7 +2096,7 @@
         <v>1115</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2093,7 +2116,7 @@
         <v>1216</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2113,7 +2136,7 @@
         <v>1337</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2133,7 +2156,7 @@
         <v>1485</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2153,7 +2176,7 @@
         <v>1663</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2173,7 +2196,7 @@
         <v>1879</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2193,7 +2216,7 @@
         <v>1306</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2213,7 +2236,7 @@
         <v>1371</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2233,7 +2256,7 @@
         <v>1453</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2253,7 +2276,7 @@
         <v>1555</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2273,7 +2296,7 @@
         <v>1679</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2293,7 +2316,7 @@
         <v>1831</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2313,7 +2336,7 @@
         <v>2014</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2333,7 +2356,7 @@
         <v>2235</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2353,7 +2376,7 @@
         <v>2503</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2373,7 +2396,7 @@
         <v>2829</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2393,7 +2416,7 @@
         <v>1966</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2413,7 +2436,7 @@
         <v>2064</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2433,7 +2456,7 @@
         <v>2188</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2453,7 +2476,7 @@
         <v>2341</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2473,7 +2496,7 @@
         <v>2529</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2493,7 +2516,7 @@
         <v>2756</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2513,7 +2536,7 @@
         <v>3032</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2533,7 +2556,7 @@
         <v>3365</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2553,7 +2576,7 @@
         <v>3769</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2573,7 +2596,7 @@
         <v>4259</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2593,7 +2616,7 @@
         <v>2960</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2613,7 +2636,7 @@
         <v>3108</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2633,7 +2656,7 @@
         <v>3295</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2653,7 +2676,7 @@
         <v>3525</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2673,7 +2696,7 @@
         <v>3807</v>
       </c>
       <c r="G76" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2693,7 +2716,7 @@
         <v>4150</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2713,7 +2736,7 @@
         <v>4565</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2733,7 +2756,7 @@
         <v>5067</v>
       </c>
       <c r="G79" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2753,7 +2776,7 @@
         <v>5675</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2773,7 +2796,7 @@
         <v>6413</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2793,7 +2816,7 @@
         <v>4457</v>
       </c>
       <c r="G82" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2813,7 +2836,7 @@
         <v>4680</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2833,7 +2856,7 @@
         <v>4961</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2853,7 +2876,7 @@
         <v>5308</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2873,7 +2896,7 @@
         <v>5733</v>
       </c>
       <c r="G86" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2893,7 +2916,7 @@
         <v>6249</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2913,7 +2936,7 @@
         <v>6873</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2933,7 +2956,7 @@
         <v>7630</v>
       </c>
       <c r="G89" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2953,7 +2976,7 @@
         <v>8545</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2973,7 +2996,7 @@
         <v>9656</v>
       </c>
       <c r="G91" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2993,7 +3016,7 @@
         <v>6711</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3013,7 +3036,7 @@
         <v>7046</v>
       </c>
       <c r="G93" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3033,7 +3056,7 @@
         <v>7469</v>
       </c>
       <c r="G94" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3053,7 +3076,7 @@
         <v>7992</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3073,7 +3096,7 @@
         <v>8631</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3093,7 +3116,7 @@
         <v>9408</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3113,7 +3136,7 @@
         <v>10349</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3133,7 +3156,7 @@
         <v>11487</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3153,7 +3176,7 @@
         <v>12866</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3173,7 +3196,7 @@
         <v>14539</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3193,7 +3216,7 @@
         <v>10104</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3213,7 +3236,7 @@
         <v>10609</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3233,7 +3256,7 @@
         <v>11246</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3253,7 +3276,7 @@
         <v>12033</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3273,7 +3296,7 @@
         <v>12996</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3293,7 +3316,7 @@
         <v>14166</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3313,7 +3336,7 @@
         <v>15582</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3333,7 +3356,7 @@
         <v>17296</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3353,7 +3376,7 @@
         <v>19372</v>
       </c>
       <c r="G110" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3373,7 +3396,7 @@
         <v>21890</v>
       </c>
       <c r="G111" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3393,7 +3416,7 @@
         <v>15214</v>
       </c>
       <c r="G112" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3413,7 +3436,7 @@
         <v>15974</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3433,7 +3456,7 @@
         <v>16933</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3453,7 +3476,7 @@
         <v>18118</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3473,7 +3496,7 @@
         <v>19567</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3493,7 +3516,7 @@
         <v>21329</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3513,7 +3536,7 @@
         <v>23461</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3533,7 +3556,7 @@
         <v>26042</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3553,7 +3576,7 @@
         <v>29167</v>
       </c>
       <c r="G120" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3573,7 +3596,7 @@
         <v>32959</v>
       </c>
       <c r="G121" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3593,7 +3616,7 @@
         <v>22906</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3613,7 +3636,7 @@
         <v>24052</v>
       </c>
       <c r="G123" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3633,7 +3656,7 @@
         <v>25495</v>
       </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3653,7 +3676,7 @@
         <v>27279</v>
       </c>
       <c r="G125" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3673,7 +3696,7 @@
         <v>29462</v>
       </c>
       <c r="G126" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3693,7 +3716,7 @@
         <v>32113</v>
       </c>
       <c r="G127" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3713,7 +3736,7 @@
         <v>35325</v>
       </c>
       <c r="G128" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3733,7 +3756,7 @@
         <v>39210</v>
       </c>
       <c r="G129" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3753,7 +3776,7 @@
         <v>43916</v>
       </c>
       <c r="G130" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3773,7 +3796,7 @@
         <v>49625</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3793,7 +3816,7 @@
         <v>34489</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3813,7 +3836,7 @@
         <v>36214</v>
       </c>
       <c r="G133" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3833,7 +3856,7 @@
         <v>38387</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3853,7 +3876,7 @@
         <v>41074</v>
       </c>
       <c r="G135" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3873,7 +3896,7 @@
         <v>44359</v>
       </c>
       <c r="G136" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3893,7 +3916,7 @@
         <v>48352</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3913,7 +3936,7 @@
         <v>53187</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3933,7 +3956,7 @@
         <v>59038</v>
       </c>
       <c r="G139" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3953,7 +3976,7 @@
         <v>66122</v>
       </c>
       <c r="G140" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3973,7 +3996,7 @@
         <v>74718</v>
       </c>
       <c r="G141" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3993,7 +4016,7 @@
         <v>51929</v>
       </c>
       <c r="G142" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4013,7 +4036,7 @@
         <v>54525</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4033,7 +4056,7 @@
         <v>57797</v>
       </c>
       <c r="G144" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4053,7 +4076,7 @@
         <v>61843</v>
       </c>
       <c r="G145" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4073,7 +4096,7 @@
         <v>66790</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4093,7 +4116,7 @@
         <v>72801</v>
       </c>
       <c r="G147" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4113,7 +4136,7 @@
         <v>80081</v>
       </c>
       <c r="G148" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4133,7 +4156,7 @@
         <v>88890</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4153,7 +4176,7 @@
         <v>99557</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4173,7 +4196,7 @@
         <v>112500</v>
       </c>
       <c r="G151" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4186,7 +4209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4197,42 +4220,42 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4258,7 +4281,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4284,7 +4307,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -4310,7 +4333,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -4342,7 +4365,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -4368,7 +4391,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -4394,7 +4417,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4426,7 +4449,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -4452,7 +4475,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -4478,7 +4501,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -4504,7 +4527,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -4530,7 +4553,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -4562,7 +4585,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -4588,7 +4611,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4614,7 +4637,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4646,7 +4669,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -4672,7 +4695,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -4698,7 +4721,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -4730,7 +4753,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -4762,7 +4785,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4788,7 +4811,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4814,7 +4837,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4846,7 +4869,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4878,7 +4901,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -4904,7 +4927,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -4930,7 +4953,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -4962,7 +4985,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -4994,7 +5017,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5020,7 +5043,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5046,7 +5069,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -5078,7 +5101,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -5099,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -5110,7 +5133,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5142,10 +5165,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -5157,10 +5180,10 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H34">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -5168,10 +5191,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -5183,10 +5206,10 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H35">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -5194,10 +5217,10 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -5212,6 +5235,7 @@
         <v>2</v>
       </c>
       <c r="H36">
+        <f t="shared" ref="H36:H37" si="0">G36/4</f>
         <v>0.5</v>
       </c>
       <c r="I36">
@@ -5226,10 +5250,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -5244,6 +5268,7 @@
         <v>2</v>
       </c>
       <c r="H37">
+        <f>G37/1</f>
         <v>2</v>
       </c>
       <c r="I37">
@@ -5258,10 +5283,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -5276,6 +5301,7 @@
         <v>1</v>
       </c>
       <c r="H38">
+        <f>G38/1</f>
         <v>1</v>
       </c>
       <c r="I38">
@@ -5299,7 +5325,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C250392E-ABFE-4763-9299-8FF4A7CB0BD2}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -5308,36 +5336,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5354,7 +5382,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -5371,7 +5399,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -5388,7 +5416,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -5414,7 +5442,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -5440,7 +5468,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -5457,7 +5485,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -5474,7 +5502,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -5491,7 +5519,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -5517,7 +5545,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -5543,16 +5571,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>4.5</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H12">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
         <v>12</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94728A20-1FDE-4F91-8577-4A8D7CF78B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E6FFE-3AD9-4EE0-959E-E4B30806D536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -1160,7 +1160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1201,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5345</v>
+        <v>535</v>
       </c>
       <c r="D2">
         <v>1475</v>
@@ -1224,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5356</v>
+        <v>546</v>
       </c>
       <c r="D3">
         <v>1478</v>
@@ -1244,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5367</v>
+        <v>557</v>
       </c>
       <c r="D4">
         <v>1481</v>
@@ -1264,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5378</v>
+        <v>568</v>
       </c>
       <c r="D5">
         <v>1484</v>
@@ -1304,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5389</v>
+        <v>579</v>
       </c>
       <c r="D7">
         <v>1490</v>
@@ -1324,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5400</v>
+        <v>590</v>
       </c>
       <c r="D8">
         <v>1493</v>
@@ -1344,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5411</v>
+        <v>601</v>
       </c>
       <c r="D9">
         <v>1496</v>
@@ -1364,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5422</v>
+        <v>612</v>
       </c>
       <c r="D10">
         <v>1499</v>
@@ -1404,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5972</v>
+        <v>1662</v>
       </c>
       <c r="D12">
         <v>1505</v>
@@ -1424,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>5983</v>
+        <v>1673</v>
       </c>
       <c r="D13">
         <v>1508</v>
@@ -1444,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>5994</v>
+        <v>1684</v>
       </c>
       <c r="D14">
         <v>1511</v>
@@ -1464,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>6005</v>
+        <v>1695</v>
       </c>
       <c r="D15">
         <v>1514</v>
@@ -1504,7 +1506,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>6016</v>
+        <v>1706</v>
       </c>
       <c r="D17">
         <v>1520</v>
@@ -1524,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>6027</v>
+        <v>1717</v>
       </c>
       <c r="D18">
         <v>1523</v>
@@ -1544,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>6038</v>
+        <v>1728</v>
       </c>
       <c r="D19">
         <v>1526</v>
@@ -1564,7 +1566,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>6049</v>
+        <v>1739</v>
       </c>
       <c r="D20">
         <v>1529</v>
@@ -1604,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>6599</v>
+        <v>2789</v>
       </c>
       <c r="D22">
         <v>1535</v>
@@ -1624,7 +1626,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>6610</v>
+        <v>2800</v>
       </c>
       <c r="D23">
         <v>1538</v>
@@ -1644,7 +1646,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>6621</v>
+        <v>2811</v>
       </c>
       <c r="D24">
         <v>1541</v>
@@ -1664,7 +1666,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>6632</v>
+        <v>2822</v>
       </c>
       <c r="D25">
         <v>1544</v>
@@ -1704,7 +1706,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>6643</v>
+        <v>2833</v>
       </c>
       <c r="D27">
         <v>1550</v>
@@ -1724,7 +1726,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>6654</v>
+        <v>2844</v>
       </c>
       <c r="D28">
         <v>1553</v>
@@ -1744,7 +1746,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>6665</v>
+        <v>2855</v>
       </c>
       <c r="D29">
         <v>1556</v>
@@ -1764,7 +1766,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>6676</v>
+        <v>2866</v>
       </c>
       <c r="D30">
         <v>1559</v>
@@ -1804,7 +1806,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>7226</v>
+        <v>3916</v>
       </c>
       <c r="D32">
         <v>1565</v>
@@ -1824,7 +1826,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>7237</v>
+        <v>3927</v>
       </c>
       <c r="D33">
         <v>1568</v>
@@ -1844,7 +1846,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>7248</v>
+        <v>3938</v>
       </c>
       <c r="D34">
         <v>1571</v>
@@ -1864,7 +1866,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>7259</v>
+        <v>3949</v>
       </c>
       <c r="D35">
         <v>1574</v>
@@ -1904,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>7270</v>
+        <v>3960</v>
       </c>
       <c r="D37">
         <v>1580</v>
@@ -1924,7 +1926,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>7281</v>
+        <v>3971</v>
       </c>
       <c r="D38">
         <v>1583</v>
@@ -1944,7 +1946,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>7292</v>
+        <v>3982</v>
       </c>
       <c r="D39">
         <v>1586</v>
@@ -1964,7 +1966,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>7303</v>
+        <v>3993</v>
       </c>
       <c r="D40">
         <v>1589</v>
@@ -2004,7 +2006,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>7853</v>
+        <v>5043</v>
       </c>
       <c r="D42">
         <v>1595</v>
@@ -2024,7 +2026,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>7864</v>
+        <v>5054</v>
       </c>
       <c r="D43">
         <v>1598</v>
@@ -2044,7 +2046,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>7875</v>
+        <v>5065</v>
       </c>
       <c r="D44">
         <v>1601</v>
@@ -2064,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>7886</v>
+        <v>5076</v>
       </c>
       <c r="D45">
         <v>1604</v>
@@ -2104,7 +2106,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>7897</v>
+        <v>5087</v>
       </c>
       <c r="D47">
         <v>1610</v>
@@ -2124,7 +2126,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>7908</v>
+        <v>5098</v>
       </c>
       <c r="D48">
         <v>1613</v>
@@ -2144,7 +2146,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>7919</v>
+        <v>5109</v>
       </c>
       <c r="D49">
         <v>1616</v>
@@ -2164,7 +2166,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>7930</v>
+        <v>5120</v>
       </c>
       <c r="D50">
         <v>1619</v>
@@ -2204,7 +2206,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>8480</v>
+        <v>6170</v>
       </c>
       <c r="D52">
         <v>1625</v>
@@ -2224,7 +2226,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>8491</v>
+        <v>6181</v>
       </c>
       <c r="D53">
         <v>1628</v>
@@ -2244,7 +2246,7 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>8502</v>
+        <v>6192</v>
       </c>
       <c r="D54">
         <v>1631</v>
@@ -2264,7 +2266,7 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>8513</v>
+        <v>6203</v>
       </c>
       <c r="D55">
         <v>1634</v>
@@ -2304,7 +2306,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>8524</v>
+        <v>6214</v>
       </c>
       <c r="D57">
         <v>1640</v>
@@ -2324,7 +2326,7 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>8535</v>
+        <v>6225</v>
       </c>
       <c r="D58">
         <v>1643</v>
@@ -2344,7 +2346,7 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>8546</v>
+        <v>6236</v>
       </c>
       <c r="D59">
         <v>1646</v>
@@ -2364,7 +2366,7 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>8557</v>
+        <v>6247</v>
       </c>
       <c r="D60">
         <v>1649</v>
@@ -2404,7 +2406,7 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>9107</v>
+        <v>7297</v>
       </c>
       <c r="D62">
         <v>1655</v>
@@ -2424,7 +2426,7 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>9118</v>
+        <v>7308</v>
       </c>
       <c r="D63">
         <v>1658</v>
@@ -2444,7 +2446,7 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>9129</v>
+        <v>7319</v>
       </c>
       <c r="D64">
         <v>1661</v>
@@ -2464,7 +2466,7 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>9140</v>
+        <v>7330</v>
       </c>
       <c r="D65">
         <v>1664</v>
@@ -2504,7 +2506,7 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>9151</v>
+        <v>7341</v>
       </c>
       <c r="D67">
         <v>1670</v>
@@ -2524,7 +2526,7 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>9162</v>
+        <v>7352</v>
       </c>
       <c r="D68">
         <v>1673</v>
@@ -2544,7 +2546,7 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>9173</v>
+        <v>7363</v>
       </c>
       <c r="D69">
         <v>1676</v>
@@ -2564,7 +2566,7 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>9184</v>
+        <v>7374</v>
       </c>
       <c r="D70">
         <v>1679</v>
@@ -2604,7 +2606,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>9734</v>
+        <v>8424</v>
       </c>
       <c r="D72">
         <v>1685</v>
@@ -2624,7 +2626,7 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>9745</v>
+        <v>8435</v>
       </c>
       <c r="D73">
         <v>1688</v>
@@ -2644,7 +2646,7 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>9756</v>
+        <v>8446</v>
       </c>
       <c r="D74">
         <v>1691</v>
@@ -2664,7 +2666,7 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>9767</v>
+        <v>8457</v>
       </c>
       <c r="D75">
         <v>1694</v>
@@ -2704,7 +2706,7 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>9778</v>
+        <v>8468</v>
       </c>
       <c r="D77">
         <v>1700</v>
@@ -2724,7 +2726,7 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>9789</v>
+        <v>8479</v>
       </c>
       <c r="D78">
         <v>1703</v>
@@ -2744,7 +2746,7 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>9800</v>
+        <v>8490</v>
       </c>
       <c r="D79">
         <v>1706</v>
@@ -2764,7 +2766,7 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>9811</v>
+        <v>8501</v>
       </c>
       <c r="D80">
         <v>1709</v>
@@ -2804,7 +2806,7 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>10361</v>
+        <v>9551</v>
       </c>
       <c r="D82">
         <v>1715</v>
@@ -2824,7 +2826,7 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>10372</v>
+        <v>9562</v>
       </c>
       <c r="D83">
         <v>1718</v>
@@ -2844,7 +2846,7 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>10383</v>
+        <v>9573</v>
       </c>
       <c r="D84">
         <v>1721</v>
@@ -2864,7 +2866,7 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>10394</v>
+        <v>9584</v>
       </c>
       <c r="D85">
         <v>1724</v>
@@ -2904,7 +2906,7 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>10405</v>
+        <v>9595</v>
       </c>
       <c r="D87">
         <v>1730</v>
@@ -2924,7 +2926,7 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>10416</v>
+        <v>9606</v>
       </c>
       <c r="D88">
         <v>1733</v>
@@ -2944,7 +2946,7 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>10427</v>
+        <v>9617</v>
       </c>
       <c r="D89">
         <v>1736</v>
@@ -2964,7 +2966,7 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>10438</v>
+        <v>9628</v>
       </c>
       <c r="D90">
         <v>1739</v>
@@ -3004,7 +3006,7 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>10988</v>
+        <v>10678</v>
       </c>
       <c r="D92">
         <v>1745</v>
@@ -3024,7 +3026,7 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>10999</v>
+        <v>10689</v>
       </c>
       <c r="D93">
         <v>1748</v>
@@ -3044,7 +3046,7 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>11010</v>
+        <v>10700</v>
       </c>
       <c r="D94">
         <v>1751</v>
@@ -3064,7 +3066,7 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>11021</v>
+        <v>10711</v>
       </c>
       <c r="D95">
         <v>1754</v>
@@ -3104,7 +3106,7 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>11032</v>
+        <v>10722</v>
       </c>
       <c r="D97">
         <v>1760</v>
@@ -3124,7 +3126,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>11043</v>
+        <v>10733</v>
       </c>
       <c r="D98">
         <v>1763</v>
@@ -3144,7 +3146,7 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>11054</v>
+        <v>10744</v>
       </c>
       <c r="D99">
         <v>1766</v>
@@ -3164,7 +3166,7 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>11065</v>
+        <v>10755</v>
       </c>
       <c r="D100">
         <v>1769</v>
@@ -3204,7 +3206,7 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>11615</v>
+        <v>11805</v>
       </c>
       <c r="D102">
         <v>1775</v>
@@ -3224,7 +3226,7 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>11626</v>
+        <v>11816</v>
       </c>
       <c r="D103">
         <v>1778</v>
@@ -3244,7 +3246,7 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>11637</v>
+        <v>11827</v>
       </c>
       <c r="D104">
         <v>1781</v>
@@ -3264,7 +3266,7 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>11648</v>
+        <v>11838</v>
       </c>
       <c r="D105">
         <v>1784</v>
@@ -3304,7 +3306,7 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>11659</v>
+        <v>11849</v>
       </c>
       <c r="D107">
         <v>1790</v>
@@ -3324,7 +3326,7 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>11670</v>
+        <v>11860</v>
       </c>
       <c r="D108">
         <v>1793</v>
@@ -3344,7 +3346,7 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>11681</v>
+        <v>11871</v>
       </c>
       <c r="D109">
         <v>1796</v>
@@ -3364,7 +3366,7 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>11692</v>
+        <v>11882</v>
       </c>
       <c r="D110">
         <v>1799</v>
@@ -3404,7 +3406,7 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>12242</v>
+        <v>12932</v>
       </c>
       <c r="D112">
         <v>1805</v>
@@ -3424,7 +3426,7 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>12253</v>
+        <v>12943</v>
       </c>
       <c r="D113">
         <v>1808</v>
@@ -3444,7 +3446,7 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>12264</v>
+        <v>12954</v>
       </c>
       <c r="D114">
         <v>1811</v>
@@ -3464,7 +3466,7 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>12275</v>
+        <v>12965</v>
       </c>
       <c r="D115">
         <v>1814</v>
@@ -3504,7 +3506,7 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>12286</v>
+        <v>12976</v>
       </c>
       <c r="D117">
         <v>1820</v>
@@ -3524,7 +3526,7 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>12297</v>
+        <v>12987</v>
       </c>
       <c r="D118">
         <v>1823</v>
@@ -3544,7 +3546,7 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>12308</v>
+        <v>12998</v>
       </c>
       <c r="D119">
         <v>1826</v>
@@ -3564,7 +3566,7 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>12319</v>
+        <v>13009</v>
       </c>
       <c r="D120">
         <v>1829</v>
@@ -3604,7 +3606,7 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>12869</v>
+        <v>14059</v>
       </c>
       <c r="D122">
         <v>1835</v>
@@ -3624,7 +3626,7 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>12880</v>
+        <v>14070</v>
       </c>
       <c r="D123">
         <v>1838</v>
@@ -3644,7 +3646,7 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>12891</v>
+        <v>14081</v>
       </c>
       <c r="D124">
         <v>1841</v>
@@ -3664,7 +3666,7 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>12902</v>
+        <v>14092</v>
       </c>
       <c r="D125">
         <v>1844</v>
@@ -3704,7 +3706,7 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>12913</v>
+        <v>14103</v>
       </c>
       <c r="D127">
         <v>1850</v>
@@ -3724,7 +3726,7 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>12924</v>
+        <v>14114</v>
       </c>
       <c r="D128">
         <v>1853</v>
@@ -3744,7 +3746,7 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>12935</v>
+        <v>14125</v>
       </c>
       <c r="D129">
         <v>1856</v>
@@ -3764,7 +3766,7 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>12946</v>
+        <v>14136</v>
       </c>
       <c r="D130">
         <v>1859</v>
@@ -3804,7 +3806,7 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>13496</v>
+        <v>15186</v>
       </c>
       <c r="D132">
         <v>1865</v>
@@ -3824,7 +3826,7 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>13507</v>
+        <v>15197</v>
       </c>
       <c r="D133">
         <v>1868</v>
@@ -3844,7 +3846,7 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>13518</v>
+        <v>15208</v>
       </c>
       <c r="D134">
         <v>1871</v>
@@ -3864,7 +3866,7 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>13529</v>
+        <v>15219</v>
       </c>
       <c r="D135">
         <v>1874</v>
@@ -3904,7 +3906,7 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>13540</v>
+        <v>15230</v>
       </c>
       <c r="D137">
         <v>1880</v>
@@ -3924,7 +3926,7 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>13551</v>
+        <v>15241</v>
       </c>
       <c r="D138">
         <v>1883</v>
@@ -3944,7 +3946,7 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>13562</v>
+        <v>15252</v>
       </c>
       <c r="D139">
         <v>1886</v>
@@ -3964,7 +3966,7 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>13573</v>
+        <v>15263</v>
       </c>
       <c r="D140">
         <v>1889</v>
@@ -4004,7 +4006,7 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>14123</v>
+        <v>16313</v>
       </c>
       <c r="D142">
         <v>1895</v>
@@ -4024,7 +4026,7 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>14134</v>
+        <v>16324</v>
       </c>
       <c r="D143">
         <v>1898</v>
@@ -4044,7 +4046,7 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>14145</v>
+        <v>16335</v>
       </c>
       <c r="D144">
         <v>1901</v>
@@ -4064,7 +4066,7 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>14156</v>
+        <v>16346</v>
       </c>
       <c r="D145">
         <v>1904</v>
@@ -4104,7 +4106,7 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>14167</v>
+        <v>16357</v>
       </c>
       <c r="D147">
         <v>1910</v>
@@ -4124,7 +4126,7 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>14178</v>
+        <v>16368</v>
       </c>
       <c r="D148">
         <v>1913</v>
@@ -4144,7 +4146,7 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>14189</v>
+        <v>16379</v>
       </c>
       <c r="D149">
         <v>1916</v>
@@ -4164,7 +4166,7 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>14200</v>
+        <v>16390</v>
       </c>
       <c r="D150">
         <v>1919</v>
@@ -5235,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H37" si="0">G36/4</f>
+        <f t="shared" ref="H36" si="0">G36/4</f>
         <v>0.5</v>
       </c>
       <c r="I36">
@@ -5325,7 +5327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C250392E-ABFE-4763-9299-8FF4A7CB0BD2}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E6FFE-3AD9-4EE0-959E-E4B30806D536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654B0CC-1EB8-4F69-98A5-39DC424EE0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>535</v>
+        <v>1535</v>
       </c>
       <c r="D2">
         <v>1475</v>
@@ -1226,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>546</v>
+        <v>1546</v>
       </c>
       <c r="D3">
         <v>1478</v>
@@ -1246,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>557</v>
+        <v>1557</v>
       </c>
       <c r="D4">
         <v>1481</v>
@@ -1266,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>568</v>
+        <v>1568</v>
       </c>
       <c r="D5">
         <v>1484</v>
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>579</v>
+        <v>1579</v>
       </c>
       <c r="D7">
         <v>1490</v>
@@ -1326,7 +1326,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>590</v>
+        <v>1590</v>
       </c>
       <c r="D8">
         <v>1493</v>
@@ -1346,7 +1346,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>601</v>
+        <v>1601</v>
       </c>
       <c r="D9">
         <v>1496</v>
@@ -1366,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>612</v>
+        <v>1612</v>
       </c>
       <c r="D10">
         <v>1499</v>
@@ -1406,7 +1406,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>1662</v>
+        <v>2662</v>
       </c>
       <c r="D12">
         <v>1505</v>
@@ -1426,7 +1426,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>1673</v>
+        <v>2673</v>
       </c>
       <c r="D13">
         <v>1508</v>
@@ -1446,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>1684</v>
+        <v>2684</v>
       </c>
       <c r="D14">
         <v>1511</v>
@@ -1466,7 +1466,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>1695</v>
+        <v>2695</v>
       </c>
       <c r="D15">
         <v>1514</v>
@@ -1506,7 +1506,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>1706</v>
+        <v>2706</v>
       </c>
       <c r="D17">
         <v>1520</v>
@@ -1526,7 +1526,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>1717</v>
+        <v>2717</v>
       </c>
       <c r="D18">
         <v>1523</v>
@@ -1546,7 +1546,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>1728</v>
+        <v>2728</v>
       </c>
       <c r="D19">
         <v>1526</v>
@@ -1566,7 +1566,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>1739</v>
+        <v>2739</v>
       </c>
       <c r="D20">
         <v>1529</v>
@@ -1606,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>2789</v>
+        <v>3789</v>
       </c>
       <c r="D22">
         <v>1535</v>
@@ -1626,7 +1626,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="D23">
         <v>1538</v>
@@ -1646,7 +1646,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>2811</v>
+        <v>3811</v>
       </c>
       <c r="D24">
         <v>1541</v>
@@ -1666,7 +1666,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>2822</v>
+        <v>3822</v>
       </c>
       <c r="D25">
         <v>1544</v>
@@ -1706,7 +1706,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>2833</v>
+        <v>3833</v>
       </c>
       <c r="D27">
         <v>1550</v>
@@ -1726,7 +1726,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>2844</v>
+        <v>3844</v>
       </c>
       <c r="D28">
         <v>1553</v>
@@ -1746,7 +1746,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>2855</v>
+        <v>3855</v>
       </c>
       <c r="D29">
         <v>1556</v>
@@ -1766,7 +1766,7 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>2866</v>
+        <v>3866</v>
       </c>
       <c r="D30">
         <v>1559</v>
@@ -1806,7 +1806,7 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>3916</v>
+        <v>4916</v>
       </c>
       <c r="D32">
         <v>1565</v>
@@ -1826,7 +1826,7 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>3927</v>
+        <v>4927</v>
       </c>
       <c r="D33">
         <v>1568</v>
@@ -1846,7 +1846,7 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>3938</v>
+        <v>4938</v>
       </c>
       <c r="D34">
         <v>1571</v>
@@ -1866,7 +1866,7 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>3949</v>
+        <v>4949</v>
       </c>
       <c r="D35">
         <v>1574</v>
@@ -1906,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>3960</v>
+        <v>4960</v>
       </c>
       <c r="D37">
         <v>1580</v>
@@ -1926,7 +1926,7 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>3971</v>
+        <v>4971</v>
       </c>
       <c r="D38">
         <v>1583</v>
@@ -1946,7 +1946,7 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>3982</v>
+        <v>4982</v>
       </c>
       <c r="D39">
         <v>1586</v>
@@ -1966,7 +1966,7 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>3993</v>
+        <v>4993</v>
       </c>
       <c r="D40">
         <v>1589</v>
@@ -2006,7 +2006,7 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>5043</v>
+        <v>6043</v>
       </c>
       <c r="D42">
         <v>1595</v>
@@ -2026,7 +2026,7 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>5054</v>
+        <v>6054</v>
       </c>
       <c r="D43">
         <v>1598</v>
@@ -2046,7 +2046,7 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>5065</v>
+        <v>6065</v>
       </c>
       <c r="D44">
         <v>1601</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>5076</v>
+        <v>6076</v>
       </c>
       <c r="D45">
         <v>1604</v>
@@ -2106,7 +2106,7 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>5087</v>
+        <v>6087</v>
       </c>
       <c r="D47">
         <v>1610</v>
@@ -2126,7 +2126,7 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>5098</v>
+        <v>6098</v>
       </c>
       <c r="D48">
         <v>1613</v>
@@ -2146,7 +2146,7 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>5109</v>
+        <v>6109</v>
       </c>
       <c r="D49">
         <v>1616</v>
@@ -2166,7 +2166,7 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>5120</v>
+        <v>6120</v>
       </c>
       <c r="D50">
         <v>1619</v>
@@ -2206,7 +2206,7 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>6170</v>
+        <v>7170</v>
       </c>
       <c r="D52">
         <v>1625</v>
@@ -2226,7 +2226,7 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>6181</v>
+        <v>7181</v>
       </c>
       <c r="D53">
         <v>1628</v>
@@ -2246,7 +2246,7 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>6192</v>
+        <v>7192</v>
       </c>
       <c r="D54">
         <v>1631</v>
@@ -2266,7 +2266,7 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>6203</v>
+        <v>7203</v>
       </c>
       <c r="D55">
         <v>1634</v>
@@ -2306,7 +2306,7 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>6214</v>
+        <v>7214</v>
       </c>
       <c r="D57">
         <v>1640</v>
@@ -2326,7 +2326,7 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>6225</v>
+        <v>7225</v>
       </c>
       <c r="D58">
         <v>1643</v>
@@ -2346,7 +2346,7 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>6236</v>
+        <v>7236</v>
       </c>
       <c r="D59">
         <v>1646</v>
@@ -2366,7 +2366,7 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>6247</v>
+        <v>7247</v>
       </c>
       <c r="D60">
         <v>1649</v>
@@ -2406,7 +2406,7 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>7297</v>
+        <v>8297</v>
       </c>
       <c r="D62">
         <v>1655</v>
@@ -2426,7 +2426,7 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>7308</v>
+        <v>8308</v>
       </c>
       <c r="D63">
         <v>1658</v>
@@ -2446,7 +2446,7 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>7319</v>
+        <v>8319</v>
       </c>
       <c r="D64">
         <v>1661</v>
@@ -2466,7 +2466,7 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>7330</v>
+        <v>8330</v>
       </c>
       <c r="D65">
         <v>1664</v>
@@ -2506,7 +2506,7 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>7341</v>
+        <v>8341</v>
       </c>
       <c r="D67">
         <v>1670</v>
@@ -2526,7 +2526,7 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>7352</v>
+        <v>8352</v>
       </c>
       <c r="D68">
         <v>1673</v>
@@ -2546,7 +2546,7 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>7363</v>
+        <v>8363</v>
       </c>
       <c r="D69">
         <v>1676</v>
@@ -2566,7 +2566,7 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>7374</v>
+        <v>8374</v>
       </c>
       <c r="D70">
         <v>1679</v>
@@ -2606,7 +2606,7 @@
         <v>71</v>
       </c>
       <c r="C72">
-        <v>8424</v>
+        <v>9424</v>
       </c>
       <c r="D72">
         <v>1685</v>
@@ -2626,7 +2626,7 @@
         <v>72</v>
       </c>
       <c r="C73">
-        <v>8435</v>
+        <v>9435</v>
       </c>
       <c r="D73">
         <v>1688</v>
@@ -2646,7 +2646,7 @@
         <v>73</v>
       </c>
       <c r="C74">
-        <v>8446</v>
+        <v>9446</v>
       </c>
       <c r="D74">
         <v>1691</v>
@@ -2666,7 +2666,7 @@
         <v>74</v>
       </c>
       <c r="C75">
-        <v>8457</v>
+        <v>9457</v>
       </c>
       <c r="D75">
         <v>1694</v>
@@ -2706,7 +2706,7 @@
         <v>76</v>
       </c>
       <c r="C77">
-        <v>8468</v>
+        <v>9468</v>
       </c>
       <c r="D77">
         <v>1700</v>
@@ -2726,7 +2726,7 @@
         <v>77</v>
       </c>
       <c r="C78">
-        <v>8479</v>
+        <v>9479</v>
       </c>
       <c r="D78">
         <v>1703</v>
@@ -2746,7 +2746,7 @@
         <v>78</v>
       </c>
       <c r="C79">
-        <v>8490</v>
+        <v>9490</v>
       </c>
       <c r="D79">
         <v>1706</v>
@@ -2766,7 +2766,7 @@
         <v>79</v>
       </c>
       <c r="C80">
-        <v>8501</v>
+        <v>9501</v>
       </c>
       <c r="D80">
         <v>1709</v>
@@ -2806,7 +2806,7 @@
         <v>81</v>
       </c>
       <c r="C82">
-        <v>9551</v>
+        <v>10551</v>
       </c>
       <c r="D82">
         <v>1715</v>
@@ -2826,7 +2826,7 @@
         <v>82</v>
       </c>
       <c r="C83">
-        <v>9562</v>
+        <v>10562</v>
       </c>
       <c r="D83">
         <v>1718</v>
@@ -2846,7 +2846,7 @@
         <v>83</v>
       </c>
       <c r="C84">
-        <v>9573</v>
+        <v>10573</v>
       </c>
       <c r="D84">
         <v>1721</v>
@@ -2866,7 +2866,7 @@
         <v>84</v>
       </c>
       <c r="C85">
-        <v>9584</v>
+        <v>10584</v>
       </c>
       <c r="D85">
         <v>1724</v>
@@ -2906,7 +2906,7 @@
         <v>86</v>
       </c>
       <c r="C87">
-        <v>9595</v>
+        <v>10595</v>
       </c>
       <c r="D87">
         <v>1730</v>
@@ -2926,7 +2926,7 @@
         <v>87</v>
       </c>
       <c r="C88">
-        <v>9606</v>
+        <v>10606</v>
       </c>
       <c r="D88">
         <v>1733</v>
@@ -2946,7 +2946,7 @@
         <v>88</v>
       </c>
       <c r="C89">
-        <v>9617</v>
+        <v>10617</v>
       </c>
       <c r="D89">
         <v>1736</v>
@@ -2966,7 +2966,7 @@
         <v>89</v>
       </c>
       <c r="C90">
-        <v>9628</v>
+        <v>10628</v>
       </c>
       <c r="D90">
         <v>1739</v>
@@ -3006,7 +3006,7 @@
         <v>91</v>
       </c>
       <c r="C92">
-        <v>10678</v>
+        <v>11678</v>
       </c>
       <c r="D92">
         <v>1745</v>
@@ -3026,7 +3026,7 @@
         <v>92</v>
       </c>
       <c r="C93">
-        <v>10689</v>
+        <v>11689</v>
       </c>
       <c r="D93">
         <v>1748</v>
@@ -3046,7 +3046,7 @@
         <v>93</v>
       </c>
       <c r="C94">
-        <v>10700</v>
+        <v>11700</v>
       </c>
       <c r="D94">
         <v>1751</v>
@@ -3066,7 +3066,7 @@
         <v>94</v>
       </c>
       <c r="C95">
-        <v>10711</v>
+        <v>11711</v>
       </c>
       <c r="D95">
         <v>1754</v>
@@ -3106,7 +3106,7 @@
         <v>96</v>
       </c>
       <c r="C97">
-        <v>10722</v>
+        <v>11722</v>
       </c>
       <c r="D97">
         <v>1760</v>
@@ -3126,7 +3126,7 @@
         <v>97</v>
       </c>
       <c r="C98">
-        <v>10733</v>
+        <v>11733</v>
       </c>
       <c r="D98">
         <v>1763</v>
@@ -3146,7 +3146,7 @@
         <v>98</v>
       </c>
       <c r="C99">
-        <v>10744</v>
+        <v>11744</v>
       </c>
       <c r="D99">
         <v>1766</v>
@@ -3166,7 +3166,7 @@
         <v>99</v>
       </c>
       <c r="C100">
-        <v>10755</v>
+        <v>11755</v>
       </c>
       <c r="D100">
         <v>1769</v>
@@ -3206,7 +3206,7 @@
         <v>101</v>
       </c>
       <c r="C102">
-        <v>11805</v>
+        <v>12805</v>
       </c>
       <c r="D102">
         <v>1775</v>
@@ -3226,7 +3226,7 @@
         <v>102</v>
       </c>
       <c r="C103">
-        <v>11816</v>
+        <v>12816</v>
       </c>
       <c r="D103">
         <v>1778</v>
@@ -3246,7 +3246,7 @@
         <v>103</v>
       </c>
       <c r="C104">
-        <v>11827</v>
+        <v>12827</v>
       </c>
       <c r="D104">
         <v>1781</v>
@@ -3266,7 +3266,7 @@
         <v>104</v>
       </c>
       <c r="C105">
-        <v>11838</v>
+        <v>12838</v>
       </c>
       <c r="D105">
         <v>1784</v>
@@ -3306,7 +3306,7 @@
         <v>106</v>
       </c>
       <c r="C107">
-        <v>11849</v>
+        <v>12849</v>
       </c>
       <c r="D107">
         <v>1790</v>
@@ -3326,7 +3326,7 @@
         <v>107</v>
       </c>
       <c r="C108">
-        <v>11860</v>
+        <v>12860</v>
       </c>
       <c r="D108">
         <v>1793</v>
@@ -3346,7 +3346,7 @@
         <v>108</v>
       </c>
       <c r="C109">
-        <v>11871</v>
+        <v>12871</v>
       </c>
       <c r="D109">
         <v>1796</v>
@@ -3366,7 +3366,7 @@
         <v>109</v>
       </c>
       <c r="C110">
-        <v>11882</v>
+        <v>12882</v>
       </c>
       <c r="D110">
         <v>1799</v>
@@ -3406,7 +3406,7 @@
         <v>111</v>
       </c>
       <c r="C112">
-        <v>12932</v>
+        <v>13932</v>
       </c>
       <c r="D112">
         <v>1805</v>
@@ -3426,7 +3426,7 @@
         <v>112</v>
       </c>
       <c r="C113">
-        <v>12943</v>
+        <v>13943</v>
       </c>
       <c r="D113">
         <v>1808</v>
@@ -3446,7 +3446,7 @@
         <v>113</v>
       </c>
       <c r="C114">
-        <v>12954</v>
+        <v>13954</v>
       </c>
       <c r="D114">
         <v>1811</v>
@@ -3466,7 +3466,7 @@
         <v>114</v>
       </c>
       <c r="C115">
-        <v>12965</v>
+        <v>13965</v>
       </c>
       <c r="D115">
         <v>1814</v>
@@ -3506,7 +3506,7 @@
         <v>116</v>
       </c>
       <c r="C117">
-        <v>12976</v>
+        <v>13976</v>
       </c>
       <c r="D117">
         <v>1820</v>
@@ -3526,7 +3526,7 @@
         <v>117</v>
       </c>
       <c r="C118">
-        <v>12987</v>
+        <v>13987</v>
       </c>
       <c r="D118">
         <v>1823</v>
@@ -3546,7 +3546,7 @@
         <v>118</v>
       </c>
       <c r="C119">
-        <v>12998</v>
+        <v>13998</v>
       </c>
       <c r="D119">
         <v>1826</v>
@@ -3566,7 +3566,7 @@
         <v>119</v>
       </c>
       <c r="C120">
-        <v>13009</v>
+        <v>14009</v>
       </c>
       <c r="D120">
         <v>1829</v>
@@ -3606,7 +3606,7 @@
         <v>121</v>
       </c>
       <c r="C122">
-        <v>14059</v>
+        <v>15059</v>
       </c>
       <c r="D122">
         <v>1835</v>
@@ -3626,7 +3626,7 @@
         <v>122</v>
       </c>
       <c r="C123">
-        <v>14070</v>
+        <v>15070</v>
       </c>
       <c r="D123">
         <v>1838</v>
@@ -3646,7 +3646,7 @@
         <v>123</v>
       </c>
       <c r="C124">
-        <v>14081</v>
+        <v>15081</v>
       </c>
       <c r="D124">
         <v>1841</v>
@@ -3666,7 +3666,7 @@
         <v>124</v>
       </c>
       <c r="C125">
-        <v>14092</v>
+        <v>15092</v>
       </c>
       <c r="D125">
         <v>1844</v>
@@ -3706,7 +3706,7 @@
         <v>126</v>
       </c>
       <c r="C127">
-        <v>14103</v>
+        <v>15103</v>
       </c>
       <c r="D127">
         <v>1850</v>
@@ -3726,7 +3726,7 @@
         <v>127</v>
       </c>
       <c r="C128">
-        <v>14114</v>
+        <v>15114</v>
       </c>
       <c r="D128">
         <v>1853</v>
@@ -3746,7 +3746,7 @@
         <v>128</v>
       </c>
       <c r="C129">
-        <v>14125</v>
+        <v>15125</v>
       </c>
       <c r="D129">
         <v>1856</v>
@@ -3766,7 +3766,7 @@
         <v>129</v>
       </c>
       <c r="C130">
-        <v>14136</v>
+        <v>15136</v>
       </c>
       <c r="D130">
         <v>1859</v>
@@ -3806,7 +3806,7 @@
         <v>131</v>
       </c>
       <c r="C132">
-        <v>15186</v>
+        <v>16186</v>
       </c>
       <c r="D132">
         <v>1865</v>
@@ -3826,7 +3826,7 @@
         <v>132</v>
       </c>
       <c r="C133">
-        <v>15197</v>
+        <v>16197</v>
       </c>
       <c r="D133">
         <v>1868</v>
@@ -3846,7 +3846,7 @@
         <v>133</v>
       </c>
       <c r="C134">
-        <v>15208</v>
+        <v>16208</v>
       </c>
       <c r="D134">
         <v>1871</v>
@@ -3866,7 +3866,7 @@
         <v>134</v>
       </c>
       <c r="C135">
-        <v>15219</v>
+        <v>16219</v>
       </c>
       <c r="D135">
         <v>1874</v>
@@ -3906,7 +3906,7 @@
         <v>136</v>
       </c>
       <c r="C137">
-        <v>15230</v>
+        <v>16230</v>
       </c>
       <c r="D137">
         <v>1880</v>
@@ -3926,7 +3926,7 @@
         <v>137</v>
       </c>
       <c r="C138">
-        <v>15241</v>
+        <v>16241</v>
       </c>
       <c r="D138">
         <v>1883</v>
@@ -3946,7 +3946,7 @@
         <v>138</v>
       </c>
       <c r="C139">
-        <v>15252</v>
+        <v>16252</v>
       </c>
       <c r="D139">
         <v>1886</v>
@@ -3966,7 +3966,7 @@
         <v>139</v>
       </c>
       <c r="C140">
-        <v>15263</v>
+        <v>16263</v>
       </c>
       <c r="D140">
         <v>1889</v>
@@ -4006,7 +4006,7 @@
         <v>141</v>
       </c>
       <c r="C142">
-        <v>16313</v>
+        <v>17313</v>
       </c>
       <c r="D142">
         <v>1895</v>
@@ -4026,7 +4026,7 @@
         <v>142</v>
       </c>
       <c r="C143">
-        <v>16324</v>
+        <v>17324</v>
       </c>
       <c r="D143">
         <v>1898</v>
@@ -4046,7 +4046,7 @@
         <v>143</v>
       </c>
       <c r="C144">
-        <v>16335</v>
+        <v>17335</v>
       </c>
       <c r="D144">
         <v>1901</v>
@@ -4066,7 +4066,7 @@
         <v>144</v>
       </c>
       <c r="C145">
-        <v>16346</v>
+        <v>17346</v>
       </c>
       <c r="D145">
         <v>1904</v>
@@ -4106,7 +4106,7 @@
         <v>146</v>
       </c>
       <c r="C147">
-        <v>16357</v>
+        <v>17357</v>
       </c>
       <c r="D147">
         <v>1910</v>
@@ -4126,7 +4126,7 @@
         <v>147</v>
       </c>
       <c r="C148">
-        <v>16368</v>
+        <v>17368</v>
       </c>
       <c r="D148">
         <v>1913</v>
@@ -4146,7 +4146,7 @@
         <v>148</v>
       </c>
       <c r="C149">
-        <v>16379</v>
+        <v>17379</v>
       </c>
       <c r="D149">
         <v>1916</v>
@@ -4166,7 +4166,7 @@
         <v>149</v>
       </c>
       <c r="C150">
-        <v>16390</v>
+        <v>17390</v>
       </c>
       <c r="D150">
         <v>1919</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C654B0CC-1EB8-4F69-98A5-39DC424EE0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C5ED2-9AF3-4E77-862D-D1DCA01C94E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -1209,10 +1209,10 @@
         <v>1475</v>
       </c>
       <c r="E2">
-        <v>1114</v>
+        <v>2106</v>
       </c>
       <c r="F2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1232,10 +1232,10 @@
         <v>1478</v>
       </c>
       <c r="E3">
-        <v>1169</v>
+        <v>2255</v>
       </c>
       <c r="F3">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1252,10 +1252,10 @@
         <v>1481</v>
       </c>
       <c r="E4">
-        <v>1240</v>
+        <v>2462</v>
       </c>
       <c r="F4">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1272,10 +1272,10 @@
         <v>1484</v>
       </c>
       <c r="E5">
-        <v>1326</v>
+        <v>2664</v>
       </c>
       <c r="F5">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1292,10 +1292,10 @@
         <v>1487</v>
       </c>
       <c r="E6">
-        <v>1432</v>
+        <v>2968</v>
       </c>
       <c r="F6">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         <v>1490</v>
       </c>
       <c r="E7">
-        <v>1561</v>
+        <v>3370</v>
       </c>
       <c r="F7">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -1332,10 +1332,10 @@
         <v>1493</v>
       </c>
       <c r="E8">
-        <v>1718</v>
+        <v>3898</v>
       </c>
       <c r="F8">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -1352,10 +1352,10 @@
         <v>1496</v>
       </c>
       <c r="E9">
-        <v>1906</v>
+        <v>4261</v>
       </c>
       <c r="F9">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -1372,10 +1372,10 @@
         <v>1499</v>
       </c>
       <c r="E10">
-        <v>2135</v>
+        <v>4702</v>
       </c>
       <c r="F10">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -1392,10 +1392,10 @@
         <v>1502</v>
       </c>
       <c r="E11">
-        <v>2413</v>
+        <v>5240</v>
       </c>
       <c r="F11">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -1412,10 +1412,10 @@
         <v>1505</v>
       </c>
       <c r="E12">
-        <v>1677</v>
+        <v>5255</v>
       </c>
       <c r="F12">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -1432,10 +1432,10 @@
         <v>1508</v>
       </c>
       <c r="E13">
-        <v>1761</v>
+        <v>5740</v>
       </c>
       <c r="F13">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1452,10 +1452,10 @@
         <v>1511</v>
       </c>
       <c r="E14">
-        <v>1866</v>
+        <v>6390</v>
       </c>
       <c r="F14">
-        <v>283</v>
+        <v>438</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -1472,10 +1472,10 @@
         <v>1514</v>
       </c>
       <c r="E15">
-        <v>1997</v>
+        <v>6914</v>
       </c>
       <c r="F15">
-        <v>303</v>
+        <v>484</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -1492,10 +1492,10 @@
         <v>1517</v>
       </c>
       <c r="E16">
-        <v>2157</v>
+        <v>7553</v>
       </c>
       <c r="F16">
-        <v>327</v>
+        <v>539</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1512,10 +1512,10 @@
         <v>1520</v>
       </c>
       <c r="E17">
-        <v>2351</v>
+        <v>8409</v>
       </c>
       <c r="F17">
-        <v>356</v>
+        <v>612</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1532,10 +1532,10 @@
         <v>1523</v>
       </c>
       <c r="E18">
-        <v>2586</v>
+        <v>9536</v>
       </c>
       <c r="F18">
-        <v>392</v>
+        <v>708</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1552,10 +1552,10 @@
         <v>1526</v>
       </c>
       <c r="E19">
-        <v>2871</v>
+        <v>10219</v>
       </c>
       <c r="F19">
-        <v>435</v>
+        <v>774</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1572,10 +1572,10 @@
         <v>1529</v>
       </c>
       <c r="E20">
-        <v>3215</v>
+        <v>11057</v>
       </c>
       <c r="F20">
-        <v>487</v>
+        <v>854</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1592,10 +1592,10 @@
         <v>1532</v>
       </c>
       <c r="E21">
-        <v>3633</v>
+        <v>12079</v>
       </c>
       <c r="F21">
-        <v>550</v>
+        <v>933</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1612,10 +1612,10 @@
         <v>1535</v>
       </c>
       <c r="E22">
-        <v>2525</v>
+        <v>11875</v>
       </c>
       <c r="F22">
-        <v>383</v>
+        <v>918</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1632,10 +1632,10 @@
         <v>1538</v>
       </c>
       <c r="E23">
-        <v>2651</v>
+        <v>12719</v>
       </c>
       <c r="F23">
-        <v>402</v>
+        <v>1002</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1652,10 +1652,10 @@
         <v>1541</v>
       </c>
       <c r="E24">
-        <v>2810</v>
+        <v>13881</v>
       </c>
       <c r="F24">
-        <v>426</v>
+        <v>1116</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1672,10 +1672,10 @@
         <v>1544</v>
       </c>
       <c r="E25">
-        <v>3007</v>
+        <v>14725</v>
       </c>
       <c r="F25">
-        <v>456</v>
+        <v>1208</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1692,10 +1692,10 @@
         <v>1547</v>
       </c>
       <c r="E26">
-        <v>3247</v>
+        <v>15771</v>
       </c>
       <c r="F26">
-        <v>492</v>
+        <v>1319</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1712,10 +1712,10 @@
         <v>1550</v>
       </c>
       <c r="E27">
-        <v>3540</v>
+        <v>17212</v>
       </c>
       <c r="F27">
-        <v>536</v>
+        <v>1468</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1732,10 +1732,10 @@
         <v>1553</v>
       </c>
       <c r="E28">
-        <v>3894</v>
+        <v>19136</v>
       </c>
       <c r="F28">
-        <v>590</v>
+        <v>1665</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1752,10 +1752,10 @@
         <v>1556</v>
       </c>
       <c r="E29">
-        <v>4322</v>
+        <v>20105</v>
       </c>
       <c r="F29">
-        <v>655</v>
+        <v>1785</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1772,10 +1772,10 @@
         <v>1559</v>
       </c>
       <c r="E30">
-        <v>4841</v>
+        <v>21327</v>
       </c>
       <c r="F30">
-        <v>733</v>
+        <v>1931</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1792,10 +1792,10 @@
         <v>1562</v>
       </c>
       <c r="E31">
-        <v>5470</v>
+        <v>22841</v>
       </c>
       <c r="F31">
-        <v>829</v>
+        <v>2109</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1812,10 +1812,10 @@
         <v>1565</v>
       </c>
       <c r="E32">
-        <v>3802</v>
+        <v>22017</v>
       </c>
       <c r="F32">
-        <v>576</v>
+        <v>2033</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1832,10 +1832,10 @@
         <v>1568</v>
       </c>
       <c r="E33">
-        <v>3992</v>
+        <v>23580</v>
       </c>
       <c r="F33">
-        <v>605</v>
+        <v>2178</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1852,10 +1852,10 @@
         <v>1571</v>
       </c>
       <c r="E34">
-        <v>4231</v>
+        <v>25230</v>
       </c>
       <c r="F34">
-        <v>641</v>
+        <v>2377</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1872,10 +1872,10 @@
         <v>1574</v>
       </c>
       <c r="E35">
-        <v>4527</v>
+        <v>26240</v>
       </c>
       <c r="F35">
-        <v>686</v>
+        <v>2521</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1892,10 +1892,10 @@
         <v>1577</v>
       </c>
       <c r="E36">
-        <v>4890</v>
+        <v>27552</v>
       </c>
       <c r="F36">
-        <v>741</v>
+        <v>2647</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1912,10 +1912,10 @@
         <v>1580</v>
       </c>
       <c r="E37">
-        <v>5330</v>
+        <v>29480</v>
       </c>
       <c r="F37">
-        <v>808</v>
+        <v>2833</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1932,10 +1932,10 @@
         <v>1583</v>
       </c>
       <c r="E38">
-        <v>5863</v>
+        <v>32133</v>
       </c>
       <c r="F38">
-        <v>888</v>
+        <v>3087</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1952,10 +1952,10 @@
         <v>1586</v>
       </c>
       <c r="E39">
-        <v>6507</v>
+        <v>33097</v>
       </c>
       <c r="F39">
-        <v>986</v>
+        <v>3180</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1972,10 +1972,10 @@
         <v>1589</v>
       </c>
       <c r="E40">
-        <v>7288</v>
+        <v>34421</v>
       </c>
       <c r="F40">
-        <v>1104</v>
+        <v>3307</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1992,10 +1992,10 @@
         <v>1592</v>
       </c>
       <c r="E41">
-        <v>8236</v>
+        <v>36142</v>
       </c>
       <c r="F41">
-        <v>1248</v>
+        <v>3473</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -2012,10 +2012,10 @@
         <v>1595</v>
       </c>
       <c r="E42">
-        <v>5724</v>
+        <v>34155</v>
       </c>
       <c r="F42">
-        <v>867</v>
+        <v>3282</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -2032,10 +2032,10 @@
         <v>1598</v>
       </c>
       <c r="E43">
-        <v>6010</v>
+        <v>35862</v>
       </c>
       <c r="F43">
-        <v>911</v>
+        <v>3446</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -2052,10 +2052,10 @@
         <v>1601</v>
       </c>
       <c r="E44">
-        <v>6371</v>
+        <v>38373</v>
       </c>
       <c r="F44">
-        <v>965</v>
+        <v>3687</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -2072,10 +2072,10 @@
         <v>1604</v>
       </c>
       <c r="E45">
-        <v>6817</v>
+        <v>39908</v>
       </c>
       <c r="F45">
-        <v>1033</v>
+        <v>3834</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -2092,10 +2092,10 @@
         <v>1607</v>
       </c>
       <c r="E46">
-        <v>7362</v>
+        <v>41903</v>
       </c>
       <c r="F46">
-        <v>1115</v>
+        <v>4026</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -2112,10 +2112,10 @@
         <v>1610</v>
       </c>
       <c r="E47">
-        <v>8025</v>
+        <v>44836</v>
       </c>
       <c r="F47">
-        <v>1216</v>
+        <v>4308</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -2132,10 +2132,10 @@
         <v>1613</v>
       </c>
       <c r="E48">
-        <v>8827</v>
+        <v>48871</v>
       </c>
       <c r="F48">
-        <v>1337</v>
+        <v>4696</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -2152,10 +2152,10 @@
         <v>1616</v>
       </c>
       <c r="E49">
-        <v>9798</v>
+        <v>50337</v>
       </c>
       <c r="F49">
-        <v>1485</v>
+        <v>4837</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -2172,10 +2172,10 @@
         <v>1619</v>
       </c>
       <c r="E50">
-        <v>10974</v>
+        <v>52351</v>
       </c>
       <c r="F50">
-        <v>1663</v>
+        <v>5030</v>
       </c>
       <c r="G50" t="s">
         <v>10</v>
@@ -2192,10 +2192,10 @@
         <v>1622</v>
       </c>
       <c r="E51">
-        <v>12400</v>
+        <v>54969</v>
       </c>
       <c r="F51">
-        <v>1879</v>
+        <v>5281</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
@@ -2212,10 +2212,10 @@
         <v>1625</v>
       </c>
       <c r="E52">
-        <v>8618</v>
+        <v>51945</v>
       </c>
       <c r="F52">
-        <v>1306</v>
+        <v>4991</v>
       </c>
       <c r="G52" t="s">
         <v>10</v>
@@ -2232,10 +2232,10 @@
         <v>1628</v>
       </c>
       <c r="E53">
-        <v>9049</v>
+        <v>54543</v>
       </c>
       <c r="F53">
-        <v>1371</v>
+        <v>5241</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
@@ -2252,10 +2252,10 @@
         <v>1631</v>
       </c>
       <c r="E54">
-        <v>9592</v>
+        <v>58361</v>
       </c>
       <c r="F54">
-        <v>1453</v>
+        <v>5607</v>
       </c>
       <c r="G54" t="s">
         <v>10</v>
@@ -2272,10 +2272,10 @@
         <v>1634</v>
       </c>
       <c r="E55">
-        <v>10264</v>
+        <v>60695</v>
       </c>
       <c r="F55">
-        <v>1555</v>
+        <v>5832</v>
       </c>
       <c r="G55" t="s">
         <v>10</v>
@@ -2292,10 +2292,10 @@
         <v>1637</v>
       </c>
       <c r="E56">
-        <v>11085</v>
+        <v>63730</v>
       </c>
       <c r="F56">
-        <v>1679</v>
+        <v>6123</v>
       </c>
       <c r="G56" t="s">
         <v>10</v>
@@ -2312,10 +2312,10 @@
         <v>1640</v>
       </c>
       <c r="E57">
-        <v>12082</v>
+        <v>68191</v>
       </c>
       <c r="F57">
-        <v>1831</v>
+        <v>6552</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
@@ -2332,10 +2332,10 @@
         <v>1643</v>
       </c>
       <c r="E58">
-        <v>13290</v>
+        <v>74328</v>
       </c>
       <c r="F58">
-        <v>2014</v>
+        <v>7142</v>
       </c>
       <c r="G58" t="s">
         <v>10</v>
@@ -2352,10 +2352,10 @@
         <v>1646</v>
       </c>
       <c r="E59">
-        <v>14752</v>
+        <v>76558</v>
       </c>
       <c r="F59">
-        <v>2235</v>
+        <v>7356</v>
       </c>
       <c r="G59" t="s">
         <v>10</v>
@@ -2372,10 +2372,10 @@
         <v>1649</v>
       </c>
       <c r="E60">
-        <v>16523</v>
+        <v>79620</v>
       </c>
       <c r="F60">
-        <v>2503</v>
+        <v>7650</v>
       </c>
       <c r="G60" t="s">
         <v>10</v>
@@ -2392,10 +2392,10 @@
         <v>1652</v>
       </c>
       <c r="E61">
-        <v>18671</v>
+        <v>83601</v>
       </c>
       <c r="F61">
-        <v>2829</v>
+        <v>8033</v>
       </c>
       <c r="G61" t="s">
         <v>10</v>
@@ -2412,10 +2412,10 @@
         <v>1655</v>
       </c>
       <c r="E62">
-        <v>12976</v>
+        <v>79003</v>
       </c>
       <c r="F62">
-        <v>1966</v>
+        <v>7591</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
@@ -2432,10 +2432,10 @@
         <v>1658</v>
       </c>
       <c r="E63">
-        <v>13625</v>
+        <v>82953</v>
       </c>
       <c r="F63">
-        <v>2064</v>
+        <v>7970</v>
       </c>
       <c r="G63" t="s">
         <v>10</v>
@@ -2452,10 +2452,10 @@
         <v>1661</v>
       </c>
       <c r="E64">
-        <v>14442</v>
+        <v>88760</v>
       </c>
       <c r="F64">
-        <v>2188</v>
+        <v>8528</v>
       </c>
       <c r="G64" t="s">
         <v>10</v>
@@ -2472,10 +2472,10 @@
         <v>1664</v>
       </c>
       <c r="E65">
-        <v>15453</v>
+        <v>92310</v>
       </c>
       <c r="F65">
-        <v>2341</v>
+        <v>8869</v>
       </c>
       <c r="G65" t="s">
         <v>10</v>
@@ -2492,10 +2492,10 @@
         <v>1667</v>
       </c>
       <c r="E66">
-        <v>16690</v>
+        <v>96926</v>
       </c>
       <c r="F66">
-        <v>2529</v>
+        <v>9313</v>
       </c>
       <c r="G66" t="s">
         <v>10</v>
@@ -2512,10 +2512,10 @@
         <v>1670</v>
       </c>
       <c r="E67">
-        <v>18192</v>
+        <v>103711</v>
       </c>
       <c r="F67">
-        <v>2756</v>
+        <v>9965</v>
       </c>
       <c r="G67" t="s">
         <v>10</v>
@@ -2532,10 +2532,10 @@
         <v>1673</v>
       </c>
       <c r="E68">
-        <v>20011</v>
+        <v>113045</v>
       </c>
       <c r="F68">
-        <v>3032</v>
+        <v>10862</v>
       </c>
       <c r="G68" t="s">
         <v>10</v>
@@ -2552,10 +2552,10 @@
         <v>1676</v>
       </c>
       <c r="E69">
-        <v>22212</v>
+        <v>116436</v>
       </c>
       <c r="F69">
-        <v>3365</v>
+        <v>11187</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
@@ -2572,10 +2572,10 @@
         <v>1679</v>
       </c>
       <c r="E70">
-        <v>24878</v>
+        <v>121093</v>
       </c>
       <c r="F70">
-        <v>3769</v>
+        <v>11635</v>
       </c>
       <c r="G70" t="s">
         <v>10</v>
@@ -2592,10 +2592,10 @@
         <v>1682</v>
       </c>
       <c r="E71">
-        <v>28112</v>
+        <v>127148</v>
       </c>
       <c r="F71">
-        <v>4259</v>
+        <v>12217</v>
       </c>
       <c r="G71" t="s">
         <v>10</v>
@@ -2612,10 +2612,10 @@
         <v>1685</v>
       </c>
       <c r="E72">
-        <v>19538</v>
+        <v>120155</v>
       </c>
       <c r="F72">
-        <v>2960</v>
+        <v>11545</v>
       </c>
       <c r="G72" t="s">
         <v>10</v>
@@ -2632,10 +2632,10 @@
         <v>1688</v>
       </c>
       <c r="E73">
-        <v>20514</v>
+        <v>126163</v>
       </c>
       <c r="F73">
-        <v>3108</v>
+        <v>12122</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -2652,10 +2652,10 @@
         <v>1691</v>
       </c>
       <c r="E74">
-        <v>21745</v>
+        <v>134994</v>
       </c>
       <c r="F74">
-        <v>3295</v>
+        <v>12970</v>
       </c>
       <c r="G74" t="s">
         <v>10</v>
@@ -2672,10 +2672,10 @@
         <v>1694</v>
       </c>
       <c r="E75">
-        <v>23267</v>
+        <v>140394</v>
       </c>
       <c r="F75">
-        <v>3525</v>
+        <v>13489</v>
       </c>
       <c r="G75" t="s">
         <v>10</v>
@@ -2692,10 +2692,10 @@
         <v>1697</v>
       </c>
       <c r="E76">
-        <v>25129</v>
+        <v>147413</v>
       </c>
       <c r="F76">
-        <v>3807</v>
+        <v>14164</v>
       </c>
       <c r="G76" t="s">
         <v>10</v>
@@ -2712,10 +2712,10 @@
         <v>1700</v>
       </c>
       <c r="E77">
-        <v>27390</v>
+        <v>157732</v>
       </c>
       <c r="F77">
-        <v>4150</v>
+        <v>15155</v>
       </c>
       <c r="G77" t="s">
         <v>10</v>
@@ -2732,10 +2732,10 @@
         <v>1703</v>
       </c>
       <c r="E78">
-        <v>30130</v>
+        <v>171928</v>
       </c>
       <c r="F78">
-        <v>4565</v>
+        <v>16519</v>
       </c>
       <c r="G78" t="s">
         <v>10</v>
@@ -2752,10 +2752,10 @@
         <v>1706</v>
       </c>
       <c r="E79">
-        <v>33444</v>
+        <v>177086</v>
       </c>
       <c r="F79">
-        <v>5067</v>
+        <v>17015</v>
       </c>
       <c r="G79" t="s">
         <v>10</v>
@@ -2772,10 +2772,10 @@
         <v>1709</v>
       </c>
       <c r="E80">
-        <v>37457</v>
+        <v>184170</v>
       </c>
       <c r="F80">
-        <v>5675</v>
+        <v>17695</v>
       </c>
       <c r="G80" t="s">
         <v>10</v>
@@ -2792,10 +2792,10 @@
         <v>1712</v>
       </c>
       <c r="E81">
-        <v>42326</v>
+        <v>193378</v>
       </c>
       <c r="F81">
-        <v>6413</v>
+        <v>18580</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -2812,10 +2812,10 @@
         <v>1715</v>
       </c>
       <c r="E82">
-        <v>29417</v>
+        <v>182742</v>
       </c>
       <c r="F82">
-        <v>4457</v>
+        <v>17558</v>
       </c>
       <c r="G82" t="s">
         <v>10</v>
@@ -2832,10 +2832,10 @@
         <v>1718</v>
       </c>
       <c r="E83">
-        <v>30888</v>
+        <v>191879</v>
       </c>
       <c r="F83">
-        <v>4680</v>
+        <v>18436</v>
       </c>
       <c r="G83" t="s">
         <v>10</v>
@@ -2852,10 +2852,10 @@
         <v>1721</v>
       </c>
       <c r="E84">
-        <v>32741</v>
+        <v>205311</v>
       </c>
       <c r="F84">
-        <v>4961</v>
+        <v>19727</v>
       </c>
       <c r="G84" t="s">
         <v>10</v>
@@ -2872,10 +2872,10 @@
         <v>1724</v>
       </c>
       <c r="E85">
-        <v>35033</v>
+        <v>213523</v>
       </c>
       <c r="F85">
-        <v>5308</v>
+        <v>20516</v>
       </c>
       <c r="G85" t="s">
         <v>10</v>
@@ -2892,10 +2892,10 @@
         <v>1727</v>
       </c>
       <c r="E86">
-        <v>37835</v>
+        <v>224200</v>
       </c>
       <c r="F86">
-        <v>5733</v>
+        <v>21542</v>
       </c>
       <c r="G86" t="s">
         <v>10</v>
@@ -2912,10 +2912,10 @@
         <v>1730</v>
       </c>
       <c r="E87">
-        <v>41241</v>
+        <v>239893</v>
       </c>
       <c r="F87">
-        <v>6249</v>
+        <v>23049</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
@@ -2932,10 +2932,10 @@
         <v>1733</v>
       </c>
       <c r="E88">
-        <v>45365</v>
+        <v>261484</v>
       </c>
       <c r="F88">
-        <v>6873</v>
+        <v>25124</v>
       </c>
       <c r="G88" t="s">
         <v>10</v>
@@ -2952,10 +2952,10 @@
         <v>1736</v>
       </c>
       <c r="E89">
-        <v>50355</v>
+        <v>269328</v>
       </c>
       <c r="F89">
-        <v>7630</v>
+        <v>25878</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -2972,10 +2972,10 @@
         <v>1739</v>
       </c>
       <c r="E90">
-        <v>56397</v>
+        <v>274609</v>
       </c>
       <c r="F90">
-        <v>8545</v>
+        <v>26385</v>
       </c>
       <c r="G90" t="s">
         <v>10</v>
@@ -2992,10 +2992,10 @@
         <v>1742</v>
       </c>
       <c r="E91">
-        <v>63729</v>
+        <v>288340</v>
       </c>
       <c r="F91">
-        <v>9656</v>
+        <v>27704</v>
       </c>
       <c r="G91" t="s">
         <v>10</v>
@@ -3012,10 +3012,10 @@
         <v>1745</v>
       </c>
       <c r="E92">
-        <v>44292</v>
+        <v>267138</v>
       </c>
       <c r="F92">
-        <v>6711</v>
+        <v>25667</v>
       </c>
       <c r="G92" t="s">
         <v>10</v>
@@ -3032,10 +3032,10 @@
         <v>1748</v>
       </c>
       <c r="E93">
-        <v>46506</v>
+        <v>274995</v>
       </c>
       <c r="F93">
-        <v>7046</v>
+        <v>26422</v>
       </c>
       <c r="G93" t="s">
         <v>10</v>
@@ -3052,10 +3052,10 @@
         <v>1751</v>
       </c>
       <c r="E94">
-        <v>49297</v>
+        <v>288476</v>
       </c>
       <c r="F94">
-        <v>7469</v>
+        <v>27717</v>
       </c>
       <c r="G94" t="s">
         <v>10</v>
@@ -3072,10 +3072,10 @@
         <v>1754</v>
       </c>
       <c r="E95">
-        <v>52747</v>
+        <v>294132</v>
       </c>
       <c r="F95">
-        <v>7992</v>
+        <v>28261</v>
       </c>
       <c r="G95" t="s">
         <v>10</v>
@@ -3092,10 +3092,10 @@
         <v>1757</v>
       </c>
       <c r="E96">
-        <v>56967</v>
+        <v>302783</v>
       </c>
       <c r="F96">
-        <v>8631</v>
+        <v>29092</v>
       </c>
       <c r="G96" t="s">
         <v>10</v>
@@ -3112,10 +3112,10 @@
         <v>1760</v>
       </c>
       <c r="E97">
-        <v>62094</v>
+        <v>317625</v>
       </c>
       <c r="F97">
-        <v>9408</v>
+        <v>30518</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -3132,10 +3132,10 @@
         <v>1763</v>
       </c>
       <c r="E98">
-        <v>68304</v>
+        <v>339423</v>
       </c>
       <c r="F98">
-        <v>10349</v>
+        <v>32612</v>
       </c>
       <c r="G98" t="s">
         <v>10</v>
@@ -3152,10 +3152,10 @@
         <v>1766</v>
       </c>
       <c r="E99">
-        <v>75817</v>
+        <v>342751</v>
       </c>
       <c r="F99">
-        <v>11487</v>
+        <v>32932</v>
       </c>
       <c r="G99" t="s">
         <v>10</v>
@@ -3172,10 +3172,10 @@
         <v>1769</v>
       </c>
       <c r="E100">
-        <v>84915</v>
+        <v>349471</v>
       </c>
       <c r="F100">
-        <v>12866</v>
+        <v>33578</v>
       </c>
       <c r="G100" t="s">
         <v>10</v>
@@ -3192,10 +3192,10 @@
         <v>1772</v>
       </c>
       <c r="E101">
-        <v>95954</v>
+        <v>359750</v>
       </c>
       <c r="F101">
-        <v>14539</v>
+        <v>34565</v>
       </c>
       <c r="G101" t="s">
         <v>10</v>
@@ -3212,10 +3212,10 @@
         <v>1775</v>
       </c>
       <c r="E102">
-        <v>66688</v>
+        <v>339964</v>
       </c>
       <c r="F102">
-        <v>10104</v>
+        <v>32664</v>
       </c>
       <c r="G102" t="s">
         <v>10</v>
@@ -3232,10 +3232,10 @@
         <v>1778</v>
       </c>
       <c r="E103">
-        <v>70023</v>
+        <v>349963</v>
       </c>
       <c r="F103">
-        <v>10609</v>
+        <v>33625</v>
       </c>
       <c r="G103" t="s">
         <v>10</v>
@@ -3252,10 +3252,10 @@
         <v>1781</v>
       </c>
       <c r="E104">
-        <v>74224</v>
+        <v>367118</v>
       </c>
       <c r="F104">
-        <v>11246</v>
+        <v>35273</v>
       </c>
       <c r="G104" t="s">
         <v>10</v>
@@ -3272,10 +3272,10 @@
         <v>1784</v>
       </c>
       <c r="E105">
-        <v>79420</v>
+        <v>374316</v>
       </c>
       <c r="F105">
-        <v>12033</v>
+        <v>35965</v>
       </c>
       <c r="G105" t="s">
         <v>10</v>
@@ -3292,10 +3292,10 @@
         <v>1787</v>
       </c>
       <c r="E106">
-        <v>85773</v>
+        <v>385325</v>
       </c>
       <c r="F106">
-        <v>12996</v>
+        <v>37023</v>
       </c>
       <c r="G106" t="s">
         <v>10</v>
@@ -3312,10 +3312,10 @@
         <v>1790</v>
       </c>
       <c r="E107">
-        <v>93493</v>
+        <v>404214</v>
       </c>
       <c r="F107">
-        <v>14166</v>
+        <v>38838</v>
       </c>
       <c r="G107" t="s">
         <v>10</v>
@@ -3332,10 +3332,10 @@
         <v>1793</v>
       </c>
       <c r="E108">
-        <v>102842</v>
+        <v>431954</v>
       </c>
       <c r="F108">
-        <v>15582</v>
+        <v>41503</v>
       </c>
       <c r="G108" t="s">
         <v>10</v>
@@ -3352,10 +3352,10 @@
         <v>1796</v>
       </c>
       <c r="E109">
-        <v>114155</v>
+        <v>436189</v>
       </c>
       <c r="F109">
-        <v>17296</v>
+        <v>41910</v>
       </c>
       <c r="G109" t="s">
         <v>10</v>
@@ -3372,10 +3372,10 @@
         <v>1799</v>
       </c>
       <c r="E110">
-        <v>127853</v>
+        <v>444741</v>
       </c>
       <c r="F110">
-        <v>19372</v>
+        <v>42732</v>
       </c>
       <c r="G110" t="s">
         <v>10</v>
@@ -3392,10 +3392,10 @@
         <v>1802</v>
       </c>
       <c r="E111">
-        <v>144474</v>
+        <v>457822</v>
       </c>
       <c r="F111">
-        <v>21890</v>
+        <v>43988</v>
       </c>
       <c r="G111" t="s">
         <v>10</v>
@@ -3412,10 +3412,10 @@
         <v>1805</v>
       </c>
       <c r="E112">
-        <v>100410</v>
+        <v>432642</v>
       </c>
       <c r="F112">
-        <v>15214</v>
+        <v>41569</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -3432,10 +3432,10 @@
         <v>1808</v>
       </c>
       <c r="E113">
-        <v>105430</v>
+        <v>445367</v>
       </c>
       <c r="F113">
-        <v>15974</v>
+        <v>42792</v>
       </c>
       <c r="G113" t="s">
         <v>10</v>
@@ -3452,10 +3452,10 @@
         <v>1811</v>
       </c>
       <c r="E114">
-        <v>111756</v>
+        <v>467198</v>
       </c>
       <c r="F114">
-        <v>16933</v>
+        <v>44889</v>
       </c>
       <c r="G114" t="s">
         <v>10</v>
@@ -3472,10 +3472,10 @@
         <v>1814</v>
       </c>
       <c r="E115">
-        <v>119579</v>
+        <v>476359</v>
       </c>
       <c r="F115">
-        <v>18118</v>
+        <v>45769</v>
       </c>
       <c r="G115" t="s">
         <v>10</v>
@@ -3492,10 +3492,10 @@
         <v>1817</v>
       </c>
       <c r="E116">
-        <v>129145</v>
+        <v>490370</v>
       </c>
       <c r="F116">
-        <v>19567</v>
+        <v>47116</v>
       </c>
       <c r="G116" t="s">
         <v>10</v>
@@ -3512,10 +3512,10 @@
         <v>1820</v>
       </c>
       <c r="E117">
-        <v>140768</v>
+        <v>514407</v>
       </c>
       <c r="F117">
-        <v>21329</v>
+        <v>49425</v>
       </c>
       <c r="G117" t="s">
         <v>10</v>
@@ -3532,10 +3532,10 @@
         <v>1823</v>
       </c>
       <c r="E118">
-        <v>154845</v>
+        <v>549710</v>
       </c>
       <c r="F118">
-        <v>23461</v>
+        <v>52817</v>
       </c>
       <c r="G118" t="s">
         <v>10</v>
@@ -3552,10 +3552,10 @@
         <v>1826</v>
       </c>
       <c r="E119">
-        <v>171878</v>
+        <v>555099</v>
       </c>
       <c r="F119">
-        <v>26042</v>
+        <v>53335</v>
       </c>
       <c r="G119" t="s">
         <v>10</v>
@@ -3572,10 +3572,10 @@
         <v>1829</v>
       </c>
       <c r="E120">
-        <v>192503</v>
+        <v>565983</v>
       </c>
       <c r="F120">
-        <v>29167</v>
+        <v>54381</v>
       </c>
       <c r="G120" t="s">
         <v>10</v>
@@ -3592,10 +3592,10 @@
         <v>1832</v>
       </c>
       <c r="E121">
-        <v>217529</v>
+        <v>582630</v>
       </c>
       <c r="F121">
-        <v>32959</v>
+        <v>55980</v>
       </c>
       <c r="G121" t="s">
         <v>10</v>
@@ -3612,10 +3612,10 @@
         <v>1835</v>
       </c>
       <c r="E122">
-        <v>151182</v>
+        <v>550585</v>
       </c>
       <c r="F122">
-        <v>22906</v>
+        <v>52901</v>
       </c>
       <c r="G122" t="s">
         <v>10</v>
@@ -3632,10 +3632,10 @@
         <v>1838</v>
       </c>
       <c r="E123">
-        <v>158742</v>
+        <v>566779</v>
       </c>
       <c r="F123">
-        <v>24052</v>
+        <v>54457</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
@@ -3652,10 +3652,10 @@
         <v>1841</v>
       </c>
       <c r="E124">
-        <v>168266</v>
+        <v>594562</v>
       </c>
       <c r="F124">
-        <v>25495</v>
+        <v>57127</v>
       </c>
       <c r="G124" t="s">
         <v>10</v>
@@ -3672,10 +3672,10 @@
         <v>1844</v>
       </c>
       <c r="E125">
-        <v>180045</v>
+        <v>606220</v>
       </c>
       <c r="F125">
-        <v>27279</v>
+        <v>58247</v>
       </c>
       <c r="G125" t="s">
         <v>10</v>
@@ -3692,10 +3692,10 @@
         <v>1847</v>
       </c>
       <c r="E126">
-        <v>194448</v>
+        <v>624050</v>
       </c>
       <c r="F126">
-        <v>29462</v>
+        <v>59960</v>
       </c>
       <c r="G126" t="s">
         <v>10</v>
@@ -3712,10 +3712,10 @@
         <v>1850</v>
       </c>
       <c r="E127">
-        <v>211949</v>
+        <v>654641</v>
       </c>
       <c r="F127">
-        <v>32113</v>
+        <v>62899</v>
       </c>
       <c r="G127" t="s">
         <v>10</v>
@@ -3732,10 +3732,10 @@
         <v>1853</v>
       </c>
       <c r="E128">
-        <v>233143</v>
+        <v>699567</v>
       </c>
       <c r="F128">
-        <v>35325</v>
+        <v>67216</v>
       </c>
       <c r="G128" t="s">
         <v>10</v>
@@ -3752,10 +3752,10 @@
         <v>1856</v>
       </c>
       <c r="E129">
-        <v>258789</v>
+        <v>706426</v>
       </c>
       <c r="F129">
-        <v>39210</v>
+        <v>67875</v>
       </c>
       <c r="G129" t="s">
         <v>10</v>
@@ -3772,10 +3772,10 @@
         <v>1859</v>
       </c>
       <c r="E130">
-        <v>289844</v>
+        <v>720277</v>
       </c>
       <c r="F130">
-        <v>43916</v>
+        <v>69206</v>
       </c>
       <c r="G130" t="s">
         <v>10</v>
@@ -3792,10 +3792,10 @@
         <v>1862</v>
       </c>
       <c r="E131">
-        <v>327524</v>
+        <v>741462</v>
       </c>
       <c r="F131">
-        <v>49625</v>
+        <v>71241</v>
       </c>
       <c r="G131" t="s">
         <v>10</v>
@@ -3812,10 +3812,10 @@
         <v>1865</v>
       </c>
       <c r="E132">
-        <v>227629</v>
+        <v>700682</v>
       </c>
       <c r="F132">
-        <v>34489</v>
+        <v>67323</v>
       </c>
       <c r="G132" t="s">
         <v>10</v>
@@ -3832,10 +3832,10 @@
         <v>1868</v>
       </c>
       <c r="E133">
-        <v>239010</v>
+        <v>721290</v>
       </c>
       <c r="F133">
-        <v>36214</v>
+        <v>69303</v>
       </c>
       <c r="G133" t="s">
         <v>10</v>
@@ -3852,10 +3852,10 @@
         <v>1871</v>
       </c>
       <c r="E134">
-        <v>253351</v>
+        <v>756647</v>
       </c>
       <c r="F134">
-        <v>38387</v>
+        <v>72700</v>
       </c>
       <c r="G134" t="s">
         <v>10</v>
@@ -3872,10 +3872,10 @@
         <v>1874</v>
       </c>
       <c r="E135">
-        <v>271086</v>
+        <v>771484</v>
       </c>
       <c r="F135">
-        <v>41074</v>
+        <v>74126</v>
       </c>
       <c r="G135" t="s">
         <v>10</v>
@@ -3892,10 +3892,10 @@
         <v>1877</v>
       </c>
       <c r="E136">
-        <v>292772</v>
+        <v>794174</v>
       </c>
       <c r="F136">
-        <v>44359</v>
+        <v>76306</v>
       </c>
       <c r="G136" t="s">
         <v>10</v>
@@ -3912,10 +3912,10 @@
         <v>1880</v>
       </c>
       <c r="E137">
-        <v>319122</v>
+        <v>833104</v>
       </c>
       <c r="F137">
-        <v>48352</v>
+        <v>80046</v>
       </c>
       <c r="G137" t="s">
         <v>10</v>
@@ -3932,10 +3932,10 @@
         <v>1883</v>
       </c>
       <c r="E138">
-        <v>351034</v>
+        <v>890278</v>
       </c>
       <c r="F138">
-        <v>53187</v>
+        <v>85540</v>
       </c>
       <c r="G138" t="s">
         <v>10</v>
@@ -3952,10 +3952,10 @@
         <v>1886</v>
       </c>
       <c r="E139">
-        <v>389648</v>
+        <v>899006</v>
       </c>
       <c r="F139">
-        <v>59038</v>
+        <v>86378</v>
       </c>
       <c r="G139" t="s">
         <v>10</v>
@@ -3972,10 +3972,10 @@
         <v>1889</v>
       </c>
       <c r="E140">
-        <v>436406</v>
+        <v>916634</v>
       </c>
       <c r="F140">
-        <v>66122</v>
+        <v>88072</v>
       </c>
       <c r="G140" t="s">
         <v>10</v>
@@ -3992,10 +3992,10 @@
         <v>1892</v>
       </c>
       <c r="E141">
-        <v>493138</v>
+        <v>943594</v>
       </c>
       <c r="F141">
-        <v>74718</v>
+        <v>90662</v>
       </c>
       <c r="G141" t="s">
         <v>10</v>
@@ -4012,10 +4012,10 @@
         <v>1895</v>
       </c>
       <c r="E142">
-        <v>342731</v>
+        <v>891696</v>
       </c>
       <c r="F142">
-        <v>51929</v>
+        <v>85676</v>
       </c>
       <c r="G142" t="s">
         <v>10</v>
@@ -4032,10 +4032,10 @@
         <v>1898</v>
       </c>
       <c r="E143">
-        <v>359868</v>
+        <v>917922</v>
       </c>
       <c r="F143">
-        <v>54525</v>
+        <v>88196</v>
       </c>
       <c r="G143" t="s">
         <v>10</v>
@@ -4052,10 +4052,10 @@
         <v>1901</v>
       </c>
       <c r="E144">
-        <v>381460</v>
+        <v>962919</v>
       </c>
       <c r="F144">
-        <v>57797</v>
+        <v>92519</v>
       </c>
       <c r="G144" t="s">
         <v>10</v>
@@ -4072,10 +4072,10 @@
         <v>1904</v>
       </c>
       <c r="E145">
-        <v>408162</v>
+        <v>981799</v>
       </c>
       <c r="F145">
-        <v>61843</v>
+        <v>94333</v>
       </c>
       <c r="G145" t="s">
         <v>10</v>
@@ -4092,10 +4092,10 @@
         <v>1907</v>
       </c>
       <c r="E146">
-        <v>440815</v>
+        <v>1010676</v>
       </c>
       <c r="F146">
-        <v>66790</v>
+        <v>97108</v>
       </c>
       <c r="G146" t="s">
         <v>10</v>
@@ -4112,10 +4112,10 @@
         <v>1910</v>
       </c>
       <c r="E147">
-        <v>480488</v>
+        <v>1060219</v>
       </c>
       <c r="F147">
-        <v>72801</v>
+        <v>101868</v>
       </c>
       <c r="G147" t="s">
         <v>10</v>
@@ -4132,10 +4132,10 @@
         <v>1913</v>
       </c>
       <c r="E148">
-        <v>528537</v>
+        <v>1132979</v>
       </c>
       <c r="F148">
-        <v>80081</v>
+        <v>108859</v>
       </c>
       <c r="G148" t="s">
         <v>10</v>
@@ -4152,10 +4152,10 @@
         <v>1916</v>
       </c>
       <c r="E149">
-        <v>586676</v>
+        <v>1144087</v>
       </c>
       <c r="F149">
-        <v>88890</v>
+        <v>109926</v>
       </c>
       <c r="G149" t="s">
         <v>10</v>
@@ -4172,10 +4172,10 @@
         <v>1919</v>
       </c>
       <c r="E150">
-        <v>657077</v>
+        <v>1166520</v>
       </c>
       <c r="F150">
-        <v>99557</v>
+        <v>112081</v>
       </c>
       <c r="G150" t="s">
         <v>10</v>
@@ -4192,10 +4192,10 @@
         <v>1922</v>
       </c>
       <c r="E151">
-        <v>742497</v>
+        <v>1200829</v>
       </c>
       <c r="F151">
-        <v>112500</v>
+        <v>115378</v>
       </c>
       <c r="G151" t="s">
         <v>10</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44C5ED2-9AF3-4E77-862D-D1DCA01C94E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0D6A5-9166-4DA6-AE10-03D38A6E4ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -32,625 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Hoohoo</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AE583672-CF20-4AF7-B06B-56F7C9DFD0E1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>내부</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>진행</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단계</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-FindSoul = 1, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">마나찾기
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">FindPortal = 2, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>포탈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">찾기
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Percent = 3, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>포탈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>활성화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">대기
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Success = 4, </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>성공</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1380CE18-238B-465D-BDA2-879C0EFB2688}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>몬스터는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>각</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스텝</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>앞에서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이만큼</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>기다렸다가</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>나온다</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{EBE4E7B9-0FA8-4230-940F-A7BDE4BDF5B6}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>막판</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스퍼트
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>단계의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 50% </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>달성</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F415C540-9977-4D49-AFB8-1CD729E8FABB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>토탈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맥스를</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용하면</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>개별</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맥스</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>카운트는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용하지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않는다</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{E13A4850-4EC0-45CB-8417-2D4BAD6D52A6}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>토탈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>맥스는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>하드코딩으로</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>한다</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="33">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -719,66 +102,43 @@
   </si>
   <si>
     <t>monsterId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixedLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oneLevel|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>minStep|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstWaiting|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>spawnChance|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>spawnPeriod|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lastSpawnPeriod|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>maxCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lastMaxCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>totalMax|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VariationCrocodile_Gray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VariationScarab_Yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PolygonalMagma_Blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,19 +160,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1475,7 +822,7 @@
         <v>6914</v>
       </c>
       <c r="F15">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -1495,7 +842,7 @@
         <v>7553</v>
       </c>
       <c r="F16">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1515,7 +862,7 @@
         <v>8409</v>
       </c>
       <c r="F17">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1532,10 +879,10 @@
         <v>1523</v>
       </c>
       <c r="E18">
-        <v>9536</v>
+        <v>9349</v>
       </c>
       <c r="F18">
-        <v>708</v>
+        <v>642</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1552,10 +899,10 @@
         <v>1526</v>
       </c>
       <c r="E19">
-        <v>10219</v>
+        <v>9822</v>
       </c>
       <c r="F19">
-        <v>774</v>
+        <v>674</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1572,10 +919,10 @@
         <v>1529</v>
       </c>
       <c r="E20">
-        <v>11057</v>
+        <v>10419</v>
       </c>
       <c r="F20">
-        <v>854</v>
+        <v>715</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1592,10 +939,10 @@
         <v>1532</v>
       </c>
       <c r="E21">
-        <v>12079</v>
+        <v>11159</v>
       </c>
       <c r="F21">
-        <v>933</v>
+        <v>766</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1612,10 +959,10 @@
         <v>1535</v>
       </c>
       <c r="E22">
-        <v>11875</v>
+        <v>10756</v>
       </c>
       <c r="F22">
-        <v>918</v>
+        <v>738</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1632,10 +979,10 @@
         <v>1538</v>
       </c>
       <c r="E23">
-        <v>12719</v>
+        <v>11520</v>
       </c>
       <c r="F23">
-        <v>1002</v>
+        <v>806</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1652,10 +999,10 @@
         <v>1541</v>
       </c>
       <c r="E24">
-        <v>13881</v>
+        <v>12573</v>
       </c>
       <c r="F24">
-        <v>1116</v>
+        <v>898</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1672,10 +1019,10 @@
         <v>1544</v>
       </c>
       <c r="E25">
-        <v>14725</v>
+        <v>13337</v>
       </c>
       <c r="F25">
-        <v>1208</v>
+        <v>971</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1692,10 +1039,10 @@
         <v>1547</v>
       </c>
       <c r="E26">
-        <v>15771</v>
+        <v>14284</v>
       </c>
       <c r="F26">
-        <v>1319</v>
+        <v>1061</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1712,10 +1059,10 @@
         <v>1550</v>
       </c>
       <c r="E27">
-        <v>17212</v>
+        <v>15589</v>
       </c>
       <c r="F27">
-        <v>1468</v>
+        <v>1181</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1732,10 +1079,10 @@
         <v>1553</v>
       </c>
       <c r="E28">
-        <v>19136</v>
+        <v>17332</v>
       </c>
       <c r="F28">
-        <v>1665</v>
+        <v>1339</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1752,10 +1099,10 @@
         <v>1556</v>
       </c>
       <c r="E29">
-        <v>20105</v>
+        <v>18209</v>
       </c>
       <c r="F29">
-        <v>1785</v>
+        <v>1435</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1772,10 +1119,10 @@
         <v>1559</v>
       </c>
       <c r="E30">
-        <v>21327</v>
+        <v>19316</v>
       </c>
       <c r="F30">
-        <v>1931</v>
+        <v>1553</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1792,10 +1139,10 @@
         <v>1562</v>
       </c>
       <c r="E31">
-        <v>22841</v>
+        <v>20688</v>
       </c>
       <c r="F31">
-        <v>2109</v>
+        <v>1697</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1812,10 +1159,10 @@
         <v>1565</v>
       </c>
       <c r="E32">
-        <v>22017</v>
+        <v>19941</v>
       </c>
       <c r="F32">
-        <v>2033</v>
+        <v>1635</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1832,10 +1179,10 @@
         <v>1568</v>
       </c>
       <c r="E33">
-        <v>23580</v>
+        <v>21357</v>
       </c>
       <c r="F33">
-        <v>2178</v>
+        <v>1751</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1852,10 +1199,10 @@
         <v>1571</v>
       </c>
       <c r="E34">
-        <v>25230</v>
+        <v>23309</v>
       </c>
       <c r="F34">
-        <v>2377</v>
+        <v>1911</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1872,10 +1219,10 @@
         <v>1574</v>
       </c>
       <c r="E35">
-        <v>26240</v>
+        <v>24726</v>
       </c>
       <c r="F35">
-        <v>2521</v>
+        <v>2028</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1892,10 +1239,10 @@
         <v>1577</v>
       </c>
       <c r="E36">
-        <v>27552</v>
+        <v>26482</v>
       </c>
       <c r="F36">
-        <v>2647</v>
+        <v>2172</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1912,10 +1259,10 @@
         <v>1580</v>
       </c>
       <c r="E37">
-        <v>29480</v>
+        <v>28902</v>
       </c>
       <c r="F37">
-        <v>2833</v>
+        <v>2370</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1935,7 +1282,7 @@
         <v>32133</v>
       </c>
       <c r="F38">
-        <v>3087</v>
+        <v>2635</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1955,7 +1302,7 @@
         <v>33097</v>
       </c>
       <c r="F39">
-        <v>3180</v>
+        <v>2768</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1975,7 +1322,7 @@
         <v>34421</v>
       </c>
       <c r="F40">
-        <v>3307</v>
+        <v>2937</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1995,7 +1342,7 @@
         <v>36142</v>
       </c>
       <c r="F41">
-        <v>3473</v>
+        <v>3145</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -2015,7 +1362,7 @@
         <v>34155</v>
       </c>
       <c r="F42">
-        <v>3282</v>
+        <v>3032</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -2035,7 +1382,7 @@
         <v>35862</v>
       </c>
       <c r="F43">
-        <v>3446</v>
+        <v>3247</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -2055,7 +1402,7 @@
         <v>38373</v>
       </c>
       <c r="F44">
-        <v>3687</v>
+        <v>3544</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -2075,7 +1422,7 @@
         <v>39908</v>
       </c>
       <c r="F45">
-        <v>3834</v>
+        <v>3759</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -4208,8 +3555,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:K38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4225,39 +3572,39 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4283,7 +3630,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4309,7 +3656,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -4367,7 +3714,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -4393,7 +3740,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -4451,7 +3798,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -4477,7 +3824,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -4503,7 +3850,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -4529,7 +3876,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -4587,7 +3934,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -4613,7 +3960,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -4671,7 +4018,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -4697,7 +4044,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -4787,7 +4134,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4813,7 +4160,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4871,7 +4218,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4903,7 +4250,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -4929,7 +4276,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -4987,7 +4334,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -5019,7 +4366,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -5045,7 +4392,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5092,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -5124,10 +4471,10 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -5135,7 +4482,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -5167,10 +4514,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -5193,10 +4540,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -5222,7 +4569,7 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -5237,7 +4584,6 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36" si="0">G36/4</f>
         <v>0.5</v>
       </c>
       <c r="I36">
@@ -5255,7 +4601,7 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -5270,14 +4616,13 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <f>G37/1</f>
         <v>2</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -5285,16 +4630,16 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -5303,7 +4648,6 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <f>G38/1</f>
         <v>1</v>
       </c>
       <c r="I38">
@@ -5313,13 +4657,308 @@
         <v>2</v>
       </c>
       <c r="K38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0.5</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0.4</v>
+      </c>
+      <c r="H39">
+        <v>0.1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0.7</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="I41">
+        <v>8</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0.4</v>
+      </c>
+      <c r="H44">
+        <v>0.1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0.7</v>
+      </c>
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0D6A5-9166-4DA6-AE10-03D38A6E4ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3BB54-8D0E-4789-AF29-57193C826766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="33">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -505,11 +505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1545,2006 +1543,6 @@
         <v>5281</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="C52">
-        <v>7170</v>
-      </c>
-      <c r="D52">
-        <v>1625</v>
-      </c>
-      <c r="E52">
-        <v>51945</v>
-      </c>
-      <c r="F52">
-        <v>4991</v>
-      </c>
-      <c r="G52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="C53">
-        <v>7181</v>
-      </c>
-      <c r="D53">
-        <v>1628</v>
-      </c>
-      <c r="E53">
-        <v>54543</v>
-      </c>
-      <c r="F53">
-        <v>5241</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="C54">
-        <v>7192</v>
-      </c>
-      <c r="D54">
-        <v>1631</v>
-      </c>
-      <c r="E54">
-        <v>58361</v>
-      </c>
-      <c r="F54">
-        <v>5607</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="C55">
-        <v>7203</v>
-      </c>
-      <c r="D55">
-        <v>1634</v>
-      </c>
-      <c r="E55">
-        <v>60695</v>
-      </c>
-      <c r="F55">
-        <v>5832</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="D56">
-        <v>1637</v>
-      </c>
-      <c r="E56">
-        <v>63730</v>
-      </c>
-      <c r="F56">
-        <v>6123</v>
-      </c>
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>7214</v>
-      </c>
-      <c r="D57">
-        <v>1640</v>
-      </c>
-      <c r="E57">
-        <v>68191</v>
-      </c>
-      <c r="F57">
-        <v>6552</v>
-      </c>
-      <c r="G57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="C58">
-        <v>7225</v>
-      </c>
-      <c r="D58">
-        <v>1643</v>
-      </c>
-      <c r="E58">
-        <v>74328</v>
-      </c>
-      <c r="F58">
-        <v>7142</v>
-      </c>
-      <c r="G58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="C59">
-        <v>7236</v>
-      </c>
-      <c r="D59">
-        <v>1646</v>
-      </c>
-      <c r="E59">
-        <v>76558</v>
-      </c>
-      <c r="F59">
-        <v>7356</v>
-      </c>
-      <c r="G59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>7247</v>
-      </c>
-      <c r="D60">
-        <v>1649</v>
-      </c>
-      <c r="E60">
-        <v>79620</v>
-      </c>
-      <c r="F60">
-        <v>7650</v>
-      </c>
-      <c r="G60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>15</v>
-      </c>
-      <c r="D61">
-        <v>1652</v>
-      </c>
-      <c r="E61">
-        <v>83601</v>
-      </c>
-      <c r="F61">
-        <v>8033</v>
-      </c>
-      <c r="G61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="C62">
-        <v>8297</v>
-      </c>
-      <c r="D62">
-        <v>1655</v>
-      </c>
-      <c r="E62">
-        <v>79003</v>
-      </c>
-      <c r="F62">
-        <v>7591</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="C63">
-        <v>8308</v>
-      </c>
-      <c r="D63">
-        <v>1658</v>
-      </c>
-      <c r="E63">
-        <v>82953</v>
-      </c>
-      <c r="F63">
-        <v>7970</v>
-      </c>
-      <c r="G63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="C64">
-        <v>8319</v>
-      </c>
-      <c r="D64">
-        <v>1661</v>
-      </c>
-      <c r="E64">
-        <v>88760</v>
-      </c>
-      <c r="F64">
-        <v>8528</v>
-      </c>
-      <c r="G64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="C65">
-        <v>8330</v>
-      </c>
-      <c r="D65">
-        <v>1664</v>
-      </c>
-      <c r="E65">
-        <v>92310</v>
-      </c>
-      <c r="F65">
-        <v>8869</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>7</v>
-      </c>
-      <c r="D66">
-        <v>1667</v>
-      </c>
-      <c r="E66">
-        <v>96926</v>
-      </c>
-      <c r="F66">
-        <v>9313</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="C67">
-        <v>8341</v>
-      </c>
-      <c r="D67">
-        <v>1670</v>
-      </c>
-      <c r="E67">
-        <v>103711</v>
-      </c>
-      <c r="F67">
-        <v>9965</v>
-      </c>
-      <c r="G67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="C68">
-        <v>8352</v>
-      </c>
-      <c r="D68">
-        <v>1673</v>
-      </c>
-      <c r="E68">
-        <v>113045</v>
-      </c>
-      <c r="F68">
-        <v>10862</v>
-      </c>
-      <c r="G68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <v>8363</v>
-      </c>
-      <c r="D69">
-        <v>1676</v>
-      </c>
-      <c r="E69">
-        <v>116436</v>
-      </c>
-      <c r="F69">
-        <v>11187</v>
-      </c>
-      <c r="G69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <v>8374</v>
-      </c>
-      <c r="D70">
-        <v>1679</v>
-      </c>
-      <c r="E70">
-        <v>121093</v>
-      </c>
-      <c r="F70">
-        <v>11635</v>
-      </c>
-      <c r="G70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>15</v>
-      </c>
-      <c r="D71">
-        <v>1682</v>
-      </c>
-      <c r="E71">
-        <v>127148</v>
-      </c>
-      <c r="F71">
-        <v>12217</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <v>9424</v>
-      </c>
-      <c r="D72">
-        <v>1685</v>
-      </c>
-      <c r="E72">
-        <v>120155</v>
-      </c>
-      <c r="F72">
-        <v>11545</v>
-      </c>
-      <c r="G72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <v>9435</v>
-      </c>
-      <c r="D73">
-        <v>1688</v>
-      </c>
-      <c r="E73">
-        <v>126163</v>
-      </c>
-      <c r="F73">
-        <v>12122</v>
-      </c>
-      <c r="G73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <v>9446</v>
-      </c>
-      <c r="D74">
-        <v>1691</v>
-      </c>
-      <c r="E74">
-        <v>134994</v>
-      </c>
-      <c r="F74">
-        <v>12970</v>
-      </c>
-      <c r="G74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <v>9457</v>
-      </c>
-      <c r="D75">
-        <v>1694</v>
-      </c>
-      <c r="E75">
-        <v>140394</v>
-      </c>
-      <c r="F75">
-        <v>13489</v>
-      </c>
-      <c r="G75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>7</v>
-      </c>
-      <c r="D76">
-        <v>1697</v>
-      </c>
-      <c r="E76">
-        <v>147413</v>
-      </c>
-      <c r="F76">
-        <v>14164</v>
-      </c>
-      <c r="G76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <v>9468</v>
-      </c>
-      <c r="D77">
-        <v>1700</v>
-      </c>
-      <c r="E77">
-        <v>157732</v>
-      </c>
-      <c r="F77">
-        <v>15155</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <v>9479</v>
-      </c>
-      <c r="D78">
-        <v>1703</v>
-      </c>
-      <c r="E78">
-        <v>171928</v>
-      </c>
-      <c r="F78">
-        <v>16519</v>
-      </c>
-      <c r="G78" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <v>9490</v>
-      </c>
-      <c r="D79">
-        <v>1706</v>
-      </c>
-      <c r="E79">
-        <v>177086</v>
-      </c>
-      <c r="F79">
-        <v>17015</v>
-      </c>
-      <c r="G79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <v>9501</v>
-      </c>
-      <c r="D80">
-        <v>1709</v>
-      </c>
-      <c r="E80">
-        <v>184170</v>
-      </c>
-      <c r="F80">
-        <v>17695</v>
-      </c>
-      <c r="G80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>15</v>
-      </c>
-      <c r="D81">
-        <v>1712</v>
-      </c>
-      <c r="E81">
-        <v>193378</v>
-      </c>
-      <c r="F81">
-        <v>18580</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <v>10551</v>
-      </c>
-      <c r="D82">
-        <v>1715</v>
-      </c>
-      <c r="E82">
-        <v>182742</v>
-      </c>
-      <c r="F82">
-        <v>17558</v>
-      </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="C83">
-        <v>10562</v>
-      </c>
-      <c r="D83">
-        <v>1718</v>
-      </c>
-      <c r="E83">
-        <v>191879</v>
-      </c>
-      <c r="F83">
-        <v>18436</v>
-      </c>
-      <c r="G83" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <v>10573</v>
-      </c>
-      <c r="D84">
-        <v>1721</v>
-      </c>
-      <c r="E84">
-        <v>205311</v>
-      </c>
-      <c r="F84">
-        <v>19727</v>
-      </c>
-      <c r="G84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <v>10584</v>
-      </c>
-      <c r="D85">
-        <v>1724</v>
-      </c>
-      <c r="E85">
-        <v>213523</v>
-      </c>
-      <c r="F85">
-        <v>20516</v>
-      </c>
-      <c r="G85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>7</v>
-      </c>
-      <c r="D86">
-        <v>1727</v>
-      </c>
-      <c r="E86">
-        <v>224200</v>
-      </c>
-      <c r="F86">
-        <v>21542</v>
-      </c>
-      <c r="G86" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="C87">
-        <v>10595</v>
-      </c>
-      <c r="D87">
-        <v>1730</v>
-      </c>
-      <c r="E87">
-        <v>239893</v>
-      </c>
-      <c r="F87">
-        <v>23049</v>
-      </c>
-      <c r="G87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="C88">
-        <v>10606</v>
-      </c>
-      <c r="D88">
-        <v>1733</v>
-      </c>
-      <c r="E88">
-        <v>261484</v>
-      </c>
-      <c r="F88">
-        <v>25124</v>
-      </c>
-      <c r="G88" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <v>10617</v>
-      </c>
-      <c r="D89">
-        <v>1736</v>
-      </c>
-      <c r="E89">
-        <v>269328</v>
-      </c>
-      <c r="F89">
-        <v>25878</v>
-      </c>
-      <c r="G89" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="C90">
-        <v>10628</v>
-      </c>
-      <c r="D90">
-        <v>1739</v>
-      </c>
-      <c r="E90">
-        <v>274609</v>
-      </c>
-      <c r="F90">
-        <v>26385</v>
-      </c>
-      <c r="G90" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>15</v>
-      </c>
-      <c r="D91">
-        <v>1742</v>
-      </c>
-      <c r="E91">
-        <v>288340</v>
-      </c>
-      <c r="F91">
-        <v>27704</v>
-      </c>
-      <c r="G91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="C92">
-        <v>11678</v>
-      </c>
-      <c r="D92">
-        <v>1745</v>
-      </c>
-      <c r="E92">
-        <v>267138</v>
-      </c>
-      <c r="F92">
-        <v>25667</v>
-      </c>
-      <c r="G92" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="C93">
-        <v>11689</v>
-      </c>
-      <c r="D93">
-        <v>1748</v>
-      </c>
-      <c r="E93">
-        <v>274995</v>
-      </c>
-      <c r="F93">
-        <v>26422</v>
-      </c>
-      <c r="G93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="C94">
-        <v>11700</v>
-      </c>
-      <c r="D94">
-        <v>1751</v>
-      </c>
-      <c r="E94">
-        <v>288476</v>
-      </c>
-      <c r="F94">
-        <v>27717</v>
-      </c>
-      <c r="G94" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="C95">
-        <v>11711</v>
-      </c>
-      <c r="D95">
-        <v>1754</v>
-      </c>
-      <c r="E95">
-        <v>294132</v>
-      </c>
-      <c r="F95">
-        <v>28261</v>
-      </c>
-      <c r="G95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>7</v>
-      </c>
-      <c r="D96">
-        <v>1757</v>
-      </c>
-      <c r="E96">
-        <v>302783</v>
-      </c>
-      <c r="F96">
-        <v>29092</v>
-      </c>
-      <c r="G96" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="C97">
-        <v>11722</v>
-      </c>
-      <c r="D97">
-        <v>1760</v>
-      </c>
-      <c r="E97">
-        <v>317625</v>
-      </c>
-      <c r="F97">
-        <v>30518</v>
-      </c>
-      <c r="G97" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="C98">
-        <v>11733</v>
-      </c>
-      <c r="D98">
-        <v>1763</v>
-      </c>
-      <c r="E98">
-        <v>339423</v>
-      </c>
-      <c r="F98">
-        <v>32612</v>
-      </c>
-      <c r="G98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="C99">
-        <v>11744</v>
-      </c>
-      <c r="D99">
-        <v>1766</v>
-      </c>
-      <c r="E99">
-        <v>342751</v>
-      </c>
-      <c r="F99">
-        <v>32932</v>
-      </c>
-      <c r="G99" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="C100">
-        <v>11755</v>
-      </c>
-      <c r="D100">
-        <v>1769</v>
-      </c>
-      <c r="E100">
-        <v>349471</v>
-      </c>
-      <c r="F100">
-        <v>33578</v>
-      </c>
-      <c r="G100" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>20</v>
-      </c>
-      <c r="D101">
-        <v>1772</v>
-      </c>
-      <c r="E101">
-        <v>359750</v>
-      </c>
-      <c r="F101">
-        <v>34565</v>
-      </c>
-      <c r="G101" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="C102">
-        <v>12805</v>
-      </c>
-      <c r="D102">
-        <v>1775</v>
-      </c>
-      <c r="E102">
-        <v>339964</v>
-      </c>
-      <c r="F102">
-        <v>32664</v>
-      </c>
-      <c r="G102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="C103">
-        <v>12816</v>
-      </c>
-      <c r="D103">
-        <v>1778</v>
-      </c>
-      <c r="E103">
-        <v>349963</v>
-      </c>
-      <c r="F103">
-        <v>33625</v>
-      </c>
-      <c r="G103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="C104">
-        <v>12827</v>
-      </c>
-      <c r="D104">
-        <v>1781</v>
-      </c>
-      <c r="E104">
-        <v>367118</v>
-      </c>
-      <c r="F104">
-        <v>35273</v>
-      </c>
-      <c r="G104" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="C105">
-        <v>12838</v>
-      </c>
-      <c r="D105">
-        <v>1784</v>
-      </c>
-      <c r="E105">
-        <v>374316</v>
-      </c>
-      <c r="F105">
-        <v>35965</v>
-      </c>
-      <c r="G105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>10</v>
-      </c>
-      <c r="D106">
-        <v>1787</v>
-      </c>
-      <c r="E106">
-        <v>385325</v>
-      </c>
-      <c r="F106">
-        <v>37023</v>
-      </c>
-      <c r="G106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="C107">
-        <v>12849</v>
-      </c>
-      <c r="D107">
-        <v>1790</v>
-      </c>
-      <c r="E107">
-        <v>404214</v>
-      </c>
-      <c r="F107">
-        <v>38838</v>
-      </c>
-      <c r="G107" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="C108">
-        <v>12860</v>
-      </c>
-      <c r="D108">
-        <v>1793</v>
-      </c>
-      <c r="E108">
-        <v>431954</v>
-      </c>
-      <c r="F108">
-        <v>41503</v>
-      </c>
-      <c r="G108" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="C109">
-        <v>12871</v>
-      </c>
-      <c r="D109">
-        <v>1796</v>
-      </c>
-      <c r="E109">
-        <v>436189</v>
-      </c>
-      <c r="F109">
-        <v>41910</v>
-      </c>
-      <c r="G109" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="C110">
-        <v>12882</v>
-      </c>
-      <c r="D110">
-        <v>1799</v>
-      </c>
-      <c r="E110">
-        <v>444741</v>
-      </c>
-      <c r="F110">
-        <v>42732</v>
-      </c>
-      <c r="G110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>20</v>
-      </c>
-      <c r="D111">
-        <v>1802</v>
-      </c>
-      <c r="E111">
-        <v>457822</v>
-      </c>
-      <c r="F111">
-        <v>43988</v>
-      </c>
-      <c r="G111" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="C112">
-        <v>13932</v>
-      </c>
-      <c r="D112">
-        <v>1805</v>
-      </c>
-      <c r="E112">
-        <v>432642</v>
-      </c>
-      <c r="F112">
-        <v>41569</v>
-      </c>
-      <c r="G112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="C113">
-        <v>13943</v>
-      </c>
-      <c r="D113">
-        <v>1808</v>
-      </c>
-      <c r="E113">
-        <v>445367</v>
-      </c>
-      <c r="F113">
-        <v>42792</v>
-      </c>
-      <c r="G113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="C114">
-        <v>13954</v>
-      </c>
-      <c r="D114">
-        <v>1811</v>
-      </c>
-      <c r="E114">
-        <v>467198</v>
-      </c>
-      <c r="F114">
-        <v>44889</v>
-      </c>
-      <c r="G114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="C115">
-        <v>13965</v>
-      </c>
-      <c r="D115">
-        <v>1814</v>
-      </c>
-      <c r="E115">
-        <v>476359</v>
-      </c>
-      <c r="F115">
-        <v>45769</v>
-      </c>
-      <c r="G115" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>10</v>
-      </c>
-      <c r="D116">
-        <v>1817</v>
-      </c>
-      <c r="E116">
-        <v>490370</v>
-      </c>
-      <c r="F116">
-        <v>47116</v>
-      </c>
-      <c r="G116" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="C117">
-        <v>13976</v>
-      </c>
-      <c r="D117">
-        <v>1820</v>
-      </c>
-      <c r="E117">
-        <v>514407</v>
-      </c>
-      <c r="F117">
-        <v>49425</v>
-      </c>
-      <c r="G117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="C118">
-        <v>13987</v>
-      </c>
-      <c r="D118">
-        <v>1823</v>
-      </c>
-      <c r="E118">
-        <v>549710</v>
-      </c>
-      <c r="F118">
-        <v>52817</v>
-      </c>
-      <c r="G118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="C119">
-        <v>13998</v>
-      </c>
-      <c r="D119">
-        <v>1826</v>
-      </c>
-      <c r="E119">
-        <v>555099</v>
-      </c>
-      <c r="F119">
-        <v>53335</v>
-      </c>
-      <c r="G119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="C120">
-        <v>14009</v>
-      </c>
-      <c r="D120">
-        <v>1829</v>
-      </c>
-      <c r="E120">
-        <v>565983</v>
-      </c>
-      <c r="F120">
-        <v>54381</v>
-      </c>
-      <c r="G120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>20</v>
-      </c>
-      <c r="D121">
-        <v>1832</v>
-      </c>
-      <c r="E121">
-        <v>582630</v>
-      </c>
-      <c r="F121">
-        <v>55980</v>
-      </c>
-      <c r="G121" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="C122">
-        <v>15059</v>
-      </c>
-      <c r="D122">
-        <v>1835</v>
-      </c>
-      <c r="E122">
-        <v>550585</v>
-      </c>
-      <c r="F122">
-        <v>52901</v>
-      </c>
-      <c r="G122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="C123">
-        <v>15070</v>
-      </c>
-      <c r="D123">
-        <v>1838</v>
-      </c>
-      <c r="E123">
-        <v>566779</v>
-      </c>
-      <c r="F123">
-        <v>54457</v>
-      </c>
-      <c r="G123" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="C124">
-        <v>15081</v>
-      </c>
-      <c r="D124">
-        <v>1841</v>
-      </c>
-      <c r="E124">
-        <v>594562</v>
-      </c>
-      <c r="F124">
-        <v>57127</v>
-      </c>
-      <c r="G124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="C125">
-        <v>15092</v>
-      </c>
-      <c r="D125">
-        <v>1844</v>
-      </c>
-      <c r="E125">
-        <v>606220</v>
-      </c>
-      <c r="F125">
-        <v>58247</v>
-      </c>
-      <c r="G125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>10</v>
-      </c>
-      <c r="D126">
-        <v>1847</v>
-      </c>
-      <c r="E126">
-        <v>624050</v>
-      </c>
-      <c r="F126">
-        <v>59960</v>
-      </c>
-      <c r="G126" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="C127">
-        <v>15103</v>
-      </c>
-      <c r="D127">
-        <v>1850</v>
-      </c>
-      <c r="E127">
-        <v>654641</v>
-      </c>
-      <c r="F127">
-        <v>62899</v>
-      </c>
-      <c r="G127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="C128">
-        <v>15114</v>
-      </c>
-      <c r="D128">
-        <v>1853</v>
-      </c>
-      <c r="E128">
-        <v>699567</v>
-      </c>
-      <c r="F128">
-        <v>67216</v>
-      </c>
-      <c r="G128" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="C129">
-        <v>15125</v>
-      </c>
-      <c r="D129">
-        <v>1856</v>
-      </c>
-      <c r="E129">
-        <v>706426</v>
-      </c>
-      <c r="F129">
-        <v>67875</v>
-      </c>
-      <c r="G129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="C130">
-        <v>15136</v>
-      </c>
-      <c r="D130">
-        <v>1859</v>
-      </c>
-      <c r="E130">
-        <v>720277</v>
-      </c>
-      <c r="F130">
-        <v>69206</v>
-      </c>
-      <c r="G130" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>20</v>
-      </c>
-      <c r="D131">
-        <v>1862</v>
-      </c>
-      <c r="E131">
-        <v>741462</v>
-      </c>
-      <c r="F131">
-        <v>71241</v>
-      </c>
-      <c r="G131" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="C132">
-        <v>16186</v>
-      </c>
-      <c r="D132">
-        <v>1865</v>
-      </c>
-      <c r="E132">
-        <v>700682</v>
-      </c>
-      <c r="F132">
-        <v>67323</v>
-      </c>
-      <c r="G132" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="C133">
-        <v>16197</v>
-      </c>
-      <c r="D133">
-        <v>1868</v>
-      </c>
-      <c r="E133">
-        <v>721290</v>
-      </c>
-      <c r="F133">
-        <v>69303</v>
-      </c>
-      <c r="G133" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="C134">
-        <v>16208</v>
-      </c>
-      <c r="D134">
-        <v>1871</v>
-      </c>
-      <c r="E134">
-        <v>756647</v>
-      </c>
-      <c r="F134">
-        <v>72700</v>
-      </c>
-      <c r="G134" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="C135">
-        <v>16219</v>
-      </c>
-      <c r="D135">
-        <v>1874</v>
-      </c>
-      <c r="E135">
-        <v>771484</v>
-      </c>
-      <c r="F135">
-        <v>74126</v>
-      </c>
-      <c r="G135" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>10</v>
-      </c>
-      <c r="D136">
-        <v>1877</v>
-      </c>
-      <c r="E136">
-        <v>794174</v>
-      </c>
-      <c r="F136">
-        <v>76306</v>
-      </c>
-      <c r="G136" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="C137">
-        <v>16230</v>
-      </c>
-      <c r="D137">
-        <v>1880</v>
-      </c>
-      <c r="E137">
-        <v>833104</v>
-      </c>
-      <c r="F137">
-        <v>80046</v>
-      </c>
-      <c r="G137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="C138">
-        <v>16241</v>
-      </c>
-      <c r="D138">
-        <v>1883</v>
-      </c>
-      <c r="E138">
-        <v>890278</v>
-      </c>
-      <c r="F138">
-        <v>85540</v>
-      </c>
-      <c r="G138" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="C139">
-        <v>16252</v>
-      </c>
-      <c r="D139">
-        <v>1886</v>
-      </c>
-      <c r="E139">
-        <v>899006</v>
-      </c>
-      <c r="F139">
-        <v>86378</v>
-      </c>
-      <c r="G139" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="C140">
-        <v>16263</v>
-      </c>
-      <c r="D140">
-        <v>1889</v>
-      </c>
-      <c r="E140">
-        <v>916634</v>
-      </c>
-      <c r="F140">
-        <v>88072</v>
-      </c>
-      <c r="G140" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>20</v>
-      </c>
-      <c r="D141">
-        <v>1892</v>
-      </c>
-      <c r="E141">
-        <v>943594</v>
-      </c>
-      <c r="F141">
-        <v>90662</v>
-      </c>
-      <c r="G141" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="C142">
-        <v>17313</v>
-      </c>
-      <c r="D142">
-        <v>1895</v>
-      </c>
-      <c r="E142">
-        <v>891696</v>
-      </c>
-      <c r="F142">
-        <v>85676</v>
-      </c>
-      <c r="G142" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="C143">
-        <v>17324</v>
-      </c>
-      <c r="D143">
-        <v>1898</v>
-      </c>
-      <c r="E143">
-        <v>917922</v>
-      </c>
-      <c r="F143">
-        <v>88196</v>
-      </c>
-      <c r="G143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="C144">
-        <v>17335</v>
-      </c>
-      <c r="D144">
-        <v>1901</v>
-      </c>
-      <c r="E144">
-        <v>962919</v>
-      </c>
-      <c r="F144">
-        <v>92519</v>
-      </c>
-      <c r="G144" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="C145">
-        <v>17346</v>
-      </c>
-      <c r="D145">
-        <v>1904</v>
-      </c>
-      <c r="E145">
-        <v>981799</v>
-      </c>
-      <c r="F145">
-        <v>94333</v>
-      </c>
-      <c r="G145" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146">
-        <v>10</v>
-      </c>
-      <c r="D146">
-        <v>1907</v>
-      </c>
-      <c r="E146">
-        <v>1010676</v>
-      </c>
-      <c r="F146">
-        <v>97108</v>
-      </c>
-      <c r="G146" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="C147">
-        <v>17357</v>
-      </c>
-      <c r="D147">
-        <v>1910</v>
-      </c>
-      <c r="E147">
-        <v>1060219</v>
-      </c>
-      <c r="F147">
-        <v>101868</v>
-      </c>
-      <c r="G147" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="C148">
-        <v>17368</v>
-      </c>
-      <c r="D148">
-        <v>1913</v>
-      </c>
-      <c r="E148">
-        <v>1132979</v>
-      </c>
-      <c r="F148">
-        <v>108859</v>
-      </c>
-      <c r="G148" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="C149">
-        <v>17379</v>
-      </c>
-      <c r="D149">
-        <v>1916</v>
-      </c>
-      <c r="E149">
-        <v>1144087</v>
-      </c>
-      <c r="F149">
-        <v>109926</v>
-      </c>
-      <c r="G149" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="C150">
-        <v>17390</v>
-      </c>
-      <c r="D150">
-        <v>1919</v>
-      </c>
-      <c r="E150">
-        <v>1166520</v>
-      </c>
-      <c r="F150">
-        <v>112081</v>
-      </c>
-      <c r="G150" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151">
-        <v>25</v>
-      </c>
-      <c r="D151">
-        <v>1922</v>
-      </c>
-      <c r="E151">
-        <v>1200829</v>
-      </c>
-      <c r="F151">
-        <v>115378</v>
-      </c>
-      <c r="G151" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3BB54-8D0E-4789-AF29-57193C826766}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD84FB4-1F07-45E2-ABFB-675F7C6AA4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -507,7 +507,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -717,7 +720,7 @@
         <v>1499</v>
       </c>
       <c r="E10">
-        <v>4702</v>
+        <v>4610</v>
       </c>
       <c r="F10">
         <v>323</v>
@@ -737,7 +740,7 @@
         <v>1502</v>
       </c>
       <c r="E11">
-        <v>5240</v>
+        <v>5036</v>
       </c>
       <c r="F11">
         <v>352</v>
@@ -757,10 +760,10 @@
         <v>1505</v>
       </c>
       <c r="E12">
-        <v>5255</v>
+        <v>5240</v>
       </c>
       <c r="F12">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -777,10 +780,10 @@
         <v>1508</v>
       </c>
       <c r="E13">
-        <v>5740</v>
+        <v>5724</v>
       </c>
       <c r="F13">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,10 +800,10 @@
         <v>1511</v>
       </c>
       <c r="E14">
-        <v>6390</v>
+        <v>6372</v>
       </c>
       <c r="F14">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -817,10 +820,10 @@
         <v>1514</v>
       </c>
       <c r="E15">
-        <v>6914</v>
+        <v>6895</v>
       </c>
       <c r="F15">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -837,10 +840,10 @@
         <v>1517</v>
       </c>
       <c r="E16">
-        <v>7553</v>
+        <v>7532</v>
       </c>
       <c r="F16">
-        <v>518</v>
+        <v>559</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -857,10 +860,10 @@
         <v>1520</v>
       </c>
       <c r="E17">
-        <v>8409</v>
+        <v>8385</v>
       </c>
       <c r="F17">
-        <v>577</v>
+        <v>623</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -877,10 +880,10 @@
         <v>1523</v>
       </c>
       <c r="E18">
-        <v>9349</v>
+        <v>9322</v>
       </c>
       <c r="F18">
-        <v>642</v>
+        <v>692</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -897,10 +900,10 @@
         <v>1526</v>
       </c>
       <c r="E19">
-        <v>9822</v>
+        <v>9794</v>
       </c>
       <c r="F19">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -917,10 +920,10 @@
         <v>1529</v>
       </c>
       <c r="E20">
-        <v>10419</v>
+        <v>10390</v>
       </c>
       <c r="F20">
-        <v>715</v>
+        <v>772</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -937,10 +940,10 @@
         <v>1532</v>
       </c>
       <c r="E21">
-        <v>11159</v>
+        <v>11127</v>
       </c>
       <c r="F21">
-        <v>766</v>
+        <v>810</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -957,10 +960,10 @@
         <v>1535</v>
       </c>
       <c r="E22">
-        <v>10756</v>
+        <v>11350</v>
       </c>
       <c r="F22">
-        <v>738</v>
+        <v>843</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -977,10 +980,10 @@
         <v>1538</v>
       </c>
       <c r="E23">
-        <v>11520</v>
+        <v>11917</v>
       </c>
       <c r="F23">
-        <v>806</v>
+        <v>903</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -997,10 +1000,10 @@
         <v>1541</v>
       </c>
       <c r="E24">
-        <v>12573</v>
+        <v>12751</v>
       </c>
       <c r="F24">
-        <v>898</v>
+        <v>985</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1017,10 +1020,10 @@
         <v>1544</v>
       </c>
       <c r="E25">
-        <v>13337</v>
+        <v>13261</v>
       </c>
       <c r="F25">
-        <v>971</v>
+        <v>1045</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1037,10 +1040,10 @@
         <v>1547</v>
       </c>
       <c r="E26">
-        <v>14284</v>
+        <v>14203</v>
       </c>
       <c r="F26">
-        <v>1061</v>
+        <v>1119</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1057,10 +1060,10 @@
         <v>1550</v>
       </c>
       <c r="E27">
-        <v>15589</v>
+        <v>15501</v>
       </c>
       <c r="F27">
-        <v>1181</v>
+        <v>1222</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1077,10 +1080,10 @@
         <v>1553</v>
       </c>
       <c r="E28">
-        <v>17332</v>
+        <v>17234</v>
       </c>
       <c r="F28">
-        <v>1339</v>
+        <v>1358</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1097,10 +1100,10 @@
         <v>1556</v>
       </c>
       <c r="E29">
-        <v>18209</v>
+        <v>18106</v>
       </c>
       <c r="F29">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1117,10 +1120,10 @@
         <v>1559</v>
       </c>
       <c r="E30">
-        <v>19316</v>
+        <v>19207</v>
       </c>
       <c r="F30">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1137,10 +1140,10 @@
         <v>1562</v>
       </c>
       <c r="E31">
-        <v>20688</v>
+        <v>20571</v>
       </c>
       <c r="F31">
-        <v>1697</v>
+        <v>1687</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1157,10 +1160,10 @@
         <v>1565</v>
       </c>
       <c r="E32">
-        <v>19941</v>
+        <v>21830</v>
       </c>
       <c r="F32">
-        <v>1635</v>
+        <v>1790</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1177,10 +1180,10 @@
         <v>1568</v>
       </c>
       <c r="E33">
-        <v>21357</v>
+        <v>24324</v>
       </c>
       <c r="F33">
-        <v>1751</v>
+        <v>1995</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1197,10 +1200,10 @@
         <v>1571</v>
       </c>
       <c r="E34">
-        <v>23309</v>
+        <v>27079</v>
       </c>
       <c r="F34">
-        <v>1911</v>
+        <v>2221</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1217,10 +1220,10 @@
         <v>1574</v>
       </c>
       <c r="E35">
-        <v>24726</v>
+        <v>28725</v>
       </c>
       <c r="F35">
-        <v>2028</v>
+        <v>2403</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1237,10 +1240,10 @@
         <v>1577</v>
       </c>
       <c r="E36">
-        <v>26482</v>
+        <v>30765</v>
       </c>
       <c r="F36">
-        <v>2172</v>
+        <v>2625</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1257,10 +1260,10 @@
         <v>1580</v>
       </c>
       <c r="E37">
-        <v>28902</v>
+        <v>34248</v>
       </c>
       <c r="F37">
-        <v>2370</v>
+        <v>2922</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1277,10 +1280,10 @@
         <v>1583</v>
       </c>
       <c r="E38">
-        <v>32133</v>
+        <v>39615</v>
       </c>
       <c r="F38">
-        <v>2635</v>
+        <v>3380</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1297,10 +1300,10 @@
         <v>1586</v>
       </c>
       <c r="E39">
-        <v>33097</v>
+        <v>42452</v>
       </c>
       <c r="F39">
-        <v>2768</v>
+        <v>3622</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1317,10 +1320,10 @@
         <v>1589</v>
       </c>
       <c r="E40">
-        <v>34421</v>
+        <v>45033</v>
       </c>
       <c r="F40">
-        <v>2937</v>
+        <v>3842</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1337,10 +1340,10 @@
         <v>1592</v>
       </c>
       <c r="E41">
-        <v>36142</v>
+        <v>48231</v>
       </c>
       <c r="F41">
-        <v>3145</v>
+        <v>4197</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1357,10 +1360,10 @@
         <v>1595</v>
       </c>
       <c r="E42">
-        <v>34155</v>
+        <v>51183</v>
       </c>
       <c r="F42">
-        <v>3032</v>
+        <v>4454</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1377,10 +1380,10 @@
         <v>1598</v>
       </c>
       <c r="E43">
-        <v>35862</v>
+        <v>57031</v>
       </c>
       <c r="F43">
-        <v>3247</v>
+        <v>4963</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1397,10 +1400,10 @@
         <v>1601</v>
       </c>
       <c r="E44">
-        <v>38373</v>
+        <v>63489</v>
       </c>
       <c r="F44">
-        <v>3544</v>
+        <v>5525</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1417,10 +1420,10 @@
         <v>1604</v>
       </c>
       <c r="E45">
-        <v>39908</v>
+        <v>67349</v>
       </c>
       <c r="F45">
-        <v>3759</v>
+        <v>5861</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1437,10 +1440,10 @@
         <v>1607</v>
       </c>
       <c r="E46">
-        <v>41903</v>
+        <v>72131</v>
       </c>
       <c r="F46">
-        <v>4026</v>
+        <v>6277</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1457,10 +1460,10 @@
         <v>1610</v>
       </c>
       <c r="E47">
-        <v>44836</v>
+        <v>80298</v>
       </c>
       <c r="F47">
-        <v>4308</v>
+        <v>6988</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1477,10 +1480,10 @@
         <v>1613</v>
       </c>
       <c r="E48">
-        <v>48871</v>
+        <v>92882</v>
       </c>
       <c r="F48">
-        <v>4696</v>
+        <v>8083</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1497,10 +1500,10 @@
         <v>1616</v>
       </c>
       <c r="E49">
-        <v>50337</v>
+        <v>99533</v>
       </c>
       <c r="F49">
-        <v>4837</v>
+        <v>8662</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1517,10 +1520,10 @@
         <v>1619</v>
       </c>
       <c r="E50">
-        <v>52351</v>
+        <v>105585</v>
       </c>
       <c r="F50">
-        <v>5030</v>
+        <v>9188</v>
       </c>
       <c r="G50" t="s">
         <v>10</v>
@@ -1537,10 +1540,10 @@
         <v>1622</v>
       </c>
       <c r="E51">
-        <v>54969</v>
+        <v>113081</v>
       </c>
       <c r="F51">
-        <v>5281</v>
+        <v>9841</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD84FB4-1F07-45E2-ABFB-675F7C6AA4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112B272-0724-4DF1-8D0B-AEF8F642C175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
@@ -600,10 +600,10 @@
         <v>1481</v>
       </c>
       <c r="E4">
-        <v>2462</v>
+        <v>2511</v>
       </c>
       <c r="F4">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -620,10 +620,10 @@
         <v>1484</v>
       </c>
       <c r="E5">
-        <v>2664</v>
+        <v>2827</v>
       </c>
       <c r="F5">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -640,10 +640,10 @@
         <v>1487</v>
       </c>
       <c r="E6">
-        <v>2968</v>
+        <v>3213</v>
       </c>
       <c r="F6">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -660,10 +660,10 @@
         <v>1490</v>
       </c>
       <c r="E7">
-        <v>3370</v>
+        <v>3795</v>
       </c>
       <c r="F7">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -680,10 +680,10 @@
         <v>1493</v>
       </c>
       <c r="E8">
-        <v>3898</v>
+        <v>4478</v>
       </c>
       <c r="F8">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -700,10 +700,10 @@
         <v>1496</v>
       </c>
       <c r="E9">
-        <v>4261</v>
+        <v>4992</v>
       </c>
       <c r="F9">
-        <v>304</v>
+        <v>371</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -720,10 +720,10 @@
         <v>1499</v>
       </c>
       <c r="E10">
-        <v>4610</v>
+        <v>5620</v>
       </c>
       <c r="F10">
-        <v>323</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -740,10 +740,10 @@
         <v>1502</v>
       </c>
       <c r="E11">
-        <v>5036</v>
+        <v>6262</v>
       </c>
       <c r="F11">
-        <v>352</v>
+        <v>465</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -760,10 +760,10 @@
         <v>1505</v>
       </c>
       <c r="E12">
-        <v>5240</v>
+        <v>6387</v>
       </c>
       <c r="F12">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -780,10 +780,10 @@
         <v>1508</v>
       </c>
       <c r="E13">
-        <v>5724</v>
+        <v>6978</v>
       </c>
       <c r="F13">
-        <v>417</v>
+        <v>539</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,10 +800,10 @@
         <v>1511</v>
       </c>
       <c r="E14">
-        <v>6372</v>
+        <v>7768</v>
       </c>
       <c r="F14">
-        <v>473</v>
+        <v>588</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -820,10 +820,10 @@
         <v>1514</v>
       </c>
       <c r="E15">
-        <v>6895</v>
+        <v>8405</v>
       </c>
       <c r="F15">
-        <v>512</v>
+        <v>624</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -840,10 +840,10 @@
         <v>1517</v>
       </c>
       <c r="E16">
-        <v>7532</v>
+        <v>9002</v>
       </c>
       <c r="F16">
-        <v>559</v>
+        <v>655</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -860,10 +860,10 @@
         <v>1520</v>
       </c>
       <c r="E17">
-        <v>8385</v>
+        <v>9632</v>
       </c>
       <c r="F17">
-        <v>623</v>
+        <v>701</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -880,10 +880,10 @@
         <v>1523</v>
       </c>
       <c r="E18">
-        <v>9322</v>
+        <v>10498</v>
       </c>
       <c r="F18">
-        <v>692</v>
+        <v>764</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -900,10 +900,10 @@
         <v>1526</v>
       </c>
       <c r="E19">
-        <v>9794</v>
+        <v>10813</v>
       </c>
       <c r="F19">
-        <v>727</v>
+        <v>803</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -920,10 +920,10 @@
         <v>1529</v>
       </c>
       <c r="E20">
-        <v>10390</v>
+        <v>11471</v>
       </c>
       <c r="F20">
-        <v>772</v>
+        <v>835</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -940,10 +940,10 @@
         <v>1532</v>
       </c>
       <c r="E21">
-        <v>11127</v>
+        <v>12285</v>
       </c>
       <c r="F21">
-        <v>810</v>
+        <v>877</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -960,10 +960,10 @@
         <v>1535</v>
       </c>
       <c r="E22">
-        <v>11350</v>
+        <v>12531</v>
       </c>
       <c r="F22">
-        <v>843</v>
+        <v>912</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -980,10 +980,10 @@
         <v>1538</v>
       </c>
       <c r="E23">
-        <v>11917</v>
+        <v>13158</v>
       </c>
       <c r="F23">
-        <v>903</v>
+        <v>958</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1000,10 +1000,10 @@
         <v>1541</v>
       </c>
       <c r="E24">
-        <v>12751</v>
+        <v>14079</v>
       </c>
       <c r="F24">
-        <v>985</v>
+        <v>1025</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1020,10 +1020,10 @@
         <v>1544</v>
       </c>
       <c r="E25">
-        <v>13261</v>
+        <v>14642</v>
       </c>
       <c r="F25">
-        <v>1045</v>
+        <v>1088</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1040,10 +1040,10 @@
         <v>1547</v>
       </c>
       <c r="E26">
-        <v>14203</v>
+        <v>15374</v>
       </c>
       <c r="F26">
-        <v>1119</v>
+        <v>1142</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1060,7 +1060,7 @@
         <v>1550</v>
       </c>
       <c r="E27">
-        <v>15501</v>
+        <v>16450</v>
       </c>
       <c r="F27">
         <v>1222</v>
@@ -1080,10 +1080,10 @@
         <v>1553</v>
       </c>
       <c r="E28">
-        <v>17234</v>
+        <v>17931</v>
       </c>
       <c r="F28">
-        <v>1358</v>
+        <v>1332</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1100,10 +1100,10 @@
         <v>1556</v>
       </c>
       <c r="E29">
-        <v>18106</v>
+        <v>18838</v>
       </c>
       <c r="F29">
-        <v>1427</v>
+        <v>1399</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1120,10 +1120,10 @@
         <v>1559</v>
       </c>
       <c r="E30">
-        <v>19207</v>
+        <v>19983</v>
       </c>
       <c r="F30">
-        <v>1544</v>
+        <v>1514</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1140,10 +1140,10 @@
         <v>1562</v>
       </c>
       <c r="E31">
-        <v>20571</v>
+        <v>21402</v>
       </c>
       <c r="F31">
-        <v>1687</v>
+        <v>1654</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1160,10 +1160,10 @@
         <v>1565</v>
       </c>
       <c r="E32">
-        <v>21830</v>
+        <v>22267</v>
       </c>
       <c r="F32">
-        <v>1790</v>
+        <v>1755</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1180,10 +1180,10 @@
         <v>1568</v>
       </c>
       <c r="E33">
-        <v>24324</v>
+        <v>23848</v>
       </c>
       <c r="F33">
-        <v>1995</v>
+        <v>1956</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1200,10 +1200,10 @@
         <v>1571</v>
       </c>
       <c r="E34">
-        <v>27079</v>
+        <v>26027</v>
       </c>
       <c r="F34">
-        <v>2221</v>
+        <v>2177</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1220,10 +1220,10 @@
         <v>1574</v>
       </c>
       <c r="E35">
-        <v>28725</v>
+        <v>27610</v>
       </c>
       <c r="F35">
-        <v>2403</v>
+        <v>2356</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1240,10 +1240,10 @@
         <v>1577</v>
       </c>
       <c r="E36">
-        <v>30765</v>
+        <v>29570</v>
       </c>
       <c r="F36">
-        <v>2625</v>
+        <v>2573</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1260,10 +1260,10 @@
         <v>1580</v>
       </c>
       <c r="E37">
-        <v>34248</v>
+        <v>32918</v>
       </c>
       <c r="F37">
-        <v>2922</v>
+        <v>2865</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1280,10 +1280,10 @@
         <v>1583</v>
       </c>
       <c r="E38">
-        <v>39615</v>
+        <v>38077</v>
       </c>
       <c r="F38">
-        <v>3380</v>
+        <v>3314</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1300,10 +1300,10 @@
         <v>1586</v>
       </c>
       <c r="E39">
-        <v>42452</v>
+        <v>40804</v>
       </c>
       <c r="F39">
-        <v>3622</v>
+        <v>3551</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1320,10 +1320,10 @@
         <v>1589</v>
       </c>
       <c r="E40">
-        <v>45033</v>
+        <v>43284</v>
       </c>
       <c r="F40">
-        <v>3842</v>
+        <v>3767</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1340,10 +1340,10 @@
         <v>1592</v>
       </c>
       <c r="E41">
-        <v>48231</v>
+        <v>46358</v>
       </c>
       <c r="F41">
-        <v>4197</v>
+        <v>4115</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1360,10 +1360,10 @@
         <v>1595</v>
       </c>
       <c r="E42">
-        <v>51183</v>
+        <v>49195</v>
       </c>
       <c r="F42">
-        <v>4454</v>
+        <v>4367</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1380,10 +1380,10 @@
         <v>1598</v>
       </c>
       <c r="E43">
-        <v>57031</v>
+        <v>54817</v>
       </c>
       <c r="F43">
-        <v>4963</v>
+        <v>4770</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1400,10 +1400,10 @@
         <v>1601</v>
       </c>
       <c r="E44">
-        <v>63489</v>
+        <v>61023</v>
       </c>
       <c r="F44">
-        <v>5525</v>
+        <v>5311</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1420,10 +1420,10 @@
         <v>1604</v>
       </c>
       <c r="E45">
-        <v>67349</v>
+        <v>64734</v>
       </c>
       <c r="F45">
-        <v>5861</v>
+        <v>5633</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>1607</v>
       </c>
       <c r="E46">
-        <v>72131</v>
+        <v>69330</v>
       </c>
       <c r="F46">
-        <v>6277</v>
+        <v>6033</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1460,10 +1460,10 @@
         <v>1610</v>
       </c>
       <c r="E47">
-        <v>80298</v>
+        <v>77180</v>
       </c>
       <c r="F47">
-        <v>6988</v>
+        <v>6717</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1480,10 +1480,10 @@
         <v>1613</v>
       </c>
       <c r="E48">
-        <v>92882</v>
+        <v>89275</v>
       </c>
       <c r="F48">
-        <v>8083</v>
+        <v>7769</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1500,10 +1500,10 @@
         <v>1616</v>
       </c>
       <c r="E49">
-        <v>99533</v>
+        <v>97582</v>
       </c>
       <c r="F49">
-        <v>8662</v>
+        <v>8492</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112B272-0724-4DF1-8D0B-AEF8F642C175}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CD2121-D792-4578-9EB2-1690294BD6D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1559,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2002,7 +2002,7 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -2318,16 +2318,16 @@
         <v>0.5</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2466,16 +2466,16 @@
         <v>0.5</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>8</v>
@@ -2614,16 +2614,16 @@
         <v>0.5</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2733,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="H41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>8</v>
@@ -2762,16 +2762,16 @@
         <v>0.5</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="H46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>8</v>
@@ -2913,13 +2913,13 @@
         <v>2</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48">
         <v>1</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CD2121-D792-4578-9EB2-1690294BD6D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF236CC4-FD68-4FA2-BBD2-F9A1FC0D5E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1123,7 +1123,7 @@
         <v>19983</v>
       </c>
       <c r="F30">
-        <v>1514</v>
+        <v>1484</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1143,7 +1143,7 @@
         <v>21402</v>
       </c>
       <c r="F31">
-        <v>1654</v>
+        <v>1590</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1163,7 +1163,7 @@
         <v>22267</v>
       </c>
       <c r="F32">
-        <v>1755</v>
+        <v>1654</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1183,7 +1183,7 @@
         <v>23848</v>
       </c>
       <c r="F33">
-        <v>1956</v>
+        <v>1771</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1203,7 +1203,7 @@
         <v>26027</v>
       </c>
       <c r="F34">
-        <v>2177</v>
+        <v>1895</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1223,7 +1223,7 @@
         <v>27610</v>
       </c>
       <c r="F35">
-        <v>2356</v>
+        <v>2051</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1243,7 +1243,7 @@
         <v>29570</v>
       </c>
       <c r="F36">
-        <v>2573</v>
+        <v>2240</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1260,10 +1260,10 @@
         <v>1580</v>
       </c>
       <c r="E37">
-        <v>32918</v>
+        <v>32273</v>
       </c>
       <c r="F37">
-        <v>2865</v>
+        <v>2494</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1280,10 +1280,10 @@
         <v>1583</v>
       </c>
       <c r="E38">
-        <v>38077</v>
+        <v>35881</v>
       </c>
       <c r="F38">
-        <v>3314</v>
+        <v>2828</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1300,10 +1300,10 @@
         <v>1586</v>
       </c>
       <c r="E39">
-        <v>40804</v>
+        <v>38450</v>
       </c>
       <c r="F39">
-        <v>3551</v>
+        <v>3031</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1320,10 +1320,10 @@
         <v>1589</v>
       </c>
       <c r="E40">
-        <v>43284</v>
+        <v>42436</v>
       </c>
       <c r="F40">
-        <v>3767</v>
+        <v>3279</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1343,7 +1343,7 @@
         <v>46358</v>
       </c>
       <c r="F41">
-        <v>4115</v>
+        <v>3582</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1363,7 +1363,7 @@
         <v>49195</v>
       </c>
       <c r="F42">
-        <v>4367</v>
+        <v>3878</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1383,7 +1383,7 @@
         <v>54817</v>
       </c>
       <c r="F43">
-        <v>4770</v>
+        <v>4236</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1403,7 +1403,7 @@
         <v>61023</v>
       </c>
       <c r="F44">
-        <v>5311</v>
+        <v>4716</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1423,7 +1423,7 @@
         <v>64734</v>
       </c>
       <c r="F45">
-        <v>5633</v>
+        <v>5102</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1443,7 +1443,7 @@
         <v>69330</v>
       </c>
       <c r="F46">
-        <v>6033</v>
+        <v>5685</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1463,7 +1463,7 @@
         <v>77180</v>
       </c>
       <c r="F47">
-        <v>6717</v>
+        <v>6329</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1483,7 +1483,7 @@
         <v>89275</v>
       </c>
       <c r="F48">
-        <v>7769</v>
+        <v>7321</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1503,7 +1503,7 @@
         <v>97582</v>
       </c>
       <c r="F49">
-        <v>8492</v>
+        <v>8162</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1523,7 +1523,7 @@
         <v>105585</v>
       </c>
       <c r="F50">
-        <v>9188</v>
+        <v>9008</v>
       </c>
       <c r="G50" t="s">
         <v>10</v>
@@ -1559,9 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF236CC4-FD68-4FA2-BBD2-F9A1FC0D5E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3178805A-6180-4974-8D2B-871023DE6399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
         <v>2106</v>
       </c>
       <c r="F2">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -583,7 +583,7 @@
         <v>2255</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -603,7 +603,7 @@
         <v>2511</v>
       </c>
       <c r="F4">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -623,7 +623,7 @@
         <v>2827</v>
       </c>
       <c r="F5">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -643,7 +643,7 @@
         <v>3213</v>
       </c>
       <c r="F6">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -663,7 +663,7 @@
         <v>3795</v>
       </c>
       <c r="F7">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -683,7 +683,7 @@
         <v>4478</v>
       </c>
       <c r="F8">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -703,7 +703,7 @@
         <v>4992</v>
       </c>
       <c r="F9">
-        <v>371</v>
+        <v>222</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -723,7 +723,7 @@
         <v>5620</v>
       </c>
       <c r="F10">
-        <v>417</v>
+        <v>250</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -743,7 +743,7 @@
         <v>6262</v>
       </c>
       <c r="F11">
-        <v>465</v>
+        <v>279</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -763,7 +763,7 @@
         <v>6387</v>
       </c>
       <c r="F12">
-        <v>494</v>
+        <v>296</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -783,7 +783,7 @@
         <v>6978</v>
       </c>
       <c r="F13">
-        <v>539</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -803,7 +803,7 @@
         <v>7768</v>
       </c>
       <c r="F14">
-        <v>588</v>
+        <v>353</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -823,7 +823,7 @@
         <v>8405</v>
       </c>
       <c r="F15">
-        <v>624</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -843,7 +843,7 @@
         <v>9002</v>
       </c>
       <c r="F16">
-        <v>655</v>
+        <v>393</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -863,7 +863,7 @@
         <v>9632</v>
       </c>
       <c r="F17">
-        <v>701</v>
+        <v>421</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -883,7 +883,7 @@
         <v>10498</v>
       </c>
       <c r="F18">
-        <v>764</v>
+        <v>459</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -903,7 +903,7 @@
         <v>10813</v>
       </c>
       <c r="F19">
-        <v>803</v>
+        <v>482</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -923,7 +923,7 @@
         <v>11471</v>
       </c>
       <c r="F20">
-        <v>835</v>
+        <v>501</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -943,7 +943,7 @@
         <v>12285</v>
       </c>
       <c r="F21">
-        <v>877</v>
+        <v>526</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -963,7 +963,7 @@
         <v>12531</v>
       </c>
       <c r="F22">
-        <v>912</v>
+        <v>547</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -983,7 +983,7 @@
         <v>13158</v>
       </c>
       <c r="F23">
-        <v>958</v>
+        <v>575</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1003,7 +1003,7 @@
         <v>14079</v>
       </c>
       <c r="F24">
-        <v>1025</v>
+        <v>615</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1023,7 +1023,7 @@
         <v>14642</v>
       </c>
       <c r="F25">
-        <v>1088</v>
+        <v>653</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1043,7 +1043,7 @@
         <v>15374</v>
       </c>
       <c r="F26">
-        <v>1142</v>
+        <v>685</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1063,7 +1063,7 @@
         <v>16450</v>
       </c>
       <c r="F27">
-        <v>1222</v>
+        <v>733</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1083,7 +1083,7 @@
         <v>17931</v>
       </c>
       <c r="F28">
-        <v>1332</v>
+        <v>799</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1103,7 +1103,7 @@
         <v>18838</v>
       </c>
       <c r="F29">
-        <v>1399</v>
+        <v>840</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1123,7 +1123,7 @@
         <v>19983</v>
       </c>
       <c r="F30">
-        <v>1484</v>
+        <v>891</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1143,7 +1143,7 @@
         <v>21402</v>
       </c>
       <c r="F31">
-        <v>1590</v>
+        <v>954</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1163,7 +1163,7 @@
         <v>22267</v>
       </c>
       <c r="F32">
-        <v>1654</v>
+        <v>992</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1183,7 +1183,7 @@
         <v>23848</v>
       </c>
       <c r="F33">
-        <v>1771</v>
+        <v>1063</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1203,7 +1203,7 @@
         <v>26027</v>
       </c>
       <c r="F34">
-        <v>1895</v>
+        <v>1137</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1223,7 +1223,7 @@
         <v>27610</v>
       </c>
       <c r="F35">
-        <v>2051</v>
+        <v>1230</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1243,7 +1243,7 @@
         <v>29570</v>
       </c>
       <c r="F36">
-        <v>2240</v>
+        <v>1344</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1263,7 +1263,7 @@
         <v>32273</v>
       </c>
       <c r="F37">
-        <v>2494</v>
+        <v>1496</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1283,7 +1283,7 @@
         <v>35881</v>
       </c>
       <c r="F38">
-        <v>2828</v>
+        <v>1697</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1303,7 +1303,7 @@
         <v>38450</v>
       </c>
       <c r="F39">
-        <v>3031</v>
+        <v>1818</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1323,7 +1323,7 @@
         <v>42436</v>
       </c>
       <c r="F40">
-        <v>3279</v>
+        <v>1968</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1343,7 +1343,7 @@
         <v>46358</v>
       </c>
       <c r="F41">
-        <v>3582</v>
+        <v>2149</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1363,7 +1363,7 @@
         <v>49195</v>
       </c>
       <c r="F42">
-        <v>3878</v>
+        <v>2327</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1383,7 +1383,7 @@
         <v>54817</v>
       </c>
       <c r="F43">
-        <v>4236</v>
+        <v>2542</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1403,7 +1403,7 @@
         <v>61023</v>
       </c>
       <c r="F44">
-        <v>4716</v>
+        <v>2829</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1423,7 +1423,7 @@
         <v>64734</v>
       </c>
       <c r="F45">
-        <v>5102</v>
+        <v>3061</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1443,7 +1443,7 @@
         <v>69330</v>
       </c>
       <c r="F46">
-        <v>5685</v>
+        <v>3411</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1463,7 +1463,7 @@
         <v>77180</v>
       </c>
       <c r="F47">
-        <v>6329</v>
+        <v>3797</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1483,7 +1483,7 @@
         <v>89275</v>
       </c>
       <c r="F48">
-        <v>7321</v>
+        <v>4393</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1503,7 +1503,7 @@
         <v>97582</v>
       </c>
       <c r="F49">
-        <v>8162</v>
+        <v>4897</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1523,7 +1523,7 @@
         <v>105585</v>
       </c>
       <c r="F50">
-        <v>9008</v>
+        <v>5405</v>
       </c>
       <c r="G50" t="s">
         <v>10</v>
@@ -1543,7 +1543,7 @@
         <v>113081</v>
       </c>
       <c r="F51">
-        <v>9841</v>
+        <v>5905</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>

--- a/Excel/NodeWar.xlsx
+++ b/Excel/NodeWar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3178805A-6180-4974-8D2B-871023DE6399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999D7E33-7031-4968-AA21-6727EFB24829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{58A65676-0E12-4085-834F-A51B13CCCABC}"/>
   </bookViews>
   <sheets>
     <sheet name="NodeWarTable" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="33">
   <si>
     <t>standardHp|Float</t>
   </si>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAC2F0-46E6-4DF2-B79E-2EADBFA0CE3A}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1549,6 +1549,1006 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>7170</v>
+      </c>
+      <c r="D52">
+        <v>1625</v>
+      </c>
+      <c r="E52">
+        <v>115343</v>
+      </c>
+      <c r="F52">
+        <v>6023</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>7181</v>
+      </c>
+      <c r="D53">
+        <v>1628</v>
+      </c>
+      <c r="E53">
+        <v>118735</v>
+      </c>
+      <c r="F53">
+        <v>6078</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>7192</v>
+      </c>
+      <c r="D54">
+        <v>1631</v>
+      </c>
+      <c r="E54">
+        <v>124556</v>
+      </c>
+      <c r="F54">
+        <v>6251</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>7203</v>
+      </c>
+      <c r="D55">
+        <v>1634</v>
+      </c>
+      <c r="E55">
+        <v>126998</v>
+      </c>
+      <c r="F55">
+        <v>6374</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>1637</v>
+      </c>
+      <c r="E56">
+        <v>130733</v>
+      </c>
+      <c r="F56">
+        <v>6561</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>7214</v>
+      </c>
+      <c r="D57">
+        <v>1640</v>
+      </c>
+      <c r="E57">
+        <v>137142</v>
+      </c>
+      <c r="F57">
+        <v>6748</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>7225</v>
+      </c>
+      <c r="D58">
+        <v>1643</v>
+      </c>
+      <c r="E58">
+        <v>146554</v>
+      </c>
+      <c r="F58">
+        <v>7069</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>7236</v>
+      </c>
+      <c r="D59">
+        <v>1646</v>
+      </c>
+      <c r="E59">
+        <v>147990</v>
+      </c>
+      <c r="F59">
+        <v>7139</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>7247</v>
+      </c>
+      <c r="D60">
+        <v>1649</v>
+      </c>
+      <c r="E60">
+        <v>150892</v>
+      </c>
+      <c r="F60">
+        <v>7279</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>1652</v>
+      </c>
+      <c r="E61">
+        <v>155330</v>
+      </c>
+      <c r="F61">
+        <v>7493</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>8297</v>
+      </c>
+      <c r="D62">
+        <v>1655</v>
+      </c>
+      <c r="E62">
+        <v>158437</v>
+      </c>
+      <c r="F62">
+        <v>7643</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>8308</v>
+      </c>
+      <c r="D63">
+        <v>1658</v>
+      </c>
+      <c r="E63">
+        <v>163097</v>
+      </c>
+      <c r="F63">
+        <v>7867</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>8319</v>
+      </c>
+      <c r="D64">
+        <v>1661</v>
+      </c>
+      <c r="E64">
+        <v>171092</v>
+      </c>
+      <c r="F64">
+        <v>8253</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>8330</v>
+      </c>
+      <c r="D65">
+        <v>1664</v>
+      </c>
+      <c r="E65">
+        <v>174446</v>
+      </c>
+      <c r="F65">
+        <v>8415</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>1667</v>
+      </c>
+      <c r="E66">
+        <v>179577</v>
+      </c>
+      <c r="F66">
+        <v>8662</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>8341</v>
+      </c>
+      <c r="D67">
+        <v>1670</v>
+      </c>
+      <c r="E67">
+        <v>188380</v>
+      </c>
+      <c r="F67">
+        <v>9087</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>8352</v>
+      </c>
+      <c r="D68">
+        <v>1673</v>
+      </c>
+      <c r="E68">
+        <v>201308</v>
+      </c>
+      <c r="F68">
+        <v>9711</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>8363</v>
+      </c>
+      <c r="D69">
+        <v>1676</v>
+      </c>
+      <c r="E69">
+        <v>203282</v>
+      </c>
+      <c r="F69">
+        <v>9806</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>8374</v>
+      </c>
+      <c r="D70">
+        <v>1679</v>
+      </c>
+      <c r="E70">
+        <v>207267</v>
+      </c>
+      <c r="F70">
+        <v>9998</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>1682</v>
+      </c>
+      <c r="E71">
+        <v>213364</v>
+      </c>
+      <c r="F71">
+        <v>10292</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>9424</v>
+      </c>
+      <c r="D72">
+        <v>1685</v>
+      </c>
+      <c r="E72">
+        <v>217631</v>
+      </c>
+      <c r="F72">
+        <v>10498</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>9435</v>
+      </c>
+      <c r="D73">
+        <v>1688</v>
+      </c>
+      <c r="E73">
+        <v>224032</v>
+      </c>
+      <c r="F73">
+        <v>10807</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>9446</v>
+      </c>
+      <c r="D74">
+        <v>1691</v>
+      </c>
+      <c r="E74">
+        <v>235014</v>
+      </c>
+      <c r="F74">
+        <v>11337</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>9457</v>
+      </c>
+      <c r="D75">
+        <v>1694</v>
+      </c>
+      <c r="E75">
+        <v>239622</v>
+      </c>
+      <c r="F75">
+        <v>11559</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>1697</v>
+      </c>
+      <c r="E76">
+        <v>246669</v>
+      </c>
+      <c r="F76">
+        <v>11899</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>9468</v>
+      </c>
+      <c r="D77">
+        <v>1700</v>
+      </c>
+      <c r="E77">
+        <v>258761</v>
+      </c>
+      <c r="F77">
+        <v>12237</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>9479</v>
+      </c>
+      <c r="D78">
+        <v>1703</v>
+      </c>
+      <c r="E78">
+        <v>276519</v>
+      </c>
+      <c r="F78">
+        <v>12821</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>9490</v>
+      </c>
+      <c r="D79">
+        <v>1706</v>
+      </c>
+      <c r="E79">
+        <v>279230</v>
+      </c>
+      <c r="F79">
+        <v>12947</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>9501</v>
+      </c>
+      <c r="D80">
+        <v>1709</v>
+      </c>
+      <c r="E80">
+        <v>284705</v>
+      </c>
+      <c r="F80">
+        <v>13200</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>1712</v>
+      </c>
+      <c r="E81">
+        <v>293079</v>
+      </c>
+      <c r="F81">
+        <v>13589</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>10551</v>
+      </c>
+      <c r="D82">
+        <v>1715</v>
+      </c>
+      <c r="E82">
+        <v>298941</v>
+      </c>
+      <c r="F82">
+        <v>13860</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>10562</v>
+      </c>
+      <c r="D83">
+        <v>1718</v>
+      </c>
+      <c r="E83">
+        <v>307733</v>
+      </c>
+      <c r="F83">
+        <v>14268</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>10573</v>
+      </c>
+      <c r="D84">
+        <v>1721</v>
+      </c>
+      <c r="E84">
+        <v>322818</v>
+      </c>
+      <c r="F84">
+        <v>14967</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>10584</v>
+      </c>
+      <c r="D85">
+        <v>1724</v>
+      </c>
+      <c r="E85">
+        <v>329148</v>
+      </c>
+      <c r="F85">
+        <v>15261</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>1727</v>
+      </c>
+      <c r="E86">
+        <v>338828</v>
+      </c>
+      <c r="F86">
+        <v>15710</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>10595</v>
+      </c>
+      <c r="D87">
+        <v>1730</v>
+      </c>
+      <c r="E87">
+        <v>355438</v>
+      </c>
+      <c r="F87">
+        <v>16157</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>10606</v>
+      </c>
+      <c r="D88">
+        <v>1733</v>
+      </c>
+      <c r="E88">
+        <v>379830</v>
+      </c>
+      <c r="F88">
+        <v>16927</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>10617</v>
+      </c>
+      <c r="D89">
+        <v>1736</v>
+      </c>
+      <c r="E89">
+        <v>383554</v>
+      </c>
+      <c r="F89">
+        <v>17093</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>10628</v>
+      </c>
+      <c r="D90">
+        <v>1739</v>
+      </c>
+      <c r="E90">
+        <v>391075</v>
+      </c>
+      <c r="F90">
+        <v>17428</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>15</v>
+      </c>
+      <c r="D91">
+        <v>1742</v>
+      </c>
+      <c r="E91">
+        <v>402577</v>
+      </c>
+      <c r="F91">
+        <v>17941</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>11678</v>
+      </c>
+      <c r="D92">
+        <v>1745</v>
+      </c>
+      <c r="E92">
+        <v>410629</v>
+      </c>
+      <c r="F92">
+        <v>18300</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>11689</v>
+      </c>
+      <c r="D93">
+        <v>1748</v>
+      </c>
+      <c r="E93">
+        <v>422706</v>
+      </c>
+      <c r="F93">
+        <v>18838</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>11700</v>
+      </c>
+      <c r="D94">
+        <v>1751</v>
+      </c>
+      <c r="E94">
+        <v>443427</v>
+      </c>
+      <c r="F94">
+        <v>19761</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>11711</v>
+      </c>
+      <c r="D95">
+        <v>1754</v>
+      </c>
+      <c r="E95">
+        <v>452122</v>
+      </c>
+      <c r="F95">
+        <v>20149</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>1757</v>
+      </c>
+      <c r="E96">
+        <v>465419</v>
+      </c>
+      <c r="F96">
+        <v>20741</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>11722</v>
+      </c>
+      <c r="D97">
+        <v>1760</v>
+      </c>
+      <c r="E97">
+        <v>488234</v>
+      </c>
+      <c r="F97">
+        <v>21758</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <v>11733</v>
+      </c>
+      <c r="D98">
+        <v>1763</v>
+      </c>
+      <c r="E98">
+        <v>521740</v>
+      </c>
+      <c r="F98">
+        <v>23251</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <v>11744</v>
+      </c>
+      <c r="D99">
+        <v>1766</v>
+      </c>
+      <c r="E99">
+        <v>526855</v>
+      </c>
+      <c r="F99">
+        <v>23949</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <v>11755</v>
+      </c>
+      <c r="D100">
+        <v>1769</v>
+      </c>
+      <c r="E100">
+        <v>537186</v>
+      </c>
+      <c r="F100">
+        <v>24907</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="D101">
+        <v>1772</v>
+      </c>
+      <c r="E101">
+        <v>552985</v>
+      </c>
+      <c r="F101">
+        <v>26152</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1557,9 +2557,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521FC81A-377B-48E3-9448-237CABED8214}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -2955,6 +3957,746 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0.5</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0.4</v>
+      </c>
+      <c r="H49">
+        <v>0.1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0.7</v>
+      </c>
+      <c r="H50">
+        <v>0.2</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53">
+        <v>60</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0.4</v>
+      </c>
+      <c r="H54">
+        <v>0.1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55">
+        <v>70</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0.7</v>
+      </c>
+      <c r="H55">
+        <v>0.2</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56">
+        <v>70</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>8</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>70</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>0.5</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>5</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58">
+        <v>70</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>80</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0.5</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0.4</v>
+      </c>
+      <c r="H59">
+        <v>0.1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60">
+        <v>80</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0.7</v>
+      </c>
+      <c r="H60">
+        <v>0.2</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61">
+        <v>80</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>0.5</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>8</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63">
+        <v>80</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>90</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0.5</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0.4</v>
+      </c>
+      <c r="H64">
+        <v>0.1</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>90</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0.7</v>
+      </c>
+      <c r="H65">
+        <v>0.2</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>90</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+      <c r="F66">
+        <v>0.5</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>90</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>0.5</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>32</v>
+      </c>
+      <c r="B68">
+        <v>90</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0.5</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0.4</v>
+      </c>
+      <c r="H69">
+        <v>0.1</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0.7</v>
+      </c>
+      <c r="H70">
+        <v>0.2</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71">
+        <v>100</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>20</v>
+      </c>
+      <c r="F71">
+        <v>0.5</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>8</v>
+      </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
+      </c>
+      <c r="F72">
+        <v>0.5</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>5</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2963,10 +4705,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C250392E-ABFE-4763-9299-8FF4A7CB0BD2}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3235,6 +4977,136 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>4.5</v>
+      </c>
+      <c r="G13">
+        <v>0.2</v>
+      </c>
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="F14">
+        <v>4.5</v>
+      </c>
+      <c r="G14">
+        <v>0.2</v>
+      </c>
+      <c r="H14">
+        <v>0.5</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
+      <c r="F15">
+        <v>4.5</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0.5</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+      <c r="F16">
+        <v>4.5</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <v>4.5</v>
+      </c>
+      <c r="G17">
+        <v>0.2</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
